--- a/Sonstiges/MFEM-Beispiel-Spring.xlsx
+++ b/Sonstiges/MFEM-Beispiel-Spring.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="97">
   <si>
     <t>1: Installation / Einrichtung</t>
   </si>
@@ -295,6 +295,33 @@
   </si>
   <si>
     <t>Fehlerrate bei 50.000 Anfragen mit 500 echt parallelen Clients in %</t>
+  </si>
+  <si>
+    <t>Verfügbar</t>
+  </si>
+  <si>
+    <t>Sehr gut</t>
+  </si>
+  <si>
+    <t>automatisch</t>
+  </si>
+  <si>
+    <t>enthalten</t>
+  </si>
+  <si>
+    <t>leicht umsetzbar</t>
+  </si>
+  <si>
+    <t>sehr gut</t>
+  </si>
+  <si>
+    <t>Sehr Umfangreich mit B.</t>
+  </si>
+  <si>
+    <t>40ms(Avg)</t>
+  </si>
+  <si>
+    <t>718MB</t>
   </si>
 </sst>
 </file>
@@ -685,7 +712,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -708,36 +735,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -751,18 +748,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -813,17 +798,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -975,22 +1009,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0</c:v>
+                  <c:v>0.916666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>0.416666666666667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1004,11 +1038,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1758300448"/>
-        <c:axId val="1857364624"/>
+        <c:axId val="466304912"/>
+        <c:axId val="466310352"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="1758300448"/>
+        <c:axId val="466304912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1051,7 +1085,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1857364624"/>
+        <c:crossAx val="466310352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1059,7 +1093,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1857364624"/>
+        <c:axId val="466310352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1110,7 +1144,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1758300448"/>
+        <c:crossAx val="466304912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2004,19 +2038,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="36" customWidth="1"/>
-    <col min="3" max="3" width="42.83203125" style="55" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="37.33203125" style="55" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="36" customWidth="1"/>
-    <col min="7" max="7" width="31" style="55" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="22" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="31" style="39" customWidth="1"/>
     <col min="8" max="8" width="24.1640625" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" customWidth="1"/>
   </cols>
@@ -2025,216 +2059,216 @@
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="17" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="20">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="20">
         <v>1</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="50">
+      <c r="F2" s="36">
         <v>1</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="37">
+      <c r="H2" s="23">
         <v>0.5</v>
       </c>
       <c r="I2" s="1">
         <f>IFERROR(VLOOKUP($F2,Evaluation!C:F,4,FALSE),0)*H2</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="29">
+      <c r="A3" s="42"/>
+      <c r="B3" s="45">
         <v>2</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="20">
         <v>2</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="36">
         <v>2</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="23">
         <v>0.5</v>
       </c>
       <c r="I3" s="2">
         <f>IFERROR(VLOOKUP($F3,Evaluation!C:F,4,FALSE),0)*H3</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="35">
+      <c r="A4" s="47"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="21">
         <v>3</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="36">
         <v>3</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="24">
         <v>0.25</v>
       </c>
       <c r="I4" s="2">
         <f>IFERROR(VLOOKUP($F4,Evaluation!C:F,4,FALSE),0)*H4</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="29">
+      <c r="A5" s="47"/>
+      <c r="B5" s="45">
         <v>3</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="20">
         <v>4</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="50">
+      <c r="F5" s="36">
         <v>4</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="24">
         <v>1</v>
       </c>
       <c r="I5" s="2">
         <f>IFERROR(VLOOKUP($F5,Evaluation!C:F,4,FALSE),0)*H5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="34">
+      <c r="A6" s="47"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="20">
         <v>5</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6" s="36">
         <v>5</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="24">
         <v>0.25</v>
       </c>
       <c r="I6" s="2">
         <f>IFERROR(VLOOKUP($F6,Evaluation!C:F,4,FALSE),0)*H6</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="35">
+      <c r="A7" s="47"/>
+      <c r="B7" s="21">
         <v>4</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="21">
         <v>6</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="36">
         <v>6</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="24">
         <v>0.25</v>
       </c>
       <c r="I7" s="2">
         <f>IFERROR(VLOOKUP($F7,Evaluation!C:F,4,FALSE),0)*H7</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="45">
         <v>5</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="20">
         <v>7</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="36">
         <v>7</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="24">
         <v>0.5</v>
       </c>
       <c r="I8" s="2">
@@ -2243,22 +2277,22 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="29">
+      <c r="A9" s="48"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45">
         <v>8</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="36">
         <v>8</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="24">
         <v>0.5</v>
       </c>
       <c r="I9" s="2">
@@ -2267,22 +2301,22 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="34">
+      <c r="A10" s="48"/>
+      <c r="B10" s="20">
         <v>6</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="50">
+      <c r="D10" s="46"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="36">
         <v>9</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="24">
         <v>0.5</v>
       </c>
       <c r="I10" s="2">
@@ -2291,26 +2325,26 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="35">
+      <c r="A11" s="42"/>
+      <c r="B11" s="21">
         <v>7</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="21">
         <v>9</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="50">
+      <c r="F11" s="36">
         <v>10</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="24">
         <v>0.25</v>
       </c>
       <c r="I11" s="2">
@@ -2319,316 +2353,316 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="45">
         <v>8</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="21">
         <v>10</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="50">
+      <c r="F12" s="36">
         <v>11</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="24">
         <v>1</v>
       </c>
       <c r="I12" s="2">
         <f>IFERROR(VLOOKUP($F12,Evaluation!C:F,4,FALSE),0)*H12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="34">
+      <c r="A13" s="48"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="20">
         <v>11</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="50">
+      <c r="F13" s="36">
         <v>12</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="24">
         <v>0.25</v>
       </c>
       <c r="I13" s="2">
         <f>IFERROR(VLOOKUP($F13,Evaluation!C:F,4,FALSE),0)*H13</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="29">
+      <c r="A14" s="48"/>
+      <c r="B14" s="45">
         <v>9</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="45">
         <v>12</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="50">
+      <c r="F14" s="36">
         <v>13</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="24">
         <v>0.25</v>
       </c>
       <c r="I14" s="2">
         <f>IFERROR(VLOOKUP($F14,Evaluation!C:F,4,FALSE),0)*H14</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="50">
+      <c r="A15" s="48"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="36">
         <v>14</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="24">
         <v>0.25</v>
       </c>
       <c r="I15" s="2">
         <f>IFERROR(VLOOKUP($F15,Evaluation!C:F,4,FALSE),0)*H15</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="34">
+      <c r="A16" s="48"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="20">
         <v>13</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="50">
+      <c r="F16" s="36">
         <v>15</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="24">
         <v>0.25</v>
       </c>
       <c r="I16" s="2">
         <f>IFERROR(VLOOKUP($F16,Evaluation!C:F,4,FALSE),0)*H16</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="34">
+      <c r="A17" s="48"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="20">
         <v>14</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="50">
+      <c r="F17" s="36">
         <v>16</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="24">
         <v>0.5</v>
       </c>
       <c r="I17" s="2">
         <f>IFERROR(VLOOKUP($F17,Evaluation!C:F,4,FALSE),0)*H17</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="35">
+      <c r="A18" s="42"/>
+      <c r="B18" s="21">
         <v>10</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="21">
         <v>15</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="36">
         <v>17</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="24">
         <v>1</v>
       </c>
       <c r="I18" s="2">
         <f>IFERROR(VLOOKUP($F18,Evaluation!C:F,4,FALSE),0)*H18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="21">
         <v>11</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="21">
         <v>16</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="50">
+      <c r="F19" s="36">
         <v>18</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="24">
         <v>0.5</v>
       </c>
       <c r="I19" s="2">
         <f>IFERROR(VLOOKUP($F19,Evaluation!C:F,4,FALSE),0)*H19</f>
-        <v>0</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="34">
+      <c r="A20" s="42"/>
+      <c r="B20" s="20">
         <v>12</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="20">
         <v>17</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="50">
+      <c r="F20" s="36">
         <v>19</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="24">
         <v>1</v>
       </c>
       <c r="I20" s="2">
         <f>IFERROR(VLOOKUP($F20,Evaluation!C:F,4,FALSE),0)*H20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="45">
         <v>13</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="21">
         <v>18</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="50">
+      <c r="F21" s="36">
         <v>20</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21" s="24">
         <v>0.5</v>
       </c>
       <c r="I21" s="2">
         <f>IFERROR(VLOOKUP($F21,Evaluation!C:F,4,FALSE),0)*H21</f>
-        <v>0</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="15"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="34">
+      <c r="A22" s="48"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="20">
         <v>19</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="50">
+      <c r="F22" s="36">
         <v>21</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H22" s="24">
         <v>0.5</v>
       </c>
       <c r="I22" s="2">
         <f>IFERROR(VLOOKUP($F22,Evaluation!C:F,4,FALSE),0)*H22</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="15"/>
-      <c r="B23" s="29">
+      <c r="A23" s="48"/>
+      <c r="B23" s="45">
         <v>14</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="20">
         <v>20</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="50">
+      <c r="F23" s="36">
         <v>22</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H23" s="24">
         <v>0.5</v>
       </c>
       <c r="I23" s="2">
@@ -2637,22 +2671,22 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="34">
+      <c r="A24" s="42"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="20">
         <v>21</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F24" s="50">
+      <c r="F24" s="36">
         <v>23</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="24">
         <v>0.25</v>
       </c>
       <c r="I24" s="2">
@@ -2661,28 +2695,28 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="45">
         <v>15</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="21">
         <v>22</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="50">
+      <c r="F25" s="36">
         <v>24</v>
       </c>
-      <c r="G25" s="33" t="s">
+      <c r="G25" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="H25" s="38">
+      <c r="H25" s="24">
         <v>0.5</v>
       </c>
       <c r="I25" s="2">
@@ -2691,22 +2725,22 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="15"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="29">
+      <c r="A26" s="48"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="45">
         <v>23</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="50">
+      <c r="F26" s="36">
         <v>25</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26" s="24">
         <v>0.1</v>
       </c>
       <c r="I26" s="2">
@@ -2715,18 +2749,18 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="50">
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="36">
         <v>26</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="H27" s="38">
+      <c r="H27" s="24">
         <v>0.1</v>
       </c>
       <c r="I27" s="2">
@@ -2735,38 +2769,38 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="35">
+      <c r="A28" s="42"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="21">
         <v>24</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="F28" s="50">
+      <c r="F28" s="36">
         <v>27</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="H28" s="38">
+      <c r="H28" s="24">
         <v>0.5</v>
       </c>
       <c r="I28" s="2">
         <f>IFERROR(VLOOKUP($F28,Evaluation!C:F,4,FALSE),0)*H28</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="38"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="24"/>
       <c r="I29" s="2">
         <f>IFERROR(VLOOKUP($F29,Evaluation!C:F,4,FALSE),0)*H29</f>
         <v>0</v>
@@ -2774,13 +2808,13 @@
     </row>
     <row r="30" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="38"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="24"/>
       <c r="I30" s="2">
         <f>IFERROR(VLOOKUP($F30,Evaluation!C:F,4,FALSE),0)*H30</f>
         <v>0</v>
@@ -2788,13 +2822,13 @@
     </row>
     <row r="31" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="38"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="24"/>
       <c r="I31" s="2">
         <f>IFERROR(VLOOKUP($F31,Evaluation!C:F,4,FALSE),0)*H31</f>
         <v>0</v>
@@ -2802,13 +2836,13 @@
     </row>
     <row r="32" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="38"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="24"/>
       <c r="I32" s="2">
         <f>IFERROR(VLOOKUP($F32,Evaluation!C:F,4,FALSE),0)*H32</f>
         <v>0</v>
@@ -2816,13 +2850,13 @@
     </row>
     <row r="33" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="38"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="24"/>
       <c r="I33" s="2">
         <f>IFERROR(VLOOKUP($F33,Evaluation!C:F,4,FALSE),0)*H33</f>
         <v>0</v>
@@ -2830,13 +2864,13 @@
     </row>
     <row r="34" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="38"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="24"/>
       <c r="I34" s="2">
         <f>IFERROR(VLOOKUP($F34,Evaluation!C:F,4,FALSE),0)*H34</f>
         <v>0</v>
@@ -2844,13 +2878,13 @@
     </row>
     <row r="35" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="38"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="2">
         <f>IFERROR(VLOOKUP($F35,Evaluation!C:F,4,FALSE),0)*H35</f>
         <v>0</v>
@@ -2858,13 +2892,13 @@
     </row>
     <row r="36" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="38"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="24"/>
       <c r="I36" s="2">
         <f>IFERROR(VLOOKUP($F36,Evaluation!C:F,4,FALSE),0)*H36</f>
         <v>0</v>
@@ -2872,13 +2906,13 @@
     </row>
     <row r="37" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="38"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="24"/>
       <c r="I37" s="2">
         <f>IFERROR(VLOOKUP($F37,Evaluation!C:F,4,FALSE),0)*H37</f>
         <v>0</v>
@@ -2886,13 +2920,13 @@
     </row>
     <row r="38" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="38"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="24"/>
       <c r="I38" s="2">
         <f>IFERROR(VLOOKUP($F38,Evaluation!C:F,4,FALSE),0)*H38</f>
         <v>0</v>
@@ -2900,13 +2934,13 @@
     </row>
     <row r="39" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="38"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="24"/>
       <c r="I39" s="2">
         <f>IFERROR(VLOOKUP($F39,Evaluation!C:F,4,FALSE),0)*H39</f>
         <v>0</v>
@@ -2914,13 +2948,13 @@
     </row>
     <row r="40" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="38"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="24"/>
       <c r="I40" s="2">
         <f>IFERROR(VLOOKUP($F40,Evaluation!C:F,4,FALSE),0)*H40</f>
         <v>0</v>
@@ -2928,13 +2962,13 @@
     </row>
     <row r="41" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="38"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="24"/>
       <c r="I41" s="2">
         <f>IFERROR(VLOOKUP($F41,Evaluation!C:F,4,FALSE),0)*H41</f>
         <v>0</v>
@@ -2942,13 +2976,13 @@
     </row>
     <row r="42" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="38"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="24"/>
       <c r="I42" s="2">
         <f>IFERROR(VLOOKUP($F42,Evaluation!C:F,4,FALSE),0)*H42</f>
         <v>0</v>
@@ -2956,27 +2990,27 @@
     </row>
     <row r="43" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="38"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="24"/>
       <c r="I43" s="2">
         <f>IFERROR(VLOOKUP($F43,Evaluation!C:F,4,FALSE),0)*H43</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="45"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="39"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="3">
         <f>IFERROR(VLOOKUP($F44,Evaluation!C:F,4,FALSE),0)*H44</f>
         <v>0</v>
@@ -2991,6 +3025,7 @@
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="C25:C28"/>
+    <mergeCell ref="A21:A24"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="B14:B17"/>
@@ -2999,7 +3034,9 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A11"/>
@@ -3009,9 +3046,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3021,12 +3055,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="2" width="10.83203125" customWidth="1"/>
     <col min="3" max="3" width="7.83203125" customWidth="1"/>
     <col min="4" max="4" width="67.1640625" customWidth="1"/>
     <col min="5" max="5" width="21.83203125" customWidth="1"/>
@@ -3034,7 +3069,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -3046,18 +3081,18 @@
       <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="8">
@@ -3067,12 +3102,16 @@
         <f>IFERROR(VLOOKUP($C2,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="46"/>
+      <c r="E2" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="32">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
-      <c r="B3" s="17"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="11">
         <v>12</v>
       </c>
@@ -3080,12 +3119,16 @@
         <f>IFERROR(VLOOKUP($C3,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="47"/>
+      <c r="E3" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="9">
         <v>15</v>
       </c>
@@ -3093,89 +3136,93 @@
         <f>IFERROR(VLOOKUP($C4,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (sehr gut, gut, schlecht)</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="47"/>
+      <c r="E4" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="9"/>
       <c r="D5" s="2" t="str">
         <f>IFERROR(VLOOKUP($C5,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="47"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="9"/>
       <c r="D6" s="2" t="str">
         <f>IFERROR(VLOOKUP($C6,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="47"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="9"/>
       <c r="D7" s="2" t="str">
         <f>IFERROR(VLOOKUP($C7,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="47"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="9"/>
       <c r="D8" s="2" t="str">
         <f>IFERROR(VLOOKUP($C8,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="47"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="9"/>
       <c r="D9" s="2" t="str">
         <f>IFERROR(VLOOKUP($C9,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="47"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="9"/>
       <c r="D10" s="2" t="str">
         <f>IFERROR(VLOOKUP($C10,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="47"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="10"/>
       <c r="D11" s="3" t="str">
         <f>IFERROR(VLOOKUP($C11,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="48"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="16" t="s">
+      <c r="A12" s="55"/>
+      <c r="B12" s="51" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="8">
@@ -3185,12 +3232,16 @@
         <f>IFERROR(VLOOKUP($C12,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala(automatisch, manuell, nicht möglich)</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="46"/>
+      <c r="E12" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="32">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="9">
         <v>5</v>
       </c>
@@ -3198,12 +3249,16 @@
         <f>IFERROR(VLOOKUP($C13,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala(automatisch, manuell, nicht möglich)</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="47"/>
+      <c r="E13" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="9">
         <v>6</v>
       </c>
@@ -3211,12 +3266,16 @@
         <f>IFERROR(VLOOKUP($C14,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="47"/>
+      <c r="E14" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="52"/>
       <c r="C15" s="9">
         <v>18</v>
       </c>
@@ -3224,12 +3283,16 @@
         <f>IFERROR(VLOOKUP($C15,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="47"/>
+      <c r="E15" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="33">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="9">
         <v>19</v>
       </c>
@@ -3237,12 +3300,16 @@
         <f>IFERROR(VLOOKUP($C16,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="47"/>
+      <c r="E16" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="9">
         <v>20</v>
       </c>
@@ -3250,12 +3317,16 @@
         <f>IFERROR(VLOOKUP($C17,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="47"/>
+      <c r="E17" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="33">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="9">
         <v>21</v>
       </c>
@@ -3263,45 +3334,49 @@
         <f>IFERROR(VLOOKUP($C18,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="47"/>
+      <c r="E18" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="9"/>
       <c r="D19" s="2" t="str">
         <f>IFERROR(VLOOKUP($C19,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="47"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="9"/>
       <c r="D20" s="2" t="str">
         <f>IFERROR(VLOOKUP($C20,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="47"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="10"/>
       <c r="D21" s="3" t="str">
         <f>IFERROR(VLOOKUP($C21,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="48"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="34"/>
     </row>
     <row r="22" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="16" t="s">
+      <c r="A22" s="55"/>
+      <c r="B22" s="51" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="8">
@@ -3311,12 +3386,16 @@
         <f>IFERROR(VLOOKUP($C22,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="46"/>
+      <c r="E22" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="32">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="9">
         <v>2</v>
       </c>
@@ -3324,12 +3403,16 @@
         <f>IFERROR(VLOOKUP($C23,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (automatisch, manuell, nicht möglich)</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="47"/>
+      <c r="E23" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="9">
         <v>3</v>
       </c>
@@ -3337,12 +3420,16 @@
         <f>IFERROR(VLOOKUP($C24,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (automatisch, manuell, nicht möglich)</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="47"/>
+      <c r="E24" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="9">
         <v>16</v>
       </c>
@@ -3350,12 +3437,16 @@
         <f>IFERROR(VLOOKUP($C25,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (sehr gut, gut, schlecht)</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="47"/>
+      <c r="E25" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="9">
         <v>17</v>
       </c>
@@ -3363,69 +3454,73 @@
         <f>IFERROR(VLOOKUP($C26,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (Sehr Umfangreich mit Beispielen, Umfangreich, Einfach, keine)</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="47"/>
+      <c r="E26" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="9"/>
       <c r="D27" s="2" t="str">
         <f>IFERROR(VLOOKUP($C27,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="47"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="9"/>
       <c r="D28" s="2" t="str">
         <f>IFERROR(VLOOKUP($C28,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="47"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="9"/>
       <c r="D29" s="2" t="str">
         <f>IFERROR(VLOOKUP($C29,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="47"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="33"/>
     </row>
     <row r="30" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="20"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="9"/>
       <c r="D30" s="2" t="str">
         <f>IFERROR(VLOOKUP($C30,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="47"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="33"/>
     </row>
     <row r="31" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="18"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="10"/>
       <c r="D31" s="3" t="str">
         <f>IFERROR(VLOOKUP($C31,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="48"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="34"/>
     </row>
     <row r="32" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="51" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="8">
@@ -3435,12 +3530,16 @@
         <f>IFERROR(VLOOKUP($C32,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>LoC</v>
       </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="46"/>
+      <c r="E32" s="14">
+        <v>6</v>
+      </c>
+      <c r="F32" s="32">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="9">
         <v>14</v>
       </c>
@@ -3448,100 +3547,104 @@
         <f>IFERROR(VLOOKUP($C33,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Methodenaufrufe</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="47"/>
+      <c r="E33" s="15">
+        <v>2</v>
+      </c>
+      <c r="F33" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
-      <c r="B34" s="17"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="52"/>
       <c r="C34" s="9"/>
       <c r="D34" s="2" t="str">
         <f>IFERROR(VLOOKUP($C34,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="47"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="33"/>
     </row>
     <row r="35" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="17"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="52"/>
       <c r="C35" s="9"/>
       <c r="D35" s="2" t="str">
         <f>IFERROR(VLOOKUP($C35,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="47"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="33"/>
     </row>
     <row r="36" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="17"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="52"/>
       <c r="C36" s="9"/>
       <c r="D36" s="2" t="str">
         <f>IFERROR(VLOOKUP($C36,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="47"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="33"/>
     </row>
     <row r="37" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
-      <c r="B37" s="17"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="52"/>
       <c r="C37" s="9"/>
       <c r="D37" s="2" t="str">
         <f>IFERROR(VLOOKUP($C37,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="47"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="33"/>
     </row>
     <row r="38" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="20"/>
-      <c r="B38" s="17"/>
+      <c r="A38" s="55"/>
+      <c r="B38" s="52"/>
       <c r="C38" s="9"/>
       <c r="D38" s="2" t="str">
         <f>IFERROR(VLOOKUP($C38,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E38" s="25"/>
-      <c r="F38" s="47"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="33"/>
     </row>
     <row r="39" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="20"/>
-      <c r="B39" s="17"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="52"/>
       <c r="C39" s="9"/>
       <c r="D39" s="2" t="str">
         <f>IFERROR(VLOOKUP($C39,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E39" s="25"/>
-      <c r="F39" s="47"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="33"/>
     </row>
     <row r="40" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
-      <c r="B40" s="17"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="52"/>
       <c r="C40" s="9"/>
       <c r="D40" s="2" t="str">
         <f>IFERROR(VLOOKUP($C40,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="47"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="33"/>
     </row>
     <row r="41" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="18"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="53"/>
       <c r="C41" s="10"/>
       <c r="D41" s="3" t="str">
         <f>IFERROR(VLOOKUP($C41,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E41" s="26"/>
-      <c r="F41" s="48"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="34"/>
     </row>
     <row r="42" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
-      <c r="B42" s="16" t="s">
+      <c r="A42" s="55"/>
+      <c r="B42" s="51" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="8">
@@ -3551,12 +3654,14 @@
         <f>IFERROR(VLOOKUP($C42,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Latenz Antwort bei Messung an Endpunkt ohne Logik</v>
       </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="46"/>
+      <c r="E42" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="32"/>
     </row>
     <row r="43" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="20"/>
-      <c r="B43" s="17"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="52"/>
       <c r="C43" s="9">
         <v>8</v>
       </c>
@@ -3564,12 +3669,14 @@
         <f>IFERROR(VLOOKUP($C43,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Fehlerrate bei 50.000 Anfragen mit 500 echt parallelen Clients in %</v>
       </c>
-      <c r="E43" s="25"/>
-      <c r="F43" s="47"/>
+      <c r="E43" s="57">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="F43" s="33"/>
     </row>
     <row r="44" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
-      <c r="B44" s="17"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="52"/>
       <c r="C44" s="9">
         <v>9</v>
       </c>
@@ -3577,12 +3684,14 @@
         <f>IFERROR(VLOOKUP($C44,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Druchsatz bei 50.000 Anfragen mit 500 echt parallelen Clients in Anfragen/Sek</v>
       </c>
-      <c r="E44" s="25"/>
-      <c r="F44" s="47"/>
+      <c r="E44" s="15">
+        <v>10813.1</v>
+      </c>
+      <c r="F44" s="33"/>
     </row>
     <row r="45" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
-      <c r="B45" s="17"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="52"/>
       <c r="C45" s="9">
         <v>10</v>
       </c>
@@ -3590,78 +3699,80 @@
         <f>IFERROR(VLOOKUP($C45,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Messung Heap Size: Kleiner 100MB</v>
       </c>
-      <c r="E45" s="25"/>
-      <c r="F45" s="47"/>
+      <c r="E45" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" s="33"/>
     </row>
     <row r="46" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="20"/>
-      <c r="B46" s="17"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="52"/>
       <c r="C46" s="9"/>
       <c r="D46" s="2" t="str">
         <f>IFERROR(VLOOKUP($C46,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E46" s="25"/>
-      <c r="F46" s="47"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="33"/>
     </row>
     <row r="47" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
-      <c r="B47" s="17"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="52"/>
       <c r="C47" s="9"/>
       <c r="D47" s="2" t="str">
         <f>IFERROR(VLOOKUP($C47,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="47"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="33"/>
     </row>
     <row r="48" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="20"/>
-      <c r="B48" s="17"/>
+      <c r="A48" s="55"/>
+      <c r="B48" s="52"/>
       <c r="C48" s="9"/>
       <c r="D48" s="2" t="str">
         <f>IFERROR(VLOOKUP($C48,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E48" s="25"/>
-      <c r="F48" s="47"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="33"/>
     </row>
     <row r="49" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="20"/>
-      <c r="B49" s="17"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="52"/>
       <c r="C49" s="9"/>
       <c r="D49" s="2" t="str">
         <f>IFERROR(VLOOKUP($C49,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E49" s="25"/>
-      <c r="F49" s="47"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="33"/>
     </row>
     <row r="50" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="20"/>
-      <c r="B50" s="17"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="52"/>
       <c r="C50" s="9"/>
       <c r="D50" s="2" t="str">
         <f>IFERROR(VLOOKUP($C50,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E50" s="25"/>
-      <c r="F50" s="47"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="33"/>
     </row>
     <row r="51" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="18"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="53"/>
       <c r="C51" s="10"/>
       <c r="D51" s="3" t="str">
         <f>IFERROR(VLOOKUP($C51,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E51" s="26"/>
-      <c r="F51" s="48"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="34"/>
     </row>
     <row r="52" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="20"/>
-      <c r="B52" s="16" t="s">
+      <c r="A52" s="55"/>
+      <c r="B52" s="51" t="s">
         <v>31</v>
       </c>
       <c r="C52" s="8">
@@ -3671,12 +3782,12 @@
         <f>IFERROR(VLOOKUP($C52,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Länge vom Support in Jahren pro Major Release</v>
       </c>
-      <c r="E52" s="24"/>
-      <c r="F52" s="46"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="32"/>
     </row>
     <row r="53" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="20"/>
-      <c r="B53" s="17"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="52"/>
       <c r="C53" s="9">
         <v>23</v>
       </c>
@@ -3684,12 +3795,12 @@
         <f>IFERROR(VLOOKUP($C53,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Kommerzieller Support vorhanden (j/n)</v>
       </c>
-      <c r="E53" s="25"/>
-      <c r="F53" s="47"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="33"/>
     </row>
     <row r="54" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="20"/>
-      <c r="B54" s="17"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="52"/>
       <c r="C54" s="9">
         <v>24</v>
       </c>
@@ -3697,12 +3808,12 @@
         <f>IFERROR(VLOOKUP($C54,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Release Zykluslänge bzw. Durchschnittlicher Majorrelease Abstand</v>
       </c>
-      <c r="E54" s="25"/>
-      <c r="F54" s="47"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="33"/>
     </row>
     <row r="55" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="20"/>
-      <c r="B55" s="17"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="52"/>
       <c r="C55" s="9">
         <v>25</v>
       </c>
@@ -3710,12 +3821,12 @@
         <f>IFERROR(VLOOKUP($C55,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Anzahl Firmen über 1000 MA</v>
       </c>
-      <c r="E55" s="25"/>
-      <c r="F55" s="47"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="33"/>
     </row>
     <row r="56" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="20"/>
-      <c r="B56" s="17"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="52"/>
       <c r="C56" s="9">
         <v>26</v>
       </c>
@@ -3723,12 +3834,12 @@
         <f>IFERROR(VLOOKUP($C56,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Anzahl Firmen über 100 MA</v>
       </c>
-      <c r="E56" s="25"/>
-      <c r="F56" s="47"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="33"/>
     </row>
     <row r="57" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="20"/>
-      <c r="B57" s="17"/>
+      <c r="A57" s="55"/>
+      <c r="B57" s="52"/>
       <c r="C57" s="9">
         <v>27</v>
       </c>
@@ -3736,52 +3847,56 @@
         <f>IFERROR(VLOOKUP($C57,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Github - Star + Watch + Fork</v>
       </c>
-      <c r="E57" s="25"/>
-      <c r="F57" s="47"/>
+      <c r="E57" s="15">
+        <v>23958</v>
+      </c>
+      <c r="F57" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="20"/>
-      <c r="B58" s="17"/>
+      <c r="A58" s="55"/>
+      <c r="B58" s="52"/>
       <c r="C58" s="9"/>
       <c r="D58" s="2" t="str">
         <f>IFERROR(VLOOKUP($C58,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E58" s="25"/>
-      <c r="F58" s="47"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="33"/>
     </row>
     <row r="59" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="20"/>
-      <c r="B59" s="17"/>
+      <c r="A59" s="55"/>
+      <c r="B59" s="52"/>
       <c r="C59" s="9"/>
       <c r="D59" s="2" t="str">
         <f>IFERROR(VLOOKUP($C59,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E59" s="25"/>
-      <c r="F59" s="47"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="33"/>
     </row>
     <row r="60" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
-      <c r="B60" s="17"/>
+      <c r="A60" s="55"/>
+      <c r="B60" s="52"/>
       <c r="C60" s="9"/>
       <c r="D60" s="2" t="str">
         <f>IFERROR(VLOOKUP($C60,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E60" s="25"/>
-      <c r="F60" s="47"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="33"/>
     </row>
     <row r="61" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
-      <c r="B61" s="18"/>
+      <c r="A61" s="56"/>
+      <c r="B61" s="53"/>
       <c r="C61" s="10"/>
       <c r="D61" s="3" t="str">
         <f>IFERROR(VLOOKUP($C61,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E61" s="26"/>
-      <c r="F61" s="48"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3813,7 +3928,7 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="26" t="s">
         <v>40</v>
       </c>
       <c r="B6" t="s">
@@ -3830,28 +3945,28 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="27">
         <f>SUM('QUT-GQM'!H2:H7)</f>
         <v>2.75</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="27">
         <f>SUM('QUT-GQM'!I2:I7)</f>
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="D7">
         <f>IFERROR(C7/B7,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="27">
         <f>SUM('QUT-GQM'!H8:H11)</f>
         <v>1.75</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="27">
         <f>SUM('QUT-GQM'!I8:I11)</f>
         <v>0</v>
       </c>
@@ -3864,68 +3979,68 @@
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="27">
         <f>SUM('QUT-GQM'!H12:H18)</f>
         <v>3.5</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="27">
         <f>SUM('QUT-GQM'!I12:I18)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="27">
         <f>SUM('QUT-GQM'!H19:H20)</f>
         <v>1.5</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="27">
         <f>SUM('QUT-GQM'!I19:I20)</f>
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="27">
         <f>SUM('QUT-GQM'!H21:H24)</f>
         <v>1.75</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="27">
         <f>SUM('QUT-GQM'!I21:I24)</f>
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="27">
         <f>SUM('QUT-GQM'!H25:H28)</f>
         <v>1.2</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="27">
         <f>SUM('QUT-GQM'!I25:I28)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
   </sheetData>

--- a/Sonstiges/MFEM-Beispiel-Spring.xlsx
+++ b/Sonstiges/MFEM-Beispiel-Spring.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="QUT-GQM" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
   <si>
     <t>1: Installation / Einrichtung</t>
   </si>
@@ -131,9 +131,6 @@
 (0.0 - 1.0)</t>
   </si>
   <si>
-    <t>Progressivität</t>
-  </si>
-  <si>
     <t>Aktive Community</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
     <t>Ist der Service leichtgewichtig?</t>
   </si>
   <si>
-    <t>Messung Heap Size: Kleiner 100MB</t>
-  </si>
-  <si>
     <t>Lässt sich automatisiert ein Build vom Service erstellen</t>
   </si>
   <si>
@@ -249,9 +243,6 @@
     <t>Wie lange wird ein Support gewährleistet?</t>
   </si>
   <si>
-    <t>Länge vom Support in Jahren pro Major Release</t>
-  </si>
-  <si>
     <t>Gibt es vom Hersteller Support</t>
   </si>
   <si>
@@ -267,12 +258,6 @@
     <t>Stehen große Firmen dahinter?</t>
   </si>
   <si>
-    <t>Anzahl Firmen über 1000 MA</t>
-  </si>
-  <si>
-    <t>Anzahl Firmen über 100 MA</t>
-  </si>
-  <si>
     <t>Wie viele Benutzer gibt es</t>
   </si>
   <si>
@@ -285,18 +270,6 @@
     <t>Latenz Antwort bei Messung an Endpunkt ohne Logik</t>
   </si>
   <si>
-    <t>Bleibt der Service bei Lastspitzen verfügbar?</t>
-  </si>
-  <si>
-    <t>Druchsatz bei 50.000 Anfragen mit 500 echt parallelen Clients in Anfragen/Sek</t>
-  </si>
-  <si>
-    <t>Stabile und kurze Reakionszeit</t>
-  </si>
-  <si>
-    <t>Fehlerrate bei 50.000 Anfragen mit 500 echt parallelen Clients in %</t>
-  </si>
-  <si>
     <t>Verfügbar</t>
   </si>
   <si>
@@ -322,6 +295,45 @@
   </si>
   <si>
     <t>718MB</t>
+  </si>
+  <si>
+    <t>Kurze Reakionszeit</t>
+  </si>
+  <si>
+    <t>Druchsatz bei 100.000 Anfragen mit 255 echt parallelen Clients in Anfragen/Sek</t>
+  </si>
+  <si>
+    <t>Kann der Service Lastspitzen aushalten und bewältigen?</t>
+  </si>
+  <si>
+    <t>8624 Anfr/sec</t>
+  </si>
+  <si>
+    <t>Messung Heap Size unter Last: Kleiner 100MB</t>
+  </si>
+  <si>
+    <t>10 Monate</t>
+  </si>
+  <si>
+    <t>8 Monate</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>Länge vom Support in Monaten pro Major Release</t>
+  </si>
+  <si>
+    <t>Firmen über 1000 MA</t>
+  </si>
+  <si>
+    <t>Firmen über 100 MA</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Zukunftssicherheit</t>
   </si>
 </sst>
 </file>
@@ -712,7 +724,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -805,35 +817,56 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -851,13 +884,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -997,7 +1023,7 @@
                   <c:v>Wartbarkeit</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Progressivität</c:v>
+                  <c:v>Zukunftssicherheit</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1012,7 +1038,7 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>0.66</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.0</c:v>
@@ -1021,10 +1047,10 @@
                   <c:v>0.916666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>0.928571428571429</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.416666666666667</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1038,11 +1064,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="466304912"/>
-        <c:axId val="466310352"/>
+        <c:axId val="2066138656"/>
+        <c:axId val="2066140432"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="466304912"/>
+        <c:axId val="2066138656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1085,7 +1111,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466310352"/>
+        <c:crossAx val="2066140432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1093,7 +1119,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="466310352"/>
+        <c:axId val="2066140432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1144,7 +1170,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466304912"/>
+        <c:crossAx val="2066138656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2036,10 +2062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2060,32 +2086,32 @@
         <v>7</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="40" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>25</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="54" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="20">
@@ -2098,13 +2124,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="36">
         <v>1</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2" s="23">
         <v>0.5</v>
@@ -2115,24 +2141,24 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42"/>
-      <c r="B3" s="45">
+      <c r="A3" s="54"/>
+      <c r="B3" s="50">
         <v>2</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="48" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="20">
         <v>2</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="36">
         <v>2</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" s="23">
         <v>0.5</v>
@@ -2143,20 +2169,20 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="44"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="21">
         <v>3</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="36">
         <v>3</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" s="24">
         <v>0.25</v>
@@ -2167,24 +2193,24 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
-      <c r="B5" s="45">
+      <c r="A5" s="57"/>
+      <c r="B5" s="50">
         <v>3</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="48" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="20">
         <v>4</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="36">
         <v>4</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" s="24">
         <v>1</v>
@@ -2195,20 +2221,20 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="44"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="20">
         <v>5</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="36">
         <v>5</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H6" s="24">
         <v>0.25</v>
@@ -2219,7 +2245,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="21">
         <v>4</v>
       </c>
@@ -2230,13 +2256,13 @@
         <v>6</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" s="36">
         <v>6</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" s="24">
         <v>0.25</v>
@@ -2247,93 +2273,103 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="43">
         <v>5</v>
       </c>
-      <c r="C8" s="43" t="s">
-        <v>86</v>
+      <c r="C8" s="41" t="s">
+        <v>88</v>
       </c>
       <c r="D8" s="20">
         <v>7</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F8" s="36">
         <v>7</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H8" s="24">
         <v>0.5</v>
       </c>
       <c r="I8" s="2">
         <f>IFERROR(VLOOKUP($F8,Evaluation!C:F,4,FALSE),0)*H8</f>
-        <v>0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="48"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45">
+      <c r="A9" s="53"/>
+      <c r="B9" s="20">
+        <v>6</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="44">
         <v>8</v>
       </c>
-      <c r="E9" s="43" t="s">
-        <v>84</v>
+      <c r="E9" s="42" t="s">
+        <v>90</v>
       </c>
       <c r="F9" s="36">
         <v>8</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H9" s="24">
         <v>0.5</v>
       </c>
       <c r="I9" s="2">
         <f>IFERROR(VLOOKUP($F9,Evaluation!C:F,4,FALSE),0)*H9</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="48"/>
-      <c r="B10" s="20">
-        <v>6</v>
+      <c r="A10" s="54"/>
+      <c r="B10" s="21">
+        <v>7</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="44"/>
+        <v>14</v>
+      </c>
+      <c r="D10" s="21">
+        <v>9</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="F10" s="36">
         <v>9</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H10" s="24">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I10" s="2">
         <f>IFERROR(VLOOKUP($F10,Evaluation!C:F,4,FALSE),0)*H10</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="42"/>
-      <c r="B11" s="21">
-        <v>7</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>14</v>
+      <c r="A11" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="50">
+        <v>8</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>17</v>
       </c>
       <c r="D11" s="21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>53</v>
@@ -2342,61 +2378,59 @@
         <v>10</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H11" s="24">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I11" s="2">
         <f>IFERROR(VLOOKUP($F11,Evaluation!C:F,4,FALSE),0)*H11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="45">
-        <v>8</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="21">
-        <v>10</v>
+      <c r="A12" s="53"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="20">
+        <v>11</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" s="36">
         <v>11</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H12" s="24">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="I12" s="2">
         <f>IFERROR(VLOOKUP($F12,Evaluation!C:F,4,FALSE),0)*H12</f>
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="48"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="20">
-        <v>11</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>56</v>
+      <c r="A13" s="53"/>
+      <c r="B13" s="50">
+        <v>9</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="50">
+        <v>12</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>58</v>
       </c>
       <c r="F13" s="36">
         <v>12</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H13" s="24">
         <v>0.25</v>
@@ -2407,24 +2441,16 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="48"/>
-      <c r="B14" s="45">
-        <v>9</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="45">
-        <v>12</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>60</v>
-      </c>
+      <c r="A14" s="53"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="36">
         <v>13</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H14" s="24">
         <v>0.25</v>
@@ -2435,16 +2461,20 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="44"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="20">
+        <v>13</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>59</v>
+      </c>
       <c r="F15" s="36">
         <v>14</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H15" s="24">
         <v>0.25</v>
@@ -2455,11 +2485,11 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>61</v>
@@ -2468,22 +2498,26 @@
         <v>15</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H16" s="24">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I16" s="2">
         <f>IFERROR(VLOOKUP($F16,Evaluation!C:F,4,FALSE),0)*H16</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="48"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="20">
-        <v>14</v>
+      <c r="A17" s="54"/>
+      <c r="B17" s="21">
+        <v>10</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="21">
+        <v>15</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>63</v>
@@ -2495,135 +2529,135 @@
         <v>62</v>
       </c>
       <c r="H17" s="24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I17" s="2">
         <f>IFERROR(VLOOKUP($F17,Evaluation!C:F,4,FALSE),0)*H17</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
+      <c r="A18" s="52" t="s">
+        <v>20</v>
+      </c>
       <c r="B18" s="21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D18" s="21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F18" s="36">
         <v>17</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H18" s="24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I18" s="2">
         <f>IFERROR(VLOOKUP($F18,Evaluation!C:F,4,FALSE),0)*H18</f>
-        <v>1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="21">
-        <v>11</v>
+      <c r="A19" s="54"/>
+      <c r="B19" s="20">
+        <v>12</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="21">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="D19" s="20">
+        <v>17</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F19" s="36">
         <v>18</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H19" s="24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I19" s="2">
         <f>IFERROR(VLOOKUP($F19,Evaluation!C:F,4,FALSE),0)*H19</f>
-        <v>0.375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="42"/>
-      <c r="B20" s="20">
-        <v>12</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="20">
-        <v>17</v>
+      <c r="A20" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="50">
+        <v>13</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="21">
+        <v>18</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F20" s="36">
         <v>19</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H20" s="24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I20" s="2">
         <f>IFERROR(VLOOKUP($F20,Evaluation!C:F,4,FALSE),0)*H20</f>
-        <v>1</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="45">
-        <v>13</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="21">
-        <v>18</v>
+      <c r="A21" s="53"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="20">
+        <v>19</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21" s="36">
         <v>20</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H21" s="24">
         <v>0.5</v>
       </c>
       <c r="I21" s="2">
         <f>IFERROR(VLOOKUP($F21,Evaluation!C:F,4,FALSE),0)*H21</f>
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="44"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="50">
+        <v>14</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>68</v>
+      </c>
       <c r="D22" s="20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>69</v>
@@ -2632,164 +2666,150 @@
         <v>21</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="H22" s="24">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I22" s="2">
         <f>IFERROR(VLOOKUP($F22,Evaluation!C:F,4,FALSE),0)*H22</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="48"/>
-      <c r="B23" s="45">
-        <v>14</v>
-      </c>
-      <c r="C23" s="43" t="s">
+      <c r="A23" s="54"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="20">
+        <v>21</v>
+      </c>
+      <c r="E23" s="19" t="s">
         <v>70</v>
-      </c>
-      <c r="D23" s="20">
-        <v>20</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>71</v>
       </c>
       <c r="F23" s="36">
         <v>22</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H23" s="24">
         <v>0.5</v>
       </c>
       <c r="I23" s="2">
         <f>IFERROR(VLOOKUP($F23,Evaluation!C:F,4,FALSE),0)*H23</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="42"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="20">
-        <v>21</v>
+      <c r="A24" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="50">
+        <v>15</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="21">
+        <v>22</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F24" s="36">
         <v>23</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H24" s="24">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I24" s="2">
         <f>IFERROR(VLOOKUP($F24,Evaluation!C:F,4,FALSE),0)*H24</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="45">
-        <v>15</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="21">
-        <v>22</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>75</v>
+      <c r="A25" s="53"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="50">
+        <v>23</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>74</v>
       </c>
       <c r="F25" s="36">
         <v>24</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="H25" s="24">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I25" s="2">
         <f>IFERROR(VLOOKUP($F25,Evaluation!C:F,4,FALSE),0)*H25</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="48"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="45">
-        <v>23</v>
-      </c>
-      <c r="E26" s="43" t="s">
-        <v>77</v>
-      </c>
+      <c r="A26" s="53"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="49"/>
       <c r="F26" s="36">
         <v>25</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="H26" s="24">
         <v>0.1</v>
       </c>
       <c r="I26" s="2">
         <f>IFERROR(VLOOKUP($F26,Evaluation!C:F,4,FALSE),0)*H26</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="48"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="44"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="21">
+        <v>24</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="F27" s="36">
         <v>26</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H27" s="24">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I27" s="2">
         <f>IFERROR(VLOOKUP($F27,Evaluation!C:F,4,FALSE),0)*H27</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="42"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="21">
-        <v>24</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="36">
-        <v>27</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="H28" s="24">
-        <v>0.5</v>
-      </c>
+      <c r="A28" s="4"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="24"/>
       <c r="I28" s="2">
         <f>IFERROR(VLOOKUP($F28,Evaluation!C:F,4,FALSE),0)*H28</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -2988,64 +3008,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="2">
+    <row r="43" spans="1:9" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="29"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="3">
         <f>IFERROR(VLOOKUP($F43,Evaluation!C:F,4,FALSE),0)*H43</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="3">
-        <f>IFERROR(VLOOKUP($F44,Evaluation!C:F,4,FALSE),0)*H44</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B21:B22"/>
+  <mergeCells count="24">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A17"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="A20:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3055,8 +3057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C61" sqref="C2:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3089,63 +3091,63 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>IFERROR(VLOOKUP($C2,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F2" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="55"/>
-      <c r="B3" s="52"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>IFERROR(VLOOKUP($C3,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F3" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55"/>
-      <c r="B4" s="52"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="str">
         <f>IFERROR(VLOOKUP($C4,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (sehr gut, gut, schlecht)</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F4" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="55"/>
-      <c r="B5" s="52"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="9"/>
       <c r="D5" s="2" t="str">
         <f>IFERROR(VLOOKUP($C5,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3155,8 +3157,8 @@
       <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="55"/>
-      <c r="B6" s="52"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="9"/>
       <c r="D6" s="2" t="str">
         <f>IFERROR(VLOOKUP($C6,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3166,8 +3168,8 @@
       <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="55"/>
-      <c r="B7" s="52"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="9"/>
       <c r="D7" s="2" t="str">
         <f>IFERROR(VLOOKUP($C7,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3177,8 +3179,8 @@
       <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="55"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="9"/>
       <c r="D8" s="2" t="str">
         <f>IFERROR(VLOOKUP($C8,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3188,8 +3190,8 @@
       <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="55"/>
-      <c r="B9" s="52"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="9"/>
       <c r="D9" s="2" t="str">
         <f>IFERROR(VLOOKUP($C9,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3199,8 +3201,8 @@
       <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="55"/>
-      <c r="B10" s="52"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="9"/>
       <c r="D10" s="2" t="str">
         <f>IFERROR(VLOOKUP($C10,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3210,8 +3212,8 @@
       <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="53"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="10"/>
       <c r="D11" s="3" t="str">
         <f>IFERROR(VLOOKUP($C11,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3221,8 +3223,8 @@
       <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
-      <c r="B12" s="51" t="s">
+      <c r="A12" s="62"/>
+      <c r="B12" s="58" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="8">
@@ -3233,15 +3235,15 @@
         <v>Ordinalskala(automatisch, manuell, nicht möglich)</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F12" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
-      <c r="B13" s="52"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="9">
         <v>5</v>
       </c>
@@ -3250,15 +3252,15 @@
         <v>Ordinalskala(automatisch, manuell, nicht möglich)</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F13" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="55"/>
-      <c r="B14" s="52"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="9">
         <v>6</v>
       </c>
@@ -3267,83 +3269,83 @@
         <v>Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F14" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="55"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2" t="str">
         <f>IFERROR(VLOOKUP($C15,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F15" s="33">
         <v>0.75</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="55"/>
-      <c r="B16" s="52"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2" t="str">
         <f>IFERROR(VLOOKUP($C16,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F16" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="55"/>
-      <c r="B17" s="52"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2" t="str">
         <f>IFERROR(VLOOKUP($C17,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F17" s="33">
         <v>0.75</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
-      <c r="B18" s="52"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2" t="str">
         <f>IFERROR(VLOOKUP($C18,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F18" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="55"/>
-      <c r="B19" s="52"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="9"/>
       <c r="D19" s="2" t="str">
         <f>IFERROR(VLOOKUP($C19,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3353,8 +3355,8 @@
       <c r="F19" s="33"/>
     </row>
     <row r="20" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="55"/>
-      <c r="B20" s="52"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="9"/>
       <c r="D20" s="2" t="str">
         <f>IFERROR(VLOOKUP($C20,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3364,8 +3366,8 @@
       <c r="F20" s="33"/>
     </row>
     <row r="21" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="10"/>
       <c r="D21" s="3" t="str">
         <f>IFERROR(VLOOKUP($C21,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3375,8 +3377,8 @@
       <c r="F21" s="34"/>
     </row>
     <row r="22" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="55"/>
-      <c r="B22" s="51" t="s">
+      <c r="A22" s="62"/>
+      <c r="B22" s="58" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="8">
@@ -3387,15 +3389,15 @@
         <v>Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F22" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="55"/>
-      <c r="B23" s="52"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="9">
         <v>2</v>
       </c>
@@ -3404,15 +3406,15 @@
         <v>Ordinalskala (automatisch, manuell, nicht möglich)</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F23" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="55"/>
-      <c r="B24" s="52"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="9">
         <v>3</v>
       </c>
@@ -3421,49 +3423,49 @@
         <v>Ordinalskala (automatisch, manuell, nicht möglich)</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F24" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="55"/>
-      <c r="B25" s="52"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="59"/>
       <c r="C25" s="9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="str">
         <f>IFERROR(VLOOKUP($C25,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (sehr gut, gut, schlecht)</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F25" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="55"/>
-      <c r="B26" s="52"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="59"/>
       <c r="C26" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="2" t="str">
         <f>IFERROR(VLOOKUP($C26,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Ordinalskala (Sehr Umfangreich mit Beispielen, Umfangreich, Einfach, keine)</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F26" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="55"/>
-      <c r="B27" s="52"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="9"/>
       <c r="D27" s="2" t="str">
         <f>IFERROR(VLOOKUP($C27,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3473,8 +3475,8 @@
       <c r="F27" s="33"/>
     </row>
     <row r="28" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="55"/>
-      <c r="B28" s="52"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="59"/>
       <c r="C28" s="9"/>
       <c r="D28" s="2" t="str">
         <f>IFERROR(VLOOKUP($C28,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3484,8 +3486,8 @@
       <c r="F28" s="33"/>
     </row>
     <row r="29" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="55"/>
-      <c r="B29" s="52"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="9"/>
       <c r="D29" s="2" t="str">
         <f>IFERROR(VLOOKUP($C29,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3495,8 +3497,8 @@
       <c r="F29" s="33"/>
     </row>
     <row r="30" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="55"/>
-      <c r="B30" s="52"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="59"/>
       <c r="C30" s="9"/>
       <c r="D30" s="2" t="str">
         <f>IFERROR(VLOOKUP($C30,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3506,8 +3508,8 @@
       <c r="F30" s="33"/>
     </row>
     <row r="31" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
-      <c r="B31" s="53"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="60"/>
       <c r="C31" s="10"/>
       <c r="D31" s="3" t="str">
         <f>IFERROR(VLOOKUP($C31,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3517,14 +3519,14 @@
       <c r="F31" s="34"/>
     </row>
     <row r="32" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="58" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="8">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D32" s="1" t="str">
         <f>IFERROR(VLOOKUP($C32,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3538,10 +3540,10 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="55"/>
-      <c r="B33" s="52"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="59"/>
       <c r="C33" s="9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="str">
         <f>IFERROR(VLOOKUP($C33,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3555,8 +3557,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="55"/>
-      <c r="B34" s="52"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="59"/>
       <c r="C34" s="9"/>
       <c r="D34" s="2" t="str">
         <f>IFERROR(VLOOKUP($C34,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3566,8 +3568,8 @@
       <c r="F34" s="33"/>
     </row>
     <row r="35" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="55"/>
-      <c r="B35" s="52"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="59"/>
       <c r="C35" s="9"/>
       <c r="D35" s="2" t="str">
         <f>IFERROR(VLOOKUP($C35,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3577,8 +3579,8 @@
       <c r="F35" s="33"/>
     </row>
     <row r="36" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="55"/>
-      <c r="B36" s="52"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="59"/>
       <c r="C36" s="9"/>
       <c r="D36" s="2" t="str">
         <f>IFERROR(VLOOKUP($C36,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3588,8 +3590,8 @@
       <c r="F36" s="33"/>
     </row>
     <row r="37" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="55"/>
-      <c r="B37" s="52"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="59"/>
       <c r="C37" s="9"/>
       <c r="D37" s="2" t="str">
         <f>IFERROR(VLOOKUP($C37,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3599,8 +3601,8 @@
       <c r="F37" s="33"/>
     </row>
     <row r="38" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="55"/>
-      <c r="B38" s="52"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="59"/>
       <c r="C38" s="9"/>
       <c r="D38" s="2" t="str">
         <f>IFERROR(VLOOKUP($C38,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3610,8 +3612,8 @@
       <c r="F38" s="33"/>
     </row>
     <row r="39" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="55"/>
-      <c r="B39" s="52"/>
+      <c r="A39" s="62"/>
+      <c r="B39" s="59"/>
       <c r="C39" s="9"/>
       <c r="D39" s="2" t="str">
         <f>IFERROR(VLOOKUP($C39,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3621,8 +3623,8 @@
       <c r="F39" s="33"/>
     </row>
     <row r="40" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="55"/>
-      <c r="B40" s="52"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="59"/>
       <c r="C40" s="9"/>
       <c r="D40" s="2" t="str">
         <f>IFERROR(VLOOKUP($C40,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3632,8 +3634,8 @@
       <c r="F40" s="33"/>
     </row>
     <row r="41" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
-      <c r="B41" s="53"/>
+      <c r="A41" s="62"/>
+      <c r="B41" s="60"/>
       <c r="C41" s="10"/>
       <c r="D41" s="3" t="str">
         <f>IFERROR(VLOOKUP($C41,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3643,8 +3645,8 @@
       <c r="F41" s="34"/>
     </row>
     <row r="42" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="55"/>
-      <c r="B42" s="51" t="s">
+      <c r="A42" s="62"/>
+      <c r="B42" s="58" t="s">
         <v>13</v>
       </c>
       <c r="C42" s="8">
@@ -3654,59 +3656,61 @@
         <f>IFERROR(VLOOKUP($C42,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Latenz Antwort bei Messung an Endpunkt ohne Logik</v>
       </c>
-      <c r="E42" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="F42" s="32"/>
+      <c r="E42" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F42" s="32">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="43" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="55"/>
-      <c r="B43" s="52"/>
+      <c r="A43" s="62"/>
+      <c r="B43" s="59"/>
       <c r="C43" s="9">
         <v>8</v>
       </c>
       <c r="D43" s="2" t="str">
         <f>IFERROR(VLOOKUP($C43,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Fehlerrate bei 50.000 Anfragen mit 500 echt parallelen Clients in %</v>
-      </c>
-      <c r="E43" s="57">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="F43" s="33"/>
+        <v>Druchsatz bei 100.000 Anfragen mit 255 echt parallelen Clients in Anfragen/Sek</v>
+      </c>
+      <c r="E43" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="33">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="55"/>
-      <c r="B44" s="52"/>
+      <c r="A44" s="62"/>
+      <c r="B44" s="59"/>
       <c r="C44" s="9">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="str">
         <f>IFERROR(VLOOKUP($C44,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Druchsatz bei 50.000 Anfragen mit 500 echt parallelen Clients in Anfragen/Sek</v>
-      </c>
-      <c r="E44" s="15">
-        <v>10813.1</v>
-      </c>
-      <c r="F44" s="33"/>
+        <v>Messung Heap Size unter Last: Kleiner 100MB</v>
+      </c>
+      <c r="E44" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="33">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="55"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="9">
-        <v>10</v>
-      </c>
+      <c r="A45" s="62"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="2" t="str">
         <f>IFERROR(VLOOKUP($C45,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Messung Heap Size: Kleiner 100MB</v>
-      </c>
-      <c r="E45" s="59" t="s">
-        <v>96</v>
-      </c>
+        <v/>
+      </c>
+      <c r="E45" s="46"/>
       <c r="F45" s="33"/>
     </row>
     <row r="46" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="55"/>
-      <c r="B46" s="52"/>
+      <c r="A46" s="62"/>
+      <c r="B46" s="59"/>
       <c r="C46" s="9"/>
       <c r="D46" s="2" t="str">
         <f>IFERROR(VLOOKUP($C46,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3716,8 +3720,8 @@
       <c r="F46" s="33"/>
     </row>
     <row r="47" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="55"/>
-      <c r="B47" s="52"/>
+      <c r="A47" s="62"/>
+      <c r="B47" s="59"/>
       <c r="C47" s="9"/>
       <c r="D47" s="2" t="str">
         <f>IFERROR(VLOOKUP($C47,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3727,8 +3731,8 @@
       <c r="F47" s="33"/>
     </row>
     <row r="48" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="55"/>
-      <c r="B48" s="52"/>
+      <c r="A48" s="62"/>
+      <c r="B48" s="59"/>
       <c r="C48" s="9"/>
       <c r="D48" s="2" t="str">
         <f>IFERROR(VLOOKUP($C48,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3738,8 +3742,8 @@
       <c r="F48" s="33"/>
     </row>
     <row r="49" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="55"/>
-      <c r="B49" s="52"/>
+      <c r="A49" s="62"/>
+      <c r="B49" s="59"/>
       <c r="C49" s="9"/>
       <c r="D49" s="2" t="str">
         <f>IFERROR(VLOOKUP($C49,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3749,8 +3753,8 @@
       <c r="F49" s="33"/>
     </row>
     <row r="50" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="55"/>
-      <c r="B50" s="52"/>
+      <c r="A50" s="62"/>
+      <c r="B50" s="59"/>
       <c r="C50" s="9"/>
       <c r="D50" s="2" t="str">
         <f>IFERROR(VLOOKUP($C50,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3760,8 +3764,8 @@
       <c r="F50" s="33"/>
     </row>
     <row r="51" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
-      <c r="B51" s="53"/>
+      <c r="A51" s="62"/>
+      <c r="B51" s="60"/>
       <c r="C51" s="10"/>
       <c r="D51" s="3" t="str">
         <f>IFERROR(VLOOKUP($C51,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3771,77 +3775,97 @@
       <c r="F51" s="34"/>
     </row>
     <row r="52" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="55"/>
-      <c r="B52" s="51" t="s">
+      <c r="A52" s="62"/>
+      <c r="B52" s="58" t="s">
         <v>31</v>
       </c>
       <c r="C52" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D52" s="1" t="str">
         <f>IFERROR(VLOOKUP($C52,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Länge vom Support in Jahren pro Major Release</v>
-      </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="32"/>
+        <v>Länge vom Support in Monaten pro Major Release</v>
+      </c>
+      <c r="E52" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="F52" s="32">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="55"/>
-      <c r="B53" s="52"/>
+      <c r="A53" s="62"/>
+      <c r="B53" s="59"/>
       <c r="C53" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D53" s="2" t="str">
         <f>IFERROR(VLOOKUP($C53,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Kommerzieller Support vorhanden (j/n)</v>
       </c>
-      <c r="E53" s="15"/>
-      <c r="F53" s="33"/>
+      <c r="E53" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="F53" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="55"/>
-      <c r="B54" s="52"/>
+      <c r="A54" s="62"/>
+      <c r="B54" s="59"/>
       <c r="C54" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D54" s="2" t="str">
         <f>IFERROR(VLOOKUP($C54,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Release Zykluslänge bzw. Durchschnittlicher Majorrelease Abstand</v>
       </c>
-      <c r="E54" s="15"/>
-      <c r="F54" s="33"/>
+      <c r="E54" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="F54" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="55"/>
-      <c r="B55" s="52"/>
+      <c r="A55" s="62"/>
+      <c r="B55" s="59"/>
       <c r="C55" s="9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D55" s="2" t="str">
         <f>IFERROR(VLOOKUP($C55,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Anzahl Firmen über 1000 MA</v>
-      </c>
-      <c r="E55" s="15"/>
-      <c r="F55" s="33"/>
+        <v>Firmen über 1000 MA</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F55" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="55"/>
-      <c r="B56" s="52"/>
+      <c r="A56" s="62"/>
+      <c r="B56" s="59"/>
       <c r="C56" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D56" s="2" t="str">
         <f>IFERROR(VLOOKUP($C56,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Anzahl Firmen über 100 MA</v>
-      </c>
-      <c r="E56" s="15"/>
-      <c r="F56" s="33"/>
+        <v>Firmen über 100 MA</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F56" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="55"/>
-      <c r="B57" s="52"/>
+      <c r="A57" s="62"/>
+      <c r="B57" s="59"/>
       <c r="C57" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D57" s="2" t="str">
         <f>IFERROR(VLOOKUP($C57,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3855,8 +3879,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="55"/>
-      <c r="B58" s="52"/>
+      <c r="A58" s="62"/>
+      <c r="B58" s="59"/>
       <c r="C58" s="9"/>
       <c r="D58" s="2" t="str">
         <f>IFERROR(VLOOKUP($C58,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3866,8 +3890,8 @@
       <c r="F58" s="33"/>
     </row>
     <row r="59" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="55"/>
-      <c r="B59" s="52"/>
+      <c r="A59" s="62"/>
+      <c r="B59" s="59"/>
       <c r="C59" s="9"/>
       <c r="D59" s="2" t="str">
         <f>IFERROR(VLOOKUP($C59,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3877,8 +3901,8 @@
       <c r="F59" s="33"/>
     </row>
     <row r="60" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="55"/>
-      <c r="B60" s="52"/>
+      <c r="A60" s="62"/>
+      <c r="B60" s="59"/>
       <c r="C60" s="9"/>
       <c r="D60" s="2" t="str">
         <f>IFERROR(VLOOKUP($C60,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3888,8 +3912,8 @@
       <c r="F60" s="33"/>
     </row>
     <row r="61" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="56"/>
-      <c r="B61" s="53"/>
+      <c r="A61" s="63"/>
+      <c r="B61" s="60"/>
       <c r="C61" s="10"/>
       <c r="D61" s="3" t="str">
         <f>IFERROR(VLOOKUP($C61,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3919,7 +3943,7 @@
   <dimension ref="A6:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3929,16 +3953,16 @@
   <sheetData>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3963,16 +3987,16 @@
         <v>13</v>
       </c>
       <c r="B8" s="27">
-        <f>SUM('QUT-GQM'!H8:H11)</f>
-        <v>1.75</v>
+        <f>SUM('QUT-GQM'!H8:H10)</f>
+        <v>1.25</v>
       </c>
       <c r="C8" s="27">
-        <f>SUM('QUT-GQM'!I8:I11)</f>
-        <v>0</v>
+        <f>SUM('QUT-GQM'!I8:I10)</f>
+        <v>0.82499999999999996</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:D12" si="0">IFERROR(C8/B8,0)</f>
-        <v>0</v>
+        <v>0.65999999999999992</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -3980,11 +4004,11 @@
         <v>16</v>
       </c>
       <c r="B9" s="27">
-        <f>SUM('QUT-GQM'!H12:H18)</f>
+        <f>SUM('QUT-GQM'!H11:H17)</f>
         <v>3.5</v>
       </c>
       <c r="C9" s="27">
-        <f>SUM('QUT-GQM'!I12:I18)</f>
+        <f>SUM('QUT-GQM'!I11:I17)</f>
         <v>3.5</v>
       </c>
       <c r="D9">
@@ -3997,11 +4021,11 @@
         <v>20</v>
       </c>
       <c r="B10" s="27">
-        <f>SUM('QUT-GQM'!H19:H20)</f>
+        <f>SUM('QUT-GQM'!H18:H19)</f>
         <v>1.5</v>
       </c>
       <c r="C10" s="27">
-        <f>SUM('QUT-GQM'!I19:I20)</f>
+        <f>SUM('QUT-GQM'!I18:I19)</f>
         <v>1.375</v>
       </c>
       <c r="D10">
@@ -4014,33 +4038,33 @@
         <v>23</v>
       </c>
       <c r="B11" s="27">
-        <f>SUM('QUT-GQM'!H21:H24)</f>
+        <f>SUM('QUT-GQM'!H20:H23)</f>
         <v>1.75</v>
       </c>
       <c r="C11" s="27">
-        <f>SUM('QUT-GQM'!I21:I24)</f>
-        <v>0.875</v>
+        <f>SUM('QUT-GQM'!I20:I23)</f>
+        <v>1.625</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="B12" s="27">
-        <f>SUM('QUT-GQM'!H25:H28)</f>
+        <f>SUM('QUT-GQM'!H24:H27)</f>
         <v>1.2</v>
       </c>
       <c r="C12" s="27">
-        <f>SUM('QUT-GQM'!I25:I28)</f>
-        <v>0.5</v>
+        <f>SUM('QUT-GQM'!I24:I27)</f>
+        <v>1.2</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>0.41666666666666669</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Sonstiges/MFEM-Beispiel-Spring.xlsx
+++ b/Sonstiges/MFEM-Beispiel-Spring.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="QUT-GQM" sheetId="2" r:id="rId1"/>
@@ -838,6 +838,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -849,23 +855,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1064,11 +1064,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2066138656"/>
-        <c:axId val="2066140432"/>
+        <c:axId val="176128320"/>
+        <c:axId val="215946448"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="2066138656"/>
+        <c:axId val="176128320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1111,7 +1111,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2066140432"/>
+        <c:crossAx val="215946448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1119,7 +1119,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2066140432"/>
+        <c:axId val="215946448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1170,7 +1170,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2066138656"/>
+        <c:crossAx val="176128320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2064,13 +2064,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="22" customWidth="1"/>
     <col min="3" max="3" width="42.83203125" style="39" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" style="22" customWidth="1"/>
@@ -2111,7 +2111,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="49" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="20">
@@ -2141,11 +2141,11 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54"/>
-      <c r="B3" s="50">
+      <c r="A3" s="49"/>
+      <c r="B3" s="52">
         <v>2</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="50" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="20">
@@ -2169,9 +2169,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="49"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="21">
         <v>3</v>
       </c>
@@ -2193,11 +2193,11 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
-      <c r="B5" s="50">
+      <c r="A5" s="54"/>
+      <c r="B5" s="52">
         <v>3</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="50" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="20">
@@ -2221,9 +2221,9 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="49"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="20">
         <v>5</v>
       </c>
@@ -2245,7 +2245,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="21">
         <v>4</v>
       </c>
@@ -2273,7 +2273,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="48" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="43">
@@ -2303,7 +2303,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="20">
         <v>6</v>
       </c>
@@ -2331,7 +2331,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="21">
         <v>7</v>
       </c>
@@ -2359,13 +2359,13 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="52">
         <v>8</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="50" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="21">
@@ -2389,9 +2389,9 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="53"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="49"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="20">
         <v>11</v>
       </c>
@@ -2413,17 +2413,17 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="53"/>
-      <c r="B13" s="50">
+      <c r="A13" s="55"/>
+      <c r="B13" s="52">
         <v>9</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="52">
         <v>12</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="50" t="s">
         <v>58</v>
       </c>
       <c r="F13" s="36">
@@ -2441,11 +2441,11 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="53"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="49"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="51"/>
       <c r="F14" s="36">
         <v>13</v>
       </c>
@@ -2461,9 +2461,9 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="53"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="56"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="20">
         <v>13</v>
       </c>
@@ -2485,9 +2485,9 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="53"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="49"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="20">
         <v>14</v>
       </c>
@@ -2509,7 +2509,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="21">
         <v>10</v>
       </c>
@@ -2537,7 +2537,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="48" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="21">
@@ -2567,7 +2567,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
+      <c r="A19" s="49"/>
       <c r="B19" s="20">
         <v>12</v>
       </c>
@@ -2595,13 +2595,13 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="50">
+      <c r="B20" s="52">
         <v>13</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="50" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="21">
@@ -2625,9 +2625,9 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="53"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="49"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="20">
         <v>19</v>
       </c>
@@ -2649,11 +2649,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53"/>
-      <c r="B22" s="50">
+      <c r="A22" s="55"/>
+      <c r="B22" s="52">
         <v>14</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="50" t="s">
         <v>68</v>
       </c>
       <c r="D22" s="20">
@@ -2677,9 +2677,9 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="49"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="20">
         <v>21</v>
       </c>
@@ -2701,13 +2701,13 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="50">
+      <c r="B24" s="52">
         <v>15</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="50" t="s">
         <v>33</v>
       </c>
       <c r="D24" s="21">
@@ -2731,13 +2731,13 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="53"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="50">
+      <c r="A25" s="55"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="52">
         <v>23</v>
       </c>
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="50" t="s">
         <v>74</v>
       </c>
       <c r="F25" s="36">
@@ -2755,11 +2755,11 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="53"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="49"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="51"/>
       <c r="F26" s="36">
         <v>25</v>
       </c>
@@ -2775,9 +2775,9 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="49"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="21">
         <v>24</v>
       </c>
@@ -3024,6 +3024,20 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="B20:B21"/>
@@ -3034,20 +3048,6 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="A20:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sonstiges/MFEM-Beispiel-Spring.xlsx
+++ b/Sonstiges/MFEM-Beispiel-Spring.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17920" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="QUT-GQM" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="107">
   <si>
     <t>1: Installation / Einrichtung</t>
   </si>
@@ -62,12 +62,6 @@
   </si>
   <si>
     <t>Die Schnittstelle ist nach dem HATEOAS Modell aufgebaut</t>
-  </si>
-  <si>
-    <t>Daten können im XML oder JSON Format übertragen werden</t>
-  </si>
-  <si>
-    <t>Fehler bei Inter-Service Kommunikation werden erkannt und behandelt</t>
   </si>
   <si>
     <t>Performance</t>
@@ -334,6 +328,30 @@
   </si>
   <si>
     <t>Zukunftssicherheit</t>
+  </si>
+  <si>
+    <t>Unterstützung Eureka Service Discovery</t>
+  </si>
+  <si>
+    <t>Kann das Framework den Service automatisch an der Discovery An- und Abmelden sowie ein Heartbeat senden?</t>
+  </si>
+  <si>
+    <t>Kann das Framework automatisch Instanzen eines bestimmten Services an der Discovery abfragen und für die Anfrage nutzen?</t>
+  </si>
+  <si>
+    <t>Standardisierte Datenformate</t>
+  </si>
+  <si>
+    <t>Verhinderung kaskadischer Fehler</t>
+  </si>
+  <si>
+    <t>Lassen sich schnell neue Instanzen hochfahren?</t>
+  </si>
+  <si>
+    <t>Messung Startzeit</t>
+  </si>
+  <si>
+    <t>5,3 Sekunden</t>
   </si>
 </sst>
 </file>
@@ -381,7 +399,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -714,6 +732,17 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -816,6 +845,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -828,45 +875,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -884,6 +910,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1038,7 +1067,7 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66</c:v>
+                  <c:v>0.55</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.0</c:v>
@@ -1064,11 +1093,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="176128320"/>
-        <c:axId val="215946448"/>
+        <c:axId val="-610099520"/>
+        <c:axId val="-610097472"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="176128320"/>
+        <c:axId val="-610099520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1111,7 +1140,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="215946448"/>
+        <c:crossAx val="-610097472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1119,7 +1148,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215946448"/>
+        <c:axId val="-610097472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1170,7 +1199,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176128320"/>
+        <c:crossAx val="-610099520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2062,10 +2091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2086,32 +2115,32 @@
         <v>7</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" s="40" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="53" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="20">
@@ -2124,13 +2153,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="36">
         <v>1</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H2" s="23">
         <v>0.5</v>
@@ -2141,24 +2170,24 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49"/>
-      <c r="B3" s="52">
+      <c r="A3" s="53"/>
+      <c r="B3" s="49">
         <v>2</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="47" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="20">
         <v>2</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F3" s="36">
         <v>2</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H3" s="23">
         <v>0.5</v>
@@ -2169,20 +2198,20 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="51"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="21">
         <v>3</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F4" s="36">
         <v>3</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H4" s="24">
         <v>0.25</v>
@@ -2193,24 +2222,24 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="52">
+      <c r="A5" s="56"/>
+      <c r="B5" s="49">
         <v>3</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>11</v>
+      <c r="C5" s="47" t="s">
+        <v>102</v>
       </c>
       <c r="D5" s="20">
         <v>4</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" s="36">
         <v>4</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H5" s="24">
         <v>1</v>
@@ -2221,20 +2250,20 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="51"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="20">
         <v>5</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F6" s="36">
         <v>5</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H6" s="24">
         <v>0.25</v>
@@ -2245,85 +2274,79 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="21">
-        <v>4</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="21">
-        <v>6</v>
+      <c r="A7" s="56"/>
+      <c r="B7" s="49">
+        <v>16</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="20">
+        <v>25</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="F7" s="36">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H7" s="24">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I7" s="2">
         <f>IFERROR(VLOOKUP($F7,Evaluation!C:F,4,FALSE),0)*H7</f>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="43">
-        <v>5</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>88</v>
-      </c>
+      <c r="A8" s="56"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="20">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="F8" s="36">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="H8" s="24">
         <v>0.5</v>
       </c>
       <c r="I8" s="2">
         <f>IFERROR(VLOOKUP($F8,Evaluation!C:F,4,FALSE),0)*H8</f>
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="55"/>
-      <c r="B9" s="20">
+      <c r="A9" s="56"/>
+      <c r="B9" s="21">
+        <v>4</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="21">
         <v>6</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="44">
-        <v>8</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>90</v>
+      <c r="E9" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="F9" s="36">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="H9" s="24">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I9" s="2">
         <f>IFERROR(VLOOKUP($F9,Evaluation!C:F,4,FALSE),0)*H9</f>
@@ -2331,81 +2354,78 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
-      <c r="B10" s="21">
+      <c r="A10" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="49">
+        <v>5</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="20">
         <v>7</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="21">
-        <v>9</v>
-      </c>
       <c r="E10" s="19" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="F10" s="36">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="H10" s="24">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I10" s="2">
         <f>IFERROR(VLOOKUP($F10,Evaluation!C:F,4,FALSE),0)*H10</f>
-        <v>0.125</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="52">
+      <c r="A11" s="52"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="63">
+        <v>27</v>
+      </c>
+      <c r="E11" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="36">
+        <v>29</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="52"/>
+      <c r="B12" s="20">
+        <v>6</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="42">
         <v>8</v>
       </c>
-      <c r="C11" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="21">
-        <v>10</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="36">
-        <v>10</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="24">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2">
-        <f>IFERROR(VLOOKUP($F11,Evaluation!C:F,4,FALSE),0)*H11</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="20">
-        <v>11</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>54</v>
+      <c r="E12" s="41" t="s">
+        <v>88</v>
       </c>
       <c r="F12" s="36">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="H12" s="24">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I12" s="2">
         <f>IFERROR(VLOOKUP($F12,Evaluation!C:F,4,FALSE),0)*H12</f>
@@ -2413,68 +2433,78 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
-      <c r="B13" s="52">
+      <c r="A13" s="53"/>
+      <c r="B13" s="21">
+        <v>7</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="21">
         <v>9</v>
       </c>
-      <c r="C13" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="52">
-        <v>12</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>58</v>
+      <c r="E13" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="F13" s="36">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="H13" s="24">
         <v>0.25</v>
       </c>
       <c r="I13" s="2">
         <f>IFERROR(VLOOKUP($F13,Evaluation!C:F,4,FALSE),0)*H13</f>
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="55"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="51"/>
+      <c r="A14" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="49">
+        <v>8</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="21">
+        <v>10</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>51</v>
+      </c>
       <c r="F14" s="36">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H14" s="24">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2">
         <f>IFERROR(VLOOKUP($F14,Evaluation!C:F,4,FALSE),0)*H14</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="55"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="20">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F15" s="36">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H15" s="24">
         <v>0.25</v>
@@ -2485,242 +2515,232 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="55"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="20">
-        <v>14</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>61</v>
+      <c r="A16" s="52"/>
+      <c r="B16" s="49">
+        <v>9</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="49">
+        <v>12</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>56</v>
       </c>
       <c r="F16" s="36">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H16" s="24">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I16" s="2">
         <f>IFERROR(VLOOKUP($F16,Evaluation!C:F,4,FALSE),0)*H16</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
-      <c r="B17" s="21">
-        <v>10</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="21">
-        <v>15</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>63</v>
-      </c>
+      <c r="A17" s="52"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="48"/>
       <c r="F17" s="36">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H17" s="24">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="I17" s="2">
         <f>IFERROR(VLOOKUP($F17,Evaluation!C:F,4,FALSE),0)*H17</f>
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="21">
-        <v>11</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="21">
-        <v>16</v>
+      <c r="A18" s="52"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="20">
+        <v>13</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F18" s="36">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H18" s="24">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I18" s="2">
         <f>IFERROR(VLOOKUP($F18,Evaluation!C:F,4,FALSE),0)*H18</f>
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
-      <c r="B19" s="20">
-        <v>12</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>22</v>
-      </c>
+      <c r="A19" s="52"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="20">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F19" s="36">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H19" s="24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I19" s="2">
         <f>IFERROR(VLOOKUP($F19,Evaluation!C:F,4,FALSE),0)*H19</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="53"/>
+      <c r="B20" s="21">
+        <v>10</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="21">
+        <v>15</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="36">
+        <v>16</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="24">
         <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="52">
-        <v>13</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="21">
-        <v>18</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="36">
-        <v>19</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="24">
-        <v>0.5</v>
       </c>
       <c r="I20" s="2">
         <f>IFERROR(VLOOKUP($F20,Evaluation!C:F,4,FALSE),0)*H20</f>
-        <v>0.375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="55"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="20">
+      <c r="A21" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="21">
+        <v>11</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>19</v>
       </c>
+      <c r="D21" s="21">
+        <v>16</v>
+      </c>
       <c r="E21" s="19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F21" s="36">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H21" s="24">
         <v>0.5</v>
       </c>
       <c r="I21" s="2">
         <f>IFERROR(VLOOKUP($F21,Evaluation!C:F,4,FALSE),0)*H21</f>
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="55"/>
-      <c r="B22" s="52">
-        <v>14</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>68</v>
+      <c r="A22" s="53"/>
+      <c r="B22" s="20">
+        <v>12</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>20</v>
       </c>
       <c r="D22" s="20">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F22" s="36">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="H22" s="24">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="I22" s="2">
         <f>IFERROR(VLOOKUP($F22,Evaluation!C:F,4,FALSE),0)*H22</f>
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="20">
+      <c r="A23" s="51" t="s">
         <v>21</v>
       </c>
+      <c r="B23" s="49">
+        <v>13</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="21">
+        <v>18</v>
+      </c>
       <c r="E23" s="19" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F23" s="36">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="H23" s="24">
         <v>0.5</v>
       </c>
       <c r="I23" s="2">
         <f>IFERROR(VLOOKUP($F23,Evaluation!C:F,4,FALSE),0)*H23</f>
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="52">
-        <v>15</v>
-      </c>
-      <c r="C24" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="21">
-        <v>22</v>
+      <c r="A24" s="52"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="20">
+        <v>19</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F24" s="36">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="H24" s="24">
         <v>0.5</v>
@@ -2731,64 +2751,78 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="55"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="52">
-        <v>23</v>
-      </c>
-      <c r="E25" s="50" t="s">
-        <v>74</v>
+      <c r="A25" s="52"/>
+      <c r="B25" s="49">
+        <v>14</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="20">
+        <v>20</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="F25" s="36">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H25" s="24">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="I25" s="2">
         <f>IFERROR(VLOOKUP($F25,Evaluation!C:F,4,FALSE),0)*H25</f>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="55"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="51"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="20">
+        <v>21</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>68</v>
+      </c>
       <c r="F26" s="36">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="H26" s="24">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I26" s="2">
         <f>IFERROR(VLOOKUP($F26,Evaluation!C:F,4,FALSE),0)*H26</f>
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="51"/>
+      <c r="A27" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="49">
+        <v>15</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>31</v>
+      </c>
       <c r="D27" s="21">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F27" s="36">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H27" s="24">
         <v>0.5</v>
@@ -2799,45 +2833,71 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="24"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="49">
+        <v>23</v>
+      </c>
+      <c r="E28" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="36">
+        <v>24</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" s="24">
+        <v>0.1</v>
+      </c>
       <c r="I28" s="2">
         <f>IFERROR(VLOOKUP($F28,Evaluation!C:F,4,FALSE),0)*H28</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="24"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="36">
+        <v>25</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" s="24">
+        <v>0.1</v>
+      </c>
       <c r="I29" s="2">
         <f>IFERROR(VLOOKUP($F29,Evaluation!C:F,4,FALSE),0)*H29</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="24"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="21">
+        <v>24</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="36">
+        <v>26</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="24">
+        <v>0.5</v>
+      </c>
       <c r="I30" s="2">
         <f>IFERROR(VLOOKUP($F30,Evaluation!C:F,4,FALSE),0)*H30</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -3008,46 +3068,92 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="3">
+    <row r="43" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="2">
         <f>IFERROR(VLOOKUP($F43,Evaluation!C:F,4,FALSE),0)*H43</f>
         <v>0</v>
       </c>
     </row>
+    <row r="44" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="2">
+        <f>IFERROR(VLOOKUP($F44,Evaluation!C:F,4,FALSE),0)*H44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="2">
+        <f>IFERROR(VLOOKUP($F45,Evaluation!C:F,4,FALSE),0)*H45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="29"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="3">
+        <f>IFERROR(VLOOKUP($F46,Evaluation!C:F,4,FALSE),0)*H46</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B21"/>
+  <mergeCells count="28">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A20"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3057,8 +3163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C61" sqref="C2:C61"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3072,10 +3178,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>6</v>
@@ -3087,14 +3193,14 @@
         <v>5</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="57" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="8">
@@ -3105,15 +3211,15 @@
         <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F2" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="62"/>
-      <c r="B3" s="59"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="11">
         <v>11</v>
       </c>
@@ -3122,15 +3228,15 @@
         <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F3" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62"/>
-      <c r="B4" s="59"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="9">
         <v>14</v>
       </c>
@@ -3139,15 +3245,15 @@
         <v>Ordinalskala (sehr gut, gut, schlecht)</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F4" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="62"/>
-      <c r="B5" s="59"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="9"/>
       <c r="D5" s="2" t="str">
         <f>IFERROR(VLOOKUP($C5,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3157,8 +3263,8 @@
       <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="62"/>
-      <c r="B6" s="59"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="9"/>
       <c r="D6" s="2" t="str">
         <f>IFERROR(VLOOKUP($C6,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3168,8 +3274,8 @@
       <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="62"/>
-      <c r="B7" s="59"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="9"/>
       <c r="D7" s="2" t="str">
         <f>IFERROR(VLOOKUP($C7,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3179,8 +3285,8 @@
       <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="62"/>
-      <c r="B8" s="59"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="9"/>
       <c r="D8" s="2" t="str">
         <f>IFERROR(VLOOKUP($C8,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3190,8 +3296,8 @@
       <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="62"/>
-      <c r="B9" s="59"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="9"/>
       <c r="D9" s="2" t="str">
         <f>IFERROR(VLOOKUP($C9,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3201,8 +3307,8 @@
       <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="62"/>
-      <c r="B10" s="59"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="9"/>
       <c r="D10" s="2" t="str">
         <f>IFERROR(VLOOKUP($C10,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3212,8 +3318,8 @@
       <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="60"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="10"/>
       <c r="D11" s="3" t="str">
         <f>IFERROR(VLOOKUP($C11,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3223,8 +3329,8 @@
       <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
-      <c r="B12" s="58" t="s">
+      <c r="A12" s="61"/>
+      <c r="B12" s="57" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="8">
@@ -3235,15 +3341,15 @@
         <v>Ordinalskala(automatisch, manuell, nicht möglich)</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F12" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
-      <c r="B13" s="59"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="9">
         <v>5</v>
       </c>
@@ -3252,15 +3358,15 @@
         <v>Ordinalskala(automatisch, manuell, nicht möglich)</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F13" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="62"/>
-      <c r="B14" s="59"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="9">
         <v>6</v>
       </c>
@@ -3269,15 +3375,15 @@
         <v>Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F14" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="62"/>
-      <c r="B15" s="59"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="9">
         <v>17</v>
       </c>
@@ -3286,15 +3392,15 @@
         <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F15" s="33">
         <v>0.75</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="9">
         <v>18</v>
       </c>
@@ -3303,15 +3409,15 @@
         <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F16" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="62"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="9">
         <v>19</v>
       </c>
@@ -3320,15 +3426,15 @@
         <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F17" s="33">
         <v>0.75</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="62"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="9">
         <v>20</v>
       </c>
@@ -3337,37 +3443,49 @@
         <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F18" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="62"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="9"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="9">
+        <v>27</v>
+      </c>
       <c r="D19" s="2" t="str">
         <f>IFERROR(VLOOKUP($C19,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="33"/>
+        <v>Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="62"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="9"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="9">
+        <v>28</v>
+      </c>
       <c r="D20" s="2" t="str">
         <f>IFERROR(VLOOKUP($C20,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="33"/>
+        <v>Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="33">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="62"/>
-      <c r="B21" s="60"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="10"/>
       <c r="D21" s="3" t="str">
         <f>IFERROR(VLOOKUP($C21,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3377,8 +3495,8 @@
       <c r="F21" s="34"/>
     </row>
     <row r="22" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="62"/>
-      <c r="B22" s="58" t="s">
+      <c r="A22" s="61"/>
+      <c r="B22" s="57" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="8">
@@ -3389,15 +3507,15 @@
         <v>Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F22" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="62"/>
-      <c r="B23" s="59"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="9">
         <v>2</v>
       </c>
@@ -3406,15 +3524,15 @@
         <v>Ordinalskala (automatisch, manuell, nicht möglich)</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F23" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="62"/>
-      <c r="B24" s="59"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="9">
         <v>3</v>
       </c>
@@ -3423,15 +3541,15 @@
         <v>Ordinalskala (automatisch, manuell, nicht möglich)</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F24" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="62"/>
-      <c r="B25" s="59"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="9">
         <v>15</v>
       </c>
@@ -3440,15 +3558,15 @@
         <v>Ordinalskala (sehr gut, gut, schlecht)</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F25" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="62"/>
-      <c r="B26" s="59"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="58"/>
       <c r="C26" s="9">
         <v>16</v>
       </c>
@@ -3457,15 +3575,15 @@
         <v>Ordinalskala (Sehr Umfangreich mit Beispielen, Umfangreich, Einfach, keine)</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F26" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="62"/>
-      <c r="B27" s="59"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="58"/>
       <c r="C27" s="9"/>
       <c r="D27" s="2" t="str">
         <f>IFERROR(VLOOKUP($C27,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3475,8 +3593,8 @@
       <c r="F27" s="33"/>
     </row>
     <row r="28" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="62"/>
-      <c r="B28" s="59"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="58"/>
       <c r="C28" s="9"/>
       <c r="D28" s="2" t="str">
         <f>IFERROR(VLOOKUP($C28,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3486,8 +3604,8 @@
       <c r="F28" s="33"/>
     </row>
     <row r="29" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="62"/>
-      <c r="B29" s="59"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="9"/>
       <c r="D29" s="2" t="str">
         <f>IFERROR(VLOOKUP($C29,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3497,8 +3615,8 @@
       <c r="F29" s="33"/>
     </row>
     <row r="30" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="62"/>
-      <c r="B30" s="59"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="58"/>
       <c r="C30" s="9"/>
       <c r="D30" s="2" t="str">
         <f>IFERROR(VLOOKUP($C30,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3508,8 +3626,8 @@
       <c r="F30" s="33"/>
     </row>
     <row r="31" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="63"/>
-      <c r="B31" s="60"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="59"/>
       <c r="C31" s="10"/>
       <c r="D31" s="3" t="str">
         <f>IFERROR(VLOOKUP($C31,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3519,11 +3637,11 @@
       <c r="F31" s="34"/>
     </row>
     <row r="32" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="58" t="s">
-        <v>28</v>
+      <c r="A32" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="57" t="s">
+        <v>26</v>
       </c>
       <c r="C32" s="8">
         <v>12</v>
@@ -3540,8 +3658,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="62"/>
-      <c r="B33" s="59"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="58"/>
       <c r="C33" s="9">
         <v>13</v>
       </c>
@@ -3557,8 +3675,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="62"/>
-      <c r="B34" s="59"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="9"/>
       <c r="D34" s="2" t="str">
         <f>IFERROR(VLOOKUP($C34,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3568,8 +3686,8 @@
       <c r="F34" s="33"/>
     </row>
     <row r="35" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="62"/>
-      <c r="B35" s="59"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="58"/>
       <c r="C35" s="9"/>
       <c r="D35" s="2" t="str">
         <f>IFERROR(VLOOKUP($C35,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3579,8 +3697,8 @@
       <c r="F35" s="33"/>
     </row>
     <row r="36" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="62"/>
-      <c r="B36" s="59"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="58"/>
       <c r="C36" s="9"/>
       <c r="D36" s="2" t="str">
         <f>IFERROR(VLOOKUP($C36,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3590,8 +3708,8 @@
       <c r="F36" s="33"/>
     </row>
     <row r="37" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="62"/>
-      <c r="B37" s="59"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="58"/>
       <c r="C37" s="9"/>
       <c r="D37" s="2" t="str">
         <f>IFERROR(VLOOKUP($C37,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3601,8 +3719,8 @@
       <c r="F37" s="33"/>
     </row>
     <row r="38" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="62"/>
-      <c r="B38" s="59"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="9"/>
       <c r="D38" s="2" t="str">
         <f>IFERROR(VLOOKUP($C38,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3612,8 +3730,8 @@
       <c r="F38" s="33"/>
     </row>
     <row r="39" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="62"/>
-      <c r="B39" s="59"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="9"/>
       <c r="D39" s="2" t="str">
         <f>IFERROR(VLOOKUP($C39,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3623,8 +3741,8 @@
       <c r="F39" s="33"/>
     </row>
     <row r="40" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="62"/>
-      <c r="B40" s="59"/>
+      <c r="A40" s="61"/>
+      <c r="B40" s="58"/>
       <c r="C40" s="9"/>
       <c r="D40" s="2" t="str">
         <f>IFERROR(VLOOKUP($C40,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3634,8 +3752,8 @@
       <c r="F40" s="33"/>
     </row>
     <row r="41" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="62"/>
-      <c r="B41" s="60"/>
+      <c r="A41" s="61"/>
+      <c r="B41" s="59"/>
       <c r="C41" s="10"/>
       <c r="D41" s="3" t="str">
         <f>IFERROR(VLOOKUP($C41,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3645,9 +3763,9 @@
       <c r="F41" s="34"/>
     </row>
     <row r="42" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="62"/>
-      <c r="B42" s="58" t="s">
-        <v>13</v>
+      <c r="A42" s="61"/>
+      <c r="B42" s="57" t="s">
+        <v>11</v>
       </c>
       <c r="C42" s="8">
         <v>7</v>
@@ -3656,16 +3774,16 @@
         <f>IFERROR(VLOOKUP($C42,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Latenz Antwort bei Messung an Endpunkt ohne Logik</v>
       </c>
-      <c r="E42" s="45" t="s">
-        <v>86</v>
+      <c r="E42" s="43" t="s">
+        <v>84</v>
       </c>
       <c r="F42" s="32">
         <v>0.9</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="62"/>
-      <c r="B43" s="59"/>
+      <c r="A43" s="61"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="9">
         <v>8</v>
       </c>
@@ -3673,16 +3791,16 @@
         <f>IFERROR(VLOOKUP($C43,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Druchsatz bei 100.000 Anfragen mit 255 echt parallelen Clients in Anfragen/Sek</v>
       </c>
-      <c r="E43" s="47" t="s">
-        <v>91</v>
+      <c r="E43" s="45" t="s">
+        <v>89</v>
       </c>
       <c r="F43" s="33">
         <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="62"/>
-      <c r="B44" s="59"/>
+      <c r="A44" s="61"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="9">
         <v>9</v>
       </c>
@@ -3690,27 +3808,33 @@
         <f>IFERROR(VLOOKUP($C44,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Messung Heap Size unter Last: Kleiner 100MB</v>
       </c>
-      <c r="E44" s="46" t="s">
-        <v>87</v>
+      <c r="E44" s="44" t="s">
+        <v>85</v>
       </c>
       <c r="F44" s="33">
         <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="62"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="9"/>
+      <c r="A45" s="61"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="9">
+        <v>29</v>
+      </c>
       <c r="D45" s="2" t="str">
         <f>IFERROR(VLOOKUP($C45,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E45" s="46"/>
-      <c r="F45" s="33"/>
+        <v>Messung Startzeit</v>
+      </c>
+      <c r="E45" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" s="33">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="46" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="62"/>
-      <c r="B46" s="59"/>
+      <c r="A46" s="61"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="9"/>
       <c r="D46" s="2" t="str">
         <f>IFERROR(VLOOKUP($C46,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3720,8 +3844,8 @@
       <c r="F46" s="33"/>
     </row>
     <row r="47" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="62"/>
-      <c r="B47" s="59"/>
+      <c r="A47" s="61"/>
+      <c r="B47" s="58"/>
       <c r="C47" s="9"/>
       <c r="D47" s="2" t="str">
         <f>IFERROR(VLOOKUP($C47,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3731,8 +3855,8 @@
       <c r="F47" s="33"/>
     </row>
     <row r="48" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="62"/>
-      <c r="B48" s="59"/>
+      <c r="A48" s="61"/>
+      <c r="B48" s="58"/>
       <c r="C48" s="9"/>
       <c r="D48" s="2" t="str">
         <f>IFERROR(VLOOKUP($C48,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3742,8 +3866,8 @@
       <c r="F48" s="33"/>
     </row>
     <row r="49" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="62"/>
-      <c r="B49" s="59"/>
+      <c r="A49" s="61"/>
+      <c r="B49" s="58"/>
       <c r="C49" s="9"/>
       <c r="D49" s="2" t="str">
         <f>IFERROR(VLOOKUP($C49,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3753,8 +3877,8 @@
       <c r="F49" s="33"/>
     </row>
     <row r="50" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="62"/>
-      <c r="B50" s="59"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="9"/>
       <c r="D50" s="2" t="str">
         <f>IFERROR(VLOOKUP($C50,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3764,8 +3888,8 @@
       <c r="F50" s="33"/>
     </row>
     <row r="51" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="62"/>
-      <c r="B51" s="60"/>
+      <c r="A51" s="61"/>
+      <c r="B51" s="59"/>
       <c r="C51" s="10"/>
       <c r="D51" s="3" t="str">
         <f>IFERROR(VLOOKUP($C51,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3775,9 +3899,9 @@
       <c r="F51" s="34"/>
     </row>
     <row r="52" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="62"/>
-      <c r="B52" s="58" t="s">
-        <v>31</v>
+      <c r="A52" s="61"/>
+      <c r="B52" s="57" t="s">
+        <v>29</v>
       </c>
       <c r="C52" s="8">
         <v>21</v>
@@ -3786,16 +3910,16 @@
         <f>IFERROR(VLOOKUP($C52,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Länge vom Support in Monaten pro Major Release</v>
       </c>
-      <c r="E52" s="45" t="s">
-        <v>93</v>
+      <c r="E52" s="43" t="s">
+        <v>91</v>
       </c>
       <c r="F52" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="62"/>
-      <c r="B53" s="59"/>
+      <c r="A53" s="61"/>
+      <c r="B53" s="58"/>
       <c r="C53" s="9">
         <v>22</v>
       </c>
@@ -3803,16 +3927,16 @@
         <f>IFERROR(VLOOKUP($C53,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Kommerzieller Support vorhanden (j/n)</v>
       </c>
-      <c r="E53" s="46" t="s">
-        <v>95</v>
+      <c r="E53" s="44" t="s">
+        <v>93</v>
       </c>
       <c r="F53" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="62"/>
-      <c r="B54" s="59"/>
+      <c r="A54" s="61"/>
+      <c r="B54" s="58"/>
       <c r="C54" s="9">
         <v>23</v>
       </c>
@@ -3820,16 +3944,16 @@
         <f>IFERROR(VLOOKUP($C54,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
         <v>Release Zykluslänge bzw. Durchschnittlicher Majorrelease Abstand</v>
       </c>
-      <c r="E54" s="46" t="s">
-        <v>94</v>
+      <c r="E54" s="44" t="s">
+        <v>92</v>
       </c>
       <c r="F54" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="62"/>
-      <c r="B55" s="59"/>
+      <c r="A55" s="61"/>
+      <c r="B55" s="58"/>
       <c r="C55" s="9">
         <v>24</v>
       </c>
@@ -3838,15 +3962,15 @@
         <v>Firmen über 1000 MA</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F55" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="62"/>
-      <c r="B56" s="59"/>
+      <c r="A56" s="61"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="9">
         <v>25</v>
       </c>
@@ -3855,15 +3979,15 @@
         <v>Firmen über 100 MA</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F56" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="62"/>
-      <c r="B57" s="59"/>
+      <c r="A57" s="61"/>
+      <c r="B57" s="58"/>
       <c r="C57" s="9">
         <v>26</v>
       </c>
@@ -3879,8 +4003,8 @@
       </c>
     </row>
     <row r="58" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="62"/>
-      <c r="B58" s="59"/>
+      <c r="A58" s="61"/>
+      <c r="B58" s="58"/>
       <c r="C58" s="9"/>
       <c r="D58" s="2" t="str">
         <f>IFERROR(VLOOKUP($C58,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3890,8 +4014,8 @@
       <c r="F58" s="33"/>
     </row>
     <row r="59" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="62"/>
-      <c r="B59" s="59"/>
+      <c r="A59" s="61"/>
+      <c r="B59" s="58"/>
       <c r="C59" s="9"/>
       <c r="D59" s="2" t="str">
         <f>IFERROR(VLOOKUP($C59,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3901,8 +4025,8 @@
       <c r="F59" s="33"/>
     </row>
     <row r="60" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="62"/>
-      <c r="B60" s="59"/>
+      <c r="A60" s="61"/>
+      <c r="B60" s="58"/>
       <c r="C60" s="9"/>
       <c r="D60" s="2" t="str">
         <f>IFERROR(VLOOKUP($C60,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3912,8 +4036,8 @@
       <c r="F60" s="33"/>
     </row>
     <row r="61" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="63"/>
-      <c r="B61" s="60"/>
+      <c r="A61" s="62"/>
+      <c r="B61" s="59"/>
       <c r="C61" s="10"/>
       <c r="D61" s="3" t="str">
         <f>IFERROR(VLOOKUP($C61,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
@@ -3953,16 +4077,16 @@
   <sheetData>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>40</v>
-      </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -3970,12 +4094,12 @@
         <v>8</v>
       </c>
       <c r="B7" s="27">
-        <f>SUM('QUT-GQM'!H2:H7)</f>
-        <v>2.75</v>
+        <f>SUM('QUT-GQM'!H2:H9)</f>
+        <v>3.75</v>
       </c>
       <c r="C7" s="27">
-        <f>SUM('QUT-GQM'!I2:I7)</f>
-        <v>2.75</v>
+        <f>SUM('QUT-GQM'!I2:I9)</f>
+        <v>3.75</v>
       </c>
       <c r="D7">
         <f>IFERROR(C7/B7,0)</f>
@@ -3984,31 +4108,31 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="27">
-        <f>SUM('QUT-GQM'!H8:H10)</f>
-        <v>1.25</v>
+        <f>SUM('QUT-GQM'!H10:H13)</f>
+        <v>1.5</v>
       </c>
       <c r="C8" s="27">
-        <f>SUM('QUT-GQM'!I8:I10)</f>
+        <f>SUM('QUT-GQM'!I10:I13)</f>
         <v>0.82499999999999996</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:D12" si="0">IFERROR(C8/B8,0)</f>
-        <v>0.65999999999999992</v>
+        <v>0.54999999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="27">
-        <f>SUM('QUT-GQM'!H11:H17)</f>
+        <f>SUM('QUT-GQM'!H14:H20)</f>
         <v>3.5</v>
       </c>
       <c r="C9" s="27">
-        <f>SUM('QUT-GQM'!I11:I17)</f>
+        <f>SUM('QUT-GQM'!I14:I20)</f>
         <v>3.5</v>
       </c>
       <c r="D9">
@@ -4018,14 +4142,14 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" s="27">
-        <f>SUM('QUT-GQM'!H18:H19)</f>
+        <f>SUM('QUT-GQM'!H21:H22)</f>
         <v>1.5</v>
       </c>
       <c r="C10" s="27">
-        <f>SUM('QUT-GQM'!I18:I19)</f>
+        <f>SUM('QUT-GQM'!I21:I22)</f>
         <v>1.375</v>
       </c>
       <c r="D10">
@@ -4035,14 +4159,14 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="27">
-        <f>SUM('QUT-GQM'!H20:H23)</f>
+        <f>SUM('QUT-GQM'!H23:H26)</f>
         <v>1.75</v>
       </c>
       <c r="C11" s="27">
-        <f>SUM('QUT-GQM'!I20:I23)</f>
+        <f>SUM('QUT-GQM'!I23:I26)</f>
         <v>1.625</v>
       </c>
       <c r="D11">
@@ -4052,14 +4176,14 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B12" s="27">
-        <f>SUM('QUT-GQM'!H24:H27)</f>
+        <f>SUM('QUT-GQM'!H27:H30)</f>
         <v>1.2</v>
       </c>
       <c r="C12" s="27">
-        <f>SUM('QUT-GQM'!I24:I27)</f>
+        <f>SUM('QUT-GQM'!I27:I30)</f>
         <v>1.2</v>
       </c>
       <c r="D12">

--- a/Sonstiges/MFEM-Beispiel-Spring.xlsx
+++ b/Sonstiges/MFEM-Beispiel-Spring.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="QUT-GQM" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="122">
   <si>
     <t>1: Installation / Einrichtung</t>
   </si>
@@ -140,225 +140,287 @@
     <t>Ergebnis mit Gewichtung</t>
   </si>
   <si>
-    <t>Gewichtung 
+    <t>Kategorien</t>
+  </si>
+  <si>
+    <t>Soll</t>
+  </si>
+  <si>
+    <t>Ist</t>
+  </si>
+  <si>
+    <t>Ist %</t>
+  </si>
+  <si>
+    <t>Unterstützt das Framework eine automatische Validierung von Domänen Objekten?</t>
+  </si>
+  <si>
+    <t>Fügt das Framework HATEOAS Links in die Antowrt ein?</t>
+  </si>
+  <si>
+    <t>Baut das Framework die Schnittstelle über Ressourcen auf?</t>
+  </si>
+  <si>
+    <t>Kann das Framework Daten im JSON Format de-/serialisieren</t>
+  </si>
+  <si>
+    <t>Kann das Framework Daten im XML Format de-/serialisieren</t>
+  </si>
+  <si>
+    <t>Wir vom Framework das Circuit Breaker Pattern unterstützt</t>
+  </si>
+  <si>
+    <t>Ist der Service leichtgewichtig?</t>
+  </si>
+  <si>
+    <t>Lässt sich automatisiert ein Build vom Service erstellen</t>
+  </si>
+  <si>
+    <t>Werden Dependencies automatisch geladen?</t>
+  </si>
+  <si>
+    <t>Kann eine Endpunkt einfach erstellt werden?</t>
+  </si>
+  <si>
+    <t>Lässt sich das Framework einfach und schnell installieren?</t>
+  </si>
+  <si>
+    <t>Ist die Entwicklung schnell zu erlernen</t>
+  </si>
+  <si>
+    <t>Bietet das Framework eine umfangreiche Dokumentation mit Beispielen</t>
+  </si>
+  <si>
+    <t>Lassen sich über das Framework Events loggen</t>
+  </si>
+  <si>
+    <t>Lässt sich die API mittels JWT absichern?</t>
+  </si>
+  <si>
+    <t>Bietet das Framework eine Schnittstelle für Logging</t>
+  </si>
+  <si>
+    <t>Bietet das Framework eine Schnittstelle für Metriken</t>
+  </si>
+  <si>
+    <t>Framework wird supported</t>
+  </si>
+  <si>
+    <t>Wie lange wird ein Support gewährleistet?</t>
+  </si>
+  <si>
+    <t>Gibt es vom Hersteller Support</t>
+  </si>
+  <si>
+    <t>Kommerzieller Support vorhanden (j/n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Werden Regelmäßig Fehler behoben?</t>
+  </si>
+  <si>
+    <t>Release Zykluslänge bzw. Durchschnittlicher Majorrelease Abstand</t>
+  </si>
+  <si>
+    <t>Stehen große Firmen dahinter?</t>
+  </si>
+  <si>
+    <t>Wie viele Benutzer gibt es</t>
+  </si>
+  <si>
+    <t>Ist der Overhead vom Framework minimal?</t>
+  </si>
+  <si>
+    <t>Latenz Antwort bei Messung an Endpunkt ohne Logik</t>
+  </si>
+  <si>
+    <t>Verfügbar</t>
+  </si>
+  <si>
+    <t>Sehr gut</t>
+  </si>
+  <si>
+    <t>automatisch</t>
+  </si>
+  <si>
+    <t>enthalten</t>
+  </si>
+  <si>
+    <t>leicht umsetzbar</t>
+  </si>
+  <si>
+    <t>sehr gut</t>
+  </si>
+  <si>
+    <t>Sehr Umfangreich mit B.</t>
+  </si>
+  <si>
+    <t>40ms(Avg)</t>
+  </si>
+  <si>
+    <t>718MB</t>
+  </si>
+  <si>
+    <t>Kurze Reakionszeit</t>
+  </si>
+  <si>
+    <t>Druchsatz bei 100.000 Anfragen mit 255 echt parallelen Clients in Anfragen/Sek</t>
+  </si>
+  <si>
+    <t>Kann der Service Lastspitzen aushalten und bewältigen?</t>
+  </si>
+  <si>
+    <t>8624 Anfr/sec</t>
+  </si>
+  <si>
+    <t>Messung Heap Size unter Last: Kleiner 100MB</t>
+  </si>
+  <si>
+    <t>10 Monate</t>
+  </si>
+  <si>
+    <t>8 Monate</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>Länge vom Support in Monaten pro Major Release</t>
+  </si>
+  <si>
+    <t>Firmen über 1000 MA</t>
+  </si>
+  <si>
+    <t>Firmen über 100 MA</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Zukunftssicherheit</t>
+  </si>
+  <si>
+    <t>Unterstützung Eureka Service Discovery</t>
+  </si>
+  <si>
+    <t>Kann das Framework den Service automatisch an der Discovery An- und Abmelden sowie ein Heartbeat senden?</t>
+  </si>
+  <si>
+    <t>Kann das Framework automatisch Instanzen eines bestimmten Services an der Discovery abfragen und für die Anfrage nutzen?</t>
+  </si>
+  <si>
+    <t>Standardisierte Datenformate</t>
+  </si>
+  <si>
+    <t>Verhinderung kaskadischer Fehler</t>
+  </si>
+  <si>
+    <t>Lassen sich schnell neue Instanzen hochfahren?</t>
+  </si>
+  <si>
+    <t>Messung Startzeit</t>
+  </si>
+  <si>
+    <t>5,3 Sekunden</t>
+  </si>
+  <si>
+    <t>Objekvalidierung:
+Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</t>
+  </si>
+  <si>
+    <t>HATEOAS-Links: Ordinalskala (automatisch, manuell, nicht möglich)</t>
+  </si>
+  <si>
+    <t>Schnittstelle nach Ressourcen:
+Ordinalskala (automatisch, manuell, nicht möglich)</t>
+  </si>
+  <si>
+    <t>JSON-Format:
+Ordinalskala(automatisch, manuell, nicht möglich)</t>
+  </si>
+  <si>
+    <t>XML-Format:
+Ordinalskala(automatisch, manuell, nicht möglich)</t>
+  </si>
+  <si>
+    <t>Discovery An- und Abmeldung:
+Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</t>
+  </si>
+  <si>
+    <t>Instanzen an Discovery erfragen:
+Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</t>
+  </si>
+  <si>
+    <t>Circuit-Breaker-Pattern:
+Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</t>
+  </si>
+  <si>
+    <t>Autom. Builds:
+Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</t>
+  </si>
+  <si>
+    <t>Dependencieverwaltung:
+Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</t>
+  </si>
+  <si>
+    <t>LoC für einen Endpunkt</t>
+  </si>
+  <si>
+    <t>Methodenaufrufe für einen Endpunkt</t>
+  </si>
+  <si>
+    <t>Installation:
+Ordinalskala (sehr gut, gut, schlecht)</t>
+  </si>
+  <si>
+    <t>Entwicklung mit Framework:
+Ordinalskala (sehr gut, gut, schlecht)</t>
+  </si>
+  <si>
+    <t>Dokumentation:
+Ordinalskala (Sehr Umfangreich mit Beispielen, Umfangreich, Einfach, keine)</t>
+  </si>
+  <si>
+    <t>Logged Events:
+Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</t>
+  </si>
+  <si>
+    <t>JWT-Auth.:
+Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</t>
+  </si>
+  <si>
+    <t>Logging:
+Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</t>
+  </si>
+  <si>
+    <t>Metriken:
+Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</t>
+  </si>
+  <si>
+    <t>Priorität</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Gewichtung Metrik
 (A=100%, B=50%, C=25%)</t>
   </si>
   <si>
-    <t>Kategorien</t>
-  </si>
-  <si>
-    <t>Soll</t>
-  </si>
-  <si>
-    <t>Ist</t>
-  </si>
-  <si>
-    <t>Ist %</t>
-  </si>
-  <si>
-    <t>Unterstützt das Framework eine automatische Validierung von Domänen Objekten?</t>
-  </si>
-  <si>
-    <t>Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</t>
-  </si>
-  <si>
-    <t>Fügt das Framework HATEOAS Links in die Antowrt ein?</t>
-  </si>
-  <si>
-    <t>Ordinalskala (automatisch, manuell, nicht möglich)</t>
-  </si>
-  <si>
-    <t>Baut das Framework die Schnittstelle über Ressourcen auf?</t>
-  </si>
-  <si>
-    <t>Kann das Framework Daten im JSON Format de-/serialisieren</t>
-  </si>
-  <si>
-    <t>Kann das Framework Daten im XML Format de-/serialisieren</t>
-  </si>
-  <si>
-    <t>Ordinalskala(automatisch, manuell, nicht möglich)</t>
-  </si>
-  <si>
-    <t>Wir vom Framework das Circuit Breaker Pattern unterstützt</t>
-  </si>
-  <si>
-    <t>Ist der Service leichtgewichtig?</t>
-  </si>
-  <si>
-    <t>Lässt sich automatisiert ein Build vom Service erstellen</t>
-  </si>
-  <si>
-    <t>Werden Dependencies automatisch geladen?</t>
-  </si>
-  <si>
-    <t>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</t>
-  </si>
-  <si>
-    <t>LoC</t>
-  </si>
-  <si>
-    <t>Methodenaufrufe</t>
-  </si>
-  <si>
-    <t>Kann eine Endpunkt einfach erstellt werden?</t>
-  </si>
-  <si>
-    <t>Lässt sich das Framework einfach und schnell installieren?</t>
-  </si>
-  <si>
-    <t>Ordinalskala (sehr gut, gut, schlecht)</t>
-  </si>
-  <si>
-    <t>Ist die Entwicklung schnell zu erlernen</t>
-  </si>
-  <si>
-    <t>Ordinalskala (Sehr Umfangreich mit Beispielen, Umfangreich, Einfach, keine)</t>
-  </si>
-  <si>
-    <t>Bietet das Framework eine umfangreiche Dokumentation mit Beispielen</t>
-  </si>
-  <si>
-    <t>Lassen sich über das Framework Events loggen</t>
-  </si>
-  <si>
-    <t>Lässt sich die API mittels JWT absichern?</t>
-  </si>
-  <si>
-    <t>Bietet das Framework eine Schnittstelle für Logging</t>
-  </si>
-  <si>
-    <t>Bietet das Framework eine Schnittstelle für Metriken</t>
-  </si>
-  <si>
-    <t>Framework wird supported</t>
-  </si>
-  <si>
-    <t>Wie lange wird ein Support gewährleistet?</t>
-  </si>
-  <si>
-    <t>Gibt es vom Hersteller Support</t>
-  </si>
-  <si>
-    <t>Kommerzieller Support vorhanden (j/n)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Werden Regelmäßig Fehler behoben?</t>
-  </si>
-  <si>
-    <t>Release Zykluslänge bzw. Durchschnittlicher Majorrelease Abstand</t>
-  </si>
-  <si>
-    <t>Stehen große Firmen dahinter?</t>
-  </si>
-  <si>
-    <t>Wie viele Benutzer gibt es</t>
-  </si>
-  <si>
-    <t>Github - Star + Watch + Fork</t>
-  </si>
-  <si>
-    <t>Ist der Overhead vom Framework minimal?</t>
-  </si>
-  <si>
-    <t>Latenz Antwort bei Messung an Endpunkt ohne Logik</t>
-  </si>
-  <si>
-    <t>Verfügbar</t>
-  </si>
-  <si>
-    <t>Sehr gut</t>
-  </si>
-  <si>
-    <t>automatisch</t>
-  </si>
-  <si>
-    <t>enthalten</t>
-  </si>
-  <si>
-    <t>leicht umsetzbar</t>
-  </si>
-  <si>
-    <t>sehr gut</t>
-  </si>
-  <si>
-    <t>Sehr Umfangreich mit B.</t>
-  </si>
-  <si>
-    <t>40ms(Avg)</t>
-  </si>
-  <si>
-    <t>718MB</t>
-  </si>
-  <si>
-    <t>Kurze Reakionszeit</t>
-  </si>
-  <si>
-    <t>Druchsatz bei 100.000 Anfragen mit 255 echt parallelen Clients in Anfragen/Sek</t>
-  </si>
-  <si>
-    <t>Kann der Service Lastspitzen aushalten und bewältigen?</t>
-  </si>
-  <si>
-    <t>8624 Anfr/sec</t>
-  </si>
-  <si>
-    <t>Messung Heap Size unter Last: Kleiner 100MB</t>
-  </si>
-  <si>
-    <t>10 Monate</t>
-  </si>
-  <si>
-    <t>8 Monate</t>
-  </si>
-  <si>
-    <t>ja</t>
-  </si>
-  <si>
-    <t>Länge vom Support in Monaten pro Major Release</t>
-  </si>
-  <si>
-    <t>Firmen über 1000 MA</t>
-  </si>
-  <si>
-    <t>Firmen über 100 MA</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
-    <t>Zukunftssicherheit</t>
-  </si>
-  <si>
-    <t>Unterstützung Eureka Service Discovery</t>
-  </si>
-  <si>
-    <t>Kann das Framework den Service automatisch an der Discovery An- und Abmelden sowie ein Heartbeat senden?</t>
-  </si>
-  <si>
-    <t>Kann das Framework automatisch Instanzen eines bestimmten Services an der Discovery abfragen und für die Anfrage nutzen?</t>
-  </si>
-  <si>
-    <t>Standardisierte Datenformate</t>
-  </si>
-  <si>
-    <t>Verhinderung kaskadischer Fehler</t>
-  </si>
-  <si>
-    <t>Lassen sich schnell neue Instanzen hochfahren?</t>
-  </si>
-  <si>
-    <t>Messung Startzeit</t>
-  </si>
-  <si>
-    <t>5,3 Sekunden</t>
+    <t>Github Repository : 
+Star + Watch + Fork</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -390,6 +452,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -753,7 +828,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -913,6 +988,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1067,7 +1157,7 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.0</c:v>
@@ -1076,7 +1166,7 @@
                   <c:v>0.916666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.928571428571429</c:v>
+                  <c:v>0.916666666666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.0</c:v>
@@ -2091,10 +2181,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2102,15 +2195,16 @@
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="22" customWidth="1"/>
     <col min="3" max="3" width="42.83203125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="37.33203125" style="39" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" style="22" customWidth="1"/>
-    <col min="7" max="7" width="31" style="39" customWidth="1"/>
-    <col min="8" max="8" width="24.1640625" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="39" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="31" style="39" customWidth="1"/>
+    <col min="9" max="9" width="24.1640625" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
@@ -2120,26 +2214,29 @@
       <c r="C1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="G1" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="17" t="s">
-        <v>36</v>
-      </c>
       <c r="I1" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="53" t="s">
         <v>8</v>
       </c>
@@ -2149,27 +2246,30 @@
       <c r="C2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="20">
         <v>1</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="36">
+      <c r="F2" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="36">
         <v>1</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="23">
+      <c r="H2" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="23">
         <v>0.5</v>
       </c>
-      <c r="I2" s="1">
-        <f>IFERROR(VLOOKUP($F2,Evaluation!C:F,4,FALSE),0)*H2</f>
+      <c r="J2" s="1">
+        <f>IFERROR(VLOOKUP($G2,Evaluation!C:F,4,FALSE),0)*I2</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="53"/>
       <c r="B3" s="49">
         <v>2</v>
@@ -2177,183 +2277,198 @@
       <c r="C3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="20">
         <v>2</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="36">
+      <c r="F3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="36">
         <v>2</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="I3" s="2">
-        <f>IFERROR(VLOOKUP($F3,Evaluation!C:F,4,FALSE),0)*H3</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="J3" s="2">
+        <f>IFERROR(VLOOKUP($G3,Evaluation!C:F,4,FALSE),0)*I3</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="56"/>
       <c r="B4" s="50"/>
       <c r="C4" s="48"/>
-      <c r="D4" s="21">
+      <c r="D4" s="48"/>
+      <c r="E4" s="21">
         <v>3</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="36">
+      <c r="F4" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="36">
         <v>3</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="24">
+      <c r="H4" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="24">
         <v>0.25</v>
       </c>
-      <c r="I4" s="2">
-        <f>IFERROR(VLOOKUP($F4,Evaluation!C:F,4,FALSE),0)*H4</f>
+      <c r="J4" s="2">
+        <f>IFERROR(VLOOKUP($G4,Evaluation!C:F,4,FALSE),0)*I4</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="56"/>
       <c r="B5" s="49">
         <v>3</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="20">
+        <v>92</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="20">
         <v>4</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="36">
+      <c r="F5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="36">
         <v>4</v>
       </c>
-      <c r="G5" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="24">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
-        <f>IFERROR(VLOOKUP($F5,Evaluation!C:F,4,FALSE),0)*H5</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H5" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="J5" s="2">
+        <f>IFERROR(VLOOKUP($G5,Evaluation!C:F,4,FALSE),0)*I5</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="56"/>
       <c r="B6" s="50"/>
       <c r="C6" s="48"/>
-      <c r="D6" s="20">
+      <c r="D6" s="48"/>
+      <c r="E6" s="20">
         <v>5</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="36">
+      <c r="F6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="36">
         <v>5</v>
       </c>
-      <c r="G6" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="24">
+      <c r="H6" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="24">
         <v>0.25</v>
       </c>
-      <c r="I6" s="2">
-        <f>IFERROR(VLOOKUP($F6,Evaluation!C:F,4,FALSE),0)*H6</f>
+      <c r="J6" s="2">
+        <f>IFERROR(VLOOKUP($G6,Evaluation!C:F,4,FALSE),0)*I6</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="56"/>
       <c r="B7" s="49">
         <v>16</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="20">
+        <v>89</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="20">
         <v>25</v>
       </c>
-      <c r="E7" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="36">
+      <c r="F7" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="36">
         <v>27</v>
       </c>
-      <c r="G7" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="24">
+      <c r="H7" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="24">
         <v>0.5</v>
       </c>
-      <c r="I7" s="2">
-        <f>IFERROR(VLOOKUP($F7,Evaluation!C:F,4,FALSE),0)*H7</f>
+      <c r="J7" s="2">
+        <f>IFERROR(VLOOKUP($G7,Evaluation!C:F,4,FALSE),0)*I7</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="56"/>
       <c r="B8" s="50"/>
       <c r="C8" s="48"/>
-      <c r="D8" s="20">
+      <c r="D8" s="48"/>
+      <c r="E8" s="20">
         <v>26</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="36">
+      <c r="F8" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="36">
         <v>28</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="24">
+      <c r="H8" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="24">
         <v>0.5</v>
       </c>
-      <c r="I8" s="2">
-        <f>IFERROR(VLOOKUP($F8,Evaluation!C:F,4,FALSE),0)*H8</f>
+      <c r="J8" s="2">
+        <f>IFERROR(VLOOKUP($G8,Evaluation!C:F,4,FALSE),0)*I8</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56"/>
       <c r="B9" s="21">
         <v>4</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="D9" s="21">
+        <v>93</v>
+      </c>
+      <c r="D9" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="21">
         <v>6</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="36">
+      <c r="F9" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="36">
         <v>6</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="24">
+      <c r="H9" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="24">
         <v>0.25</v>
       </c>
-      <c r="I9" s="2">
-        <f>IFERROR(VLOOKUP($F9,Evaluation!C:F,4,FALSE),0)*H9</f>
+      <c r="J9" s="2">
+        <f>IFERROR(VLOOKUP($G9,Evaluation!C:F,4,FALSE),0)*I9</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="51" t="s">
         <v>11</v>
       </c>
@@ -2361,50 +2476,57 @@
         <v>5</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="20">
+        <v>76</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="20">
         <v>7</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="36">
+      <c r="F10" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="36">
         <v>7</v>
       </c>
-      <c r="G10" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="H10" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="I10" s="2">
-        <f>IFERROR(VLOOKUP($F10,Evaluation!C:F,4,FALSE),0)*H10</f>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H10" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="J10" s="2">
+        <f>IFERROR(VLOOKUP($G10,Evaluation!C:F,4,FALSE),0)*I10</f>
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="52"/>
       <c r="B11" s="50"/>
       <c r="C11" s="48"/>
-      <c r="D11" s="63">
+      <c r="D11" s="48"/>
+      <c r="E11" s="63">
         <v>27</v>
       </c>
-      <c r="E11" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="36">
+      <c r="F11" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="36">
         <v>29</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" s="24">
+      <c r="H11" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="24">
         <v>0.25</v>
       </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="2">
+        <f>IFERROR(VLOOKUP($G11,Evaluation!C:F,4,FALSE),0)*I11</f>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="52"/>
       <c r="B12" s="20">
         <v>6</v>
@@ -2412,27 +2534,30 @@
       <c r="C12" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="42">
         <v>8</v>
       </c>
-      <c r="E12" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="36">
+      <c r="F12" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="36">
         <v>8</v>
       </c>
-      <c r="G12" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" s="24">
+      <c r="H12" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="24">
         <v>0.5</v>
       </c>
-      <c r="I12" s="2">
-        <f>IFERROR(VLOOKUP($F12,Evaluation!C:F,4,FALSE),0)*H12</f>
+      <c r="J12" s="2">
+        <f>IFERROR(VLOOKUP($G12,Evaluation!C:F,4,FALSE),0)*I12</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="53"/>
       <c r="B13" s="21">
         <v>7</v>
@@ -2440,27 +2565,30 @@
       <c r="C13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" s="21">
         <v>9</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="36">
+      <c r="F13" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="36">
         <v>9</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="24">
+      <c r="H13" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="24">
         <v>0.25</v>
       </c>
-      <c r="I13" s="2">
-        <f>IFERROR(VLOOKUP($F13,Evaluation!C:F,4,FALSE),0)*H13</f>
+      <c r="J13" s="2">
+        <f>IFERROR(VLOOKUP($G13,Evaluation!C:F,4,FALSE),0)*I13</f>
         <v>0.125</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="52" t="s">
         <v>14</v>
       </c>
@@ -2470,51 +2598,55 @@
       <c r="C14" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="21">
         <v>10</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="36">
+      <c r="F14" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="36">
         <v>10</v>
       </c>
-      <c r="G14" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="24">
-        <v>1</v>
-      </c>
-      <c r="I14" s="2">
-        <f>IFERROR(VLOOKUP($F14,Evaluation!C:F,4,FALSE),0)*H14</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="2">
+        <f>IFERROR(VLOOKUP($G14,Evaluation!C:F,4,FALSE),0)*I14</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="52"/>
       <c r="B15" s="50"/>
       <c r="C15" s="48"/>
-      <c r="D15" s="20">
+      <c r="D15" s="48"/>
+      <c r="E15" s="20">
         <v>11</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="36">
+      <c r="F15" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="36">
         <v>11</v>
       </c>
-      <c r="G15" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="24">
-        <v>0.25</v>
-      </c>
-      <c r="I15" s="2">
-        <f>IFERROR(VLOOKUP($F15,Evaluation!C:F,4,FALSE),0)*H15</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="J15" s="2">
+        <f>IFERROR(VLOOKUP($G15,Evaluation!C:F,4,FALSE),0)*I15</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52"/>
       <c r="B16" s="49">
         <v>9</v>
@@ -2522,95 +2654,101 @@
       <c r="C16" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="49">
         <v>12</v>
       </c>
-      <c r="E16" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="36">
+      <c r="F16" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="36">
         <v>12</v>
       </c>
-      <c r="G16" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="24">
-        <v>0.25</v>
-      </c>
-      <c r="I16" s="2">
-        <f>IFERROR(VLOOKUP($F16,Evaluation!C:F,4,FALSE),0)*H16</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="J16" s="2">
+        <f>IFERROR(VLOOKUP($G16,Evaluation!C:F,4,FALSE),0)*I16</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52"/>
       <c r="B17" s="54"/>
       <c r="C17" s="55"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="36">
+      <c r="D17" s="55"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="36">
         <v>13</v>
       </c>
-      <c r="G17" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="24">
-        <v>0.25</v>
-      </c>
-      <c r="I17" s="2">
-        <f>IFERROR(VLOOKUP($F17,Evaluation!C:F,4,FALSE),0)*H17</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="J17" s="2">
+        <f>IFERROR(VLOOKUP($G17,Evaluation!C:F,4,FALSE),0)*I17</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52"/>
       <c r="B18" s="54"/>
       <c r="C18" s="55"/>
-      <c r="D18" s="20">
+      <c r="D18" s="55"/>
+      <c r="E18" s="20">
         <v>13</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="36">
+      <c r="F18" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="36">
         <v>14</v>
       </c>
-      <c r="G18" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="24">
-        <v>0.25</v>
-      </c>
-      <c r="I18" s="2">
-        <f>IFERROR(VLOOKUP($F18,Evaluation!C:F,4,FALSE),0)*H18</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H18" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="J18" s="2">
+        <f>IFERROR(VLOOKUP($G18,Evaluation!C:F,4,FALSE),0)*I18</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="52"/>
       <c r="B19" s="50"/>
       <c r="C19" s="48"/>
-      <c r="D19" s="20">
+      <c r="D19" s="48"/>
+      <c r="E19" s="20">
         <v>14</v>
       </c>
-      <c r="E19" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="36">
+      <c r="F19" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="36">
         <v>15</v>
       </c>
-      <c r="G19" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="I19" s="2">
-        <f>IFERROR(VLOOKUP($F19,Evaluation!C:F,4,FALSE),0)*H19</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="24">
+        <v>0.2</v>
+      </c>
+      <c r="J19" s="2">
+        <f>IFERROR(VLOOKUP($G19,Evaluation!C:F,4,FALSE),0)*I19</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="53"/>
       <c r="B20" s="21">
         <v>10</v>
@@ -2618,27 +2756,30 @@
       <c r="C20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="21">
         <v>15</v>
       </c>
-      <c r="E20" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="36">
+      <c r="F20" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="36">
         <v>16</v>
       </c>
-      <c r="G20" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" s="24">
+      <c r="H20" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" s="24">
         <v>1</v>
       </c>
-      <c r="I20" s="2">
-        <f>IFERROR(VLOOKUP($F20,Evaluation!C:F,4,FALSE),0)*H20</f>
+      <c r="J20" s="2">
+        <f>IFERROR(VLOOKUP($G20,Evaluation!C:F,4,FALSE),0)*I20</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="51" t="s">
         <v>18</v>
       </c>
@@ -2648,27 +2789,30 @@
       <c r="C21" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="21">
         <v>16</v>
       </c>
-      <c r="E21" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="36">
+      <c r="F21" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="36">
         <v>17</v>
       </c>
-      <c r="G21" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="24">
+      <c r="H21" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" s="24">
         <v>0.5</v>
       </c>
-      <c r="I21" s="2">
-        <f>IFERROR(VLOOKUP($F21,Evaluation!C:F,4,FALSE),0)*H21</f>
+      <c r="J21" s="2">
+        <f>IFERROR(VLOOKUP($G21,Evaluation!C:F,4,FALSE),0)*I21</f>
         <v>0.375</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="53"/>
       <c r="B22" s="20">
         <v>12</v>
@@ -2676,27 +2820,30 @@
       <c r="C22" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22" s="20">
         <v>17</v>
       </c>
-      <c r="E22" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="36">
+      <c r="F22" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="36">
         <v>18</v>
       </c>
-      <c r="G22" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="24">
+      <c r="H22" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="I22" s="24">
         <v>1</v>
       </c>
-      <c r="I22" s="2">
-        <f>IFERROR(VLOOKUP($F22,Evaluation!C:F,4,FALSE),0)*H22</f>
+      <c r="J22" s="2">
+        <f>IFERROR(VLOOKUP($G22,Evaluation!C:F,4,FALSE),0)*I22</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="51" t="s">
         <v>21</v>
       </c>
@@ -2706,105 +2853,113 @@
       <c r="C23" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="21">
         <v>18</v>
       </c>
-      <c r="E23" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="36">
+      <c r="F23" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="36">
         <v>19</v>
       </c>
-      <c r="G23" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="I23" s="2">
-        <f>IFERROR(VLOOKUP($F23,Evaluation!C:F,4,FALSE),0)*H23</f>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="J23" s="2">
+        <f>IFERROR(VLOOKUP($G23,Evaluation!C:F,4,FALSE),0)*I23</f>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52"/>
       <c r="B24" s="50"/>
       <c r="C24" s="48"/>
-      <c r="D24" s="20">
+      <c r="D24" s="48"/>
+      <c r="E24" s="20">
         <v>19</v>
       </c>
-      <c r="E24" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="36">
+      <c r="F24" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="36">
         <v>20</v>
       </c>
-      <c r="G24" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="I24" s="2">
-        <f>IFERROR(VLOOKUP($F24,Evaluation!C:F,4,FALSE),0)*H24</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H24" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="I24" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="J24" s="2">
+        <f>IFERROR(VLOOKUP($G24,Evaluation!C:F,4,FALSE),0)*I24</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="52"/>
       <c r="B25" s="49">
         <v>14</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="20">
+        <v>57</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="20">
         <v>20</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="36">
+      <c r="F25" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="36">
         <v>21</v>
       </c>
-      <c r="G25" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="H25" s="24">
-        <v>0.25</v>
-      </c>
-      <c r="I25" s="2">
-        <f>IFERROR(VLOOKUP($F25,Evaluation!C:F,4,FALSE),0)*H25</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" s="24">
+        <v>0.15</v>
+      </c>
+      <c r="J25" s="2">
+        <f>IFERROR(VLOOKUP($G25,Evaluation!C:F,4,FALSE),0)*I25</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="53"/>
       <c r="B26" s="50"/>
       <c r="C26" s="48"/>
-      <c r="D26" s="20">
+      <c r="D26" s="48"/>
+      <c r="E26" s="20">
         <v>21</v>
       </c>
-      <c r="E26" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="36">
+      <c r="F26" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="36">
         <v>22</v>
       </c>
-      <c r="G26" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="H26" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="I26" s="2">
-        <f>IFERROR(VLOOKUP($F26,Evaluation!C:F,4,FALSE),0)*H26</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H26" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I26" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="J26" s="2">
+        <f>IFERROR(VLOOKUP($G26,Evaluation!C:F,4,FALSE),0)*I26</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="51" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B27" s="49">
         <v>15</v>
@@ -2812,320 +2967,347 @@
       <c r="C27" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="21">
         <v>22</v>
       </c>
-      <c r="E27" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="36">
+      <c r="F27" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="36">
         <v>23</v>
       </c>
-      <c r="G27" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H27" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="I27" s="2">
-        <f>IFERROR(VLOOKUP($F27,Evaluation!C:F,4,FALSE),0)*H27</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" s="24">
+        <v>0.15</v>
+      </c>
+      <c r="J27" s="2">
+        <f>IFERROR(VLOOKUP($G27,Evaluation!C:F,4,FALSE),0)*I27</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="52"/>
       <c r="B28" s="54"/>
       <c r="C28" s="55"/>
-      <c r="D28" s="49">
+      <c r="D28" s="55"/>
+      <c r="E28" s="49">
         <v>23</v>
       </c>
-      <c r="E28" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="36">
+      <c r="F28" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="36">
         <v>24</v>
       </c>
-      <c r="G28" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="H28" s="24">
+      <c r="H28" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28" s="24">
         <v>0.1</v>
       </c>
-      <c r="I28" s="2">
-        <f>IFERROR(VLOOKUP($F28,Evaluation!C:F,4,FALSE),0)*H28</f>
+      <c r="J28" s="2">
+        <f>IFERROR(VLOOKUP($G28,Evaluation!C:F,4,FALSE),0)*I28</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="52"/>
       <c r="B29" s="54"/>
       <c r="C29" s="55"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="36">
+      <c r="D29" s="55"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="36">
         <v>25</v>
       </c>
-      <c r="G29" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="H29" s="24">
+      <c r="H29" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29" s="24">
         <v>0.1</v>
       </c>
-      <c r="I29" s="2">
-        <f>IFERROR(VLOOKUP($F29,Evaluation!C:F,4,FALSE),0)*H29</f>
+      <c r="J29" s="2">
+        <f>IFERROR(VLOOKUP($G29,Evaluation!C:F,4,FALSE),0)*I29</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="53"/>
       <c r="B30" s="50"/>
       <c r="C30" s="48"/>
-      <c r="D30" s="21">
+      <c r="D30" s="48"/>
+      <c r="E30" s="21">
         <v>24</v>
       </c>
-      <c r="E30" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" s="36">
+      <c r="F30" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="36">
         <v>26</v>
       </c>
-      <c r="G30" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="H30" s="24">
-        <v>0.5</v>
-      </c>
-      <c r="I30" s="2">
-        <f>IFERROR(VLOOKUP($F30,Evaluation!C:F,4,FALSE),0)*H30</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H30" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="I30" s="24">
+        <v>0.15</v>
+      </c>
+      <c r="J30" s="2">
+        <f>IFERROR(VLOOKUP($G30,Evaluation!C:F,4,FALSE),0)*I30</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="21"/>
       <c r="C31" s="19"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="2">
-        <f>IFERROR(VLOOKUP($F31,Evaluation!C:F,4,FALSE),0)*H31</f>
+      <c r="D31" s="66"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="2">
+        <f>IFERROR(VLOOKUP($G31,Evaluation!C:F,4,FALSE),0)*I31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="21"/>
       <c r="C32" s="19"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="2">
-        <f>IFERROR(VLOOKUP($F32,Evaluation!C:F,4,FALSE),0)*H32</f>
+      <c r="D32" s="66"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="2">
+        <f>IFERROR(VLOOKUP($G32,Evaluation!C:F,4,FALSE),0)*I32</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="21"/>
       <c r="C33" s="19"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="2">
-        <f>IFERROR(VLOOKUP($F33,Evaluation!C:F,4,FALSE),0)*H33</f>
+      <c r="D33" s="66"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="2">
+        <f>IFERROR(VLOOKUP($G33,Evaluation!C:F,4,FALSE),0)*I33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="21"/>
       <c r="C34" s="19"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="2">
-        <f>IFERROR(VLOOKUP($F34,Evaluation!C:F,4,FALSE),0)*H34</f>
+      <c r="D34" s="66"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="2">
+        <f>IFERROR(VLOOKUP($G34,Evaluation!C:F,4,FALSE),0)*I34</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="21"/>
       <c r="C35" s="19"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="2">
-        <f>IFERROR(VLOOKUP($F35,Evaluation!C:F,4,FALSE),0)*H35</f>
+      <c r="D35" s="66"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="2">
+        <f>IFERROR(VLOOKUP($G35,Evaluation!C:F,4,FALSE),0)*I35</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="21"/>
       <c r="C36" s="19"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="2">
-        <f>IFERROR(VLOOKUP($F36,Evaluation!C:F,4,FALSE),0)*H36</f>
+      <c r="D36" s="66"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="2">
+        <f>IFERROR(VLOOKUP($G36,Evaluation!C:F,4,FALSE),0)*I36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="21"/>
       <c r="C37" s="19"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="2">
-        <f>IFERROR(VLOOKUP($F37,Evaluation!C:F,4,FALSE),0)*H37</f>
+      <c r="D37" s="66"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="2">
+        <f>IFERROR(VLOOKUP($G37,Evaluation!C:F,4,FALSE),0)*I37</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="21"/>
       <c r="C38" s="19"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="2">
-        <f>IFERROR(VLOOKUP($F38,Evaluation!C:F,4,FALSE),0)*H38</f>
+      <c r="D38" s="66"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="2">
+        <f>IFERROR(VLOOKUP($G38,Evaluation!C:F,4,FALSE),0)*I38</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="21"/>
       <c r="C39" s="19"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="2">
-        <f>IFERROR(VLOOKUP($F39,Evaluation!C:F,4,FALSE),0)*H39</f>
+      <c r="D39" s="66"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="2">
+        <f>IFERROR(VLOOKUP($G39,Evaluation!C:F,4,FALSE),0)*I39</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="21"/>
       <c r="C40" s="19"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="2">
-        <f>IFERROR(VLOOKUP($F40,Evaluation!C:F,4,FALSE),0)*H40</f>
+      <c r="D40" s="66"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="2">
+        <f>IFERROR(VLOOKUP($G40,Evaluation!C:F,4,FALSE),0)*I40</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" s="21"/>
       <c r="C41" s="19"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="2">
-        <f>IFERROR(VLOOKUP($F41,Evaluation!C:F,4,FALSE),0)*H41</f>
+      <c r="D41" s="66"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="2">
+        <f>IFERROR(VLOOKUP($G41,Evaluation!C:F,4,FALSE),0)*I41</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="21"/>
       <c r="C42" s="19"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="2">
-        <f>IFERROR(VLOOKUP($F42,Evaluation!C:F,4,FALSE),0)*H42</f>
+      <c r="D42" s="66"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="2">
+        <f>IFERROR(VLOOKUP($G42,Evaluation!C:F,4,FALSE),0)*I42</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" s="21"/>
       <c r="C43" s="19"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="2">
-        <f>IFERROR(VLOOKUP($F43,Evaluation!C:F,4,FALSE),0)*H43</f>
+      <c r="D43" s="66"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="2">
+        <f>IFERROR(VLOOKUP($G43,Evaluation!C:F,4,FALSE),0)*I43</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="21"/>
       <c r="C44" s="19"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="2">
-        <f>IFERROR(VLOOKUP($F44,Evaluation!C:F,4,FALSE),0)*H44</f>
+      <c r="D44" s="66"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="2">
+        <f>IFERROR(VLOOKUP($G44,Evaluation!C:F,4,FALSE),0)*I44</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" s="21"/>
       <c r="C45" s="19"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="2">
-        <f>IFERROR(VLOOKUP($F45,Evaluation!C:F,4,FALSE),0)*H45</f>
+      <c r="D45" s="66"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="2">
+        <f>IFERROR(VLOOKUP($G45,Evaluation!C:F,4,FALSE),0)*I45</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
       <c r="B46" s="30"/>
       <c r="C46" s="31"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="3">
-        <f>IFERROR(VLOOKUP($F46,Evaluation!C:F,4,FALSE),0)*H46</f>
+      <c r="D46" s="67"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="3">
+        <f>IFERROR(VLOOKUP($G46,Evaluation!C:F,4,FALSE),0)*I46</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="37">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D14:D15"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="B23:B24"/>
@@ -3140,22 +3322,28 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D16:D17"/>
     <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="F28:F29"/>
     <mergeCell ref="E28:E29"/>
-    <mergeCell ref="D28:D29"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="C27:C30"/>
     <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D30"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3163,15 +3351,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" customWidth="1"/>
     <col min="3" max="3" width="7.83203125" customWidth="1"/>
-    <col min="4" max="4" width="67.1640625" customWidth="1"/>
+    <col min="4" max="4" width="78.5" customWidth="1"/>
     <col min="5" max="5" width="21.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
   </cols>
@@ -3207,11 +3395,11 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>IFERROR(VLOOKUP($C2,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
+        <f>IFERROR(VLOOKUP($C2,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>Autom. Builds:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F2" s="32">
         <v>1</v>
@@ -3224,11 +3412,11 @@
         <v>11</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C3,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
+        <f>IFERROR(VLOOKUP($C3,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>Dependencieverwaltung:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F3" s="33">
         <v>1</v>
@@ -3241,11 +3429,11 @@
         <v>14</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C4,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Ordinalskala (sehr gut, gut, schlecht)</v>
+        <f>IFERROR(VLOOKUP($C4,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>Installation:_x000D_Ordinalskala (sehr gut, gut, schlecht)</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F4" s="33">
         <v>1</v>
@@ -3256,7 +3444,7 @@
       <c r="B5" s="58"/>
       <c r="C5" s="9"/>
       <c r="D5" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C5,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C5,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E5" s="15"/>
@@ -3267,7 +3455,7 @@
       <c r="B6" s="58"/>
       <c r="C6" s="9"/>
       <c r="D6" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C6,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C6,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E6" s="15"/>
@@ -3278,7 +3466,7 @@
       <c r="B7" s="58"/>
       <c r="C7" s="9"/>
       <c r="D7" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C7,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C7,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E7" s="15"/>
@@ -3289,7 +3477,7 @@
       <c r="B8" s="58"/>
       <c r="C8" s="9"/>
       <c r="D8" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C8,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C8,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E8" s="15"/>
@@ -3300,7 +3488,7 @@
       <c r="B9" s="58"/>
       <c r="C9" s="9"/>
       <c r="D9" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C9,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C9,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E9" s="15"/>
@@ -3311,7 +3499,7 @@
       <c r="B10" s="58"/>
       <c r="C10" s="9"/>
       <c r="D10" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C10,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C10,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E10" s="15"/>
@@ -3322,7 +3510,7 @@
       <c r="B11" s="59"/>
       <c r="C11" s="10"/>
       <c r="D11" s="3" t="str">
-        <f>IFERROR(VLOOKUP($C11,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C11,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E11" s="16"/>
@@ -3337,11 +3525,11 @@
         <v>4</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f>IFERROR(VLOOKUP($C12,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Ordinalskala(automatisch, manuell, nicht möglich)</v>
+        <f>IFERROR(VLOOKUP($C12,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>JSON-Format:_x000D_Ordinalskala(automatisch, manuell, nicht möglich)</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F12" s="32">
         <v>1</v>
@@ -3354,11 +3542,11 @@
         <v>5</v>
       </c>
       <c r="D13" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C13,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Ordinalskala(automatisch, manuell, nicht möglich)</v>
+        <f>IFERROR(VLOOKUP($C13,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>XML-Format:_x000D_Ordinalskala(automatisch, manuell, nicht möglich)</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F13" s="33">
         <v>1</v>
@@ -3371,11 +3559,11 @@
         <v>6</v>
       </c>
       <c r="D14" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C14,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
+        <f>IFERROR(VLOOKUP($C14,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>Circuit-Breaker-Pattern:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F14" s="33">
         <v>1</v>
@@ -3388,11 +3576,11 @@
         <v>17</v>
       </c>
       <c r="D15" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C15,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
+        <f>IFERROR(VLOOKUP($C15,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>Logged Events:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F15" s="33">
         <v>0.75</v>
@@ -3405,11 +3593,11 @@
         <v>18</v>
       </c>
       <c r="D16" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C16,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
+        <f>IFERROR(VLOOKUP($C16,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>JWT-Auth.:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F16" s="33">
         <v>1</v>
@@ -3422,11 +3610,11 @@
         <v>19</v>
       </c>
       <c r="D17" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C17,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
+        <f>IFERROR(VLOOKUP($C17,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>Logging:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F17" s="33">
         <v>0.75</v>
@@ -3439,11 +3627,11 @@
         <v>20</v>
       </c>
       <c r="D18" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C18,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
+        <f>IFERROR(VLOOKUP($C18,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>Metriken:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F18" s="33">
         <v>1</v>
@@ -3456,11 +3644,11 @@
         <v>27</v>
       </c>
       <c r="D19" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C19,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
+        <f>IFERROR(VLOOKUP($C19,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>Discovery An- und Abmeldung:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F19" s="33">
         <v>1</v>
@@ -3473,11 +3661,11 @@
         <v>28</v>
       </c>
       <c r="D20" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C20,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
+        <f>IFERROR(VLOOKUP($C20,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>Instanzen an Discovery erfragen:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F20" s="33">
         <v>1</v>
@@ -3488,7 +3676,7 @@
       <c r="B21" s="59"/>
       <c r="C21" s="10"/>
       <c r="D21" s="3" t="str">
-        <f>IFERROR(VLOOKUP($C21,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C21,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E21" s="16"/>
@@ -3503,11 +3691,11 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f>IFERROR(VLOOKUP($C22,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
+        <f>IFERROR(VLOOKUP($C22,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>Objekvalidierung:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F22" s="32">
         <v>1</v>
@@ -3520,11 +3708,11 @@
         <v>2</v>
       </c>
       <c r="D23" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C23,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Ordinalskala (automatisch, manuell, nicht möglich)</v>
+        <f>IFERROR(VLOOKUP($C23,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>HATEOAS-Links: Ordinalskala (automatisch, manuell, nicht möglich)</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F23" s="33">
         <v>1</v>
@@ -3537,11 +3725,11 @@
         <v>3</v>
       </c>
       <c r="D24" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C24,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Ordinalskala (automatisch, manuell, nicht möglich)</v>
+        <f>IFERROR(VLOOKUP($C24,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>Schnittstelle nach Ressourcen:_x000D_Ordinalskala (automatisch, manuell, nicht möglich)</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="F24" s="33">
         <v>1</v>
@@ -3554,11 +3742,11 @@
         <v>15</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C25,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Ordinalskala (sehr gut, gut, schlecht)</v>
+        <f>IFERROR(VLOOKUP($C25,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>Entwicklung mit Framework:_x000D_Ordinalskala (sehr gut, gut, schlecht)</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F25" s="33">
         <v>1</v>
@@ -3571,11 +3759,11 @@
         <v>16</v>
       </c>
       <c r="D26" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C26,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Ordinalskala (Sehr Umfangreich mit Beispielen, Umfangreich, Einfach, keine)</v>
+        <f>IFERROR(VLOOKUP($C26,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>Dokumentation:_x000D_Ordinalskala (Sehr Umfangreich mit Beispielen, Umfangreich, Einfach, keine)</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F26" s="33">
         <v>1</v>
@@ -3586,7 +3774,7 @@
       <c r="B27" s="58"/>
       <c r="C27" s="9"/>
       <c r="D27" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C27,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C27,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E27" s="15"/>
@@ -3597,7 +3785,7 @@
       <c r="B28" s="58"/>
       <c r="C28" s="9"/>
       <c r="D28" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C28,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C28,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E28" s="15"/>
@@ -3608,7 +3796,7 @@
       <c r="B29" s="58"/>
       <c r="C29" s="9"/>
       <c r="D29" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C29,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C29,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E29" s="15"/>
@@ -3619,7 +3807,7 @@
       <c r="B30" s="58"/>
       <c r="C30" s="9"/>
       <c r="D30" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C30,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C30,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E30" s="15"/>
@@ -3630,7 +3818,7 @@
       <c r="B31" s="59"/>
       <c r="C31" s="10"/>
       <c r="D31" s="3" t="str">
-        <f>IFERROR(VLOOKUP($C31,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C31,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E31" s="16"/>
@@ -3647,8 +3835,8 @@
         <v>12</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f>IFERROR(VLOOKUP($C32,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>LoC</v>
+        <f>IFERROR(VLOOKUP($C32,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>LoC für einen Endpunkt</v>
       </c>
       <c r="E32" s="14">
         <v>6</v>
@@ -3664,8 +3852,8 @@
         <v>13</v>
       </c>
       <c r="D33" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C33,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Methodenaufrufe</v>
+        <f>IFERROR(VLOOKUP($C33,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>Methodenaufrufe für einen Endpunkt</v>
       </c>
       <c r="E33" s="15">
         <v>2</v>
@@ -3679,7 +3867,7 @@
       <c r="B34" s="58"/>
       <c r="C34" s="9"/>
       <c r="D34" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C34,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C34,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E34" s="15"/>
@@ -3690,7 +3878,7 @@
       <c r="B35" s="58"/>
       <c r="C35" s="9"/>
       <c r="D35" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C35,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C35,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E35" s="15"/>
@@ -3701,7 +3889,7 @@
       <c r="B36" s="58"/>
       <c r="C36" s="9"/>
       <c r="D36" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C36,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C36,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E36" s="15"/>
@@ -3712,7 +3900,7 @@
       <c r="B37" s="58"/>
       <c r="C37" s="9"/>
       <c r="D37" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C37,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C37,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E37" s="15"/>
@@ -3723,7 +3911,7 @@
       <c r="B38" s="58"/>
       <c r="C38" s="9"/>
       <c r="D38" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C38,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C38,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E38" s="15"/>
@@ -3734,7 +3922,7 @@
       <c r="B39" s="58"/>
       <c r="C39" s="9"/>
       <c r="D39" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C39,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C39,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E39" s="15"/>
@@ -3745,7 +3933,7 @@
       <c r="B40" s="58"/>
       <c r="C40" s="9"/>
       <c r="D40" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C40,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C40,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E40" s="15"/>
@@ -3756,7 +3944,7 @@
       <c r="B41" s="59"/>
       <c r="C41" s="10"/>
       <c r="D41" s="3" t="str">
-        <f>IFERROR(VLOOKUP($C41,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C41,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E41" s="16"/>
@@ -3771,11 +3959,11 @@
         <v>7</v>
       </c>
       <c r="D42" s="1" t="str">
-        <f>IFERROR(VLOOKUP($C42,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C42,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Latenz Antwort bei Messung an Endpunkt ohne Logik</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F42" s="32">
         <v>0.9</v>
@@ -3788,11 +3976,11 @@
         <v>8</v>
       </c>
       <c r="D43" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C43,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C43,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Druchsatz bei 100.000 Anfragen mit 255 echt parallelen Clients in Anfragen/Sek</v>
       </c>
       <c r="E43" s="45" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="F43" s="33">
         <v>0.5</v>
@@ -3805,11 +3993,11 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C44,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C44,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Messung Heap Size unter Last: Kleiner 100MB</v>
       </c>
       <c r="E44" s="44" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F44" s="33">
         <v>0.5</v>
@@ -3822,11 +4010,11 @@
         <v>29</v>
       </c>
       <c r="D45" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C45,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C45,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Messung Startzeit</v>
       </c>
       <c r="E45" s="44" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F45" s="33">
         <v>0.75</v>
@@ -3837,7 +4025,7 @@
       <c r="B46" s="58"/>
       <c r="C46" s="9"/>
       <c r="D46" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C46,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C46,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E46" s="15"/>
@@ -3848,7 +4036,7 @@
       <c r="B47" s="58"/>
       <c r="C47" s="9"/>
       <c r="D47" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C47,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C47,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E47" s="15"/>
@@ -3859,7 +4047,7 @@
       <c r="B48" s="58"/>
       <c r="C48" s="9"/>
       <c r="D48" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C48,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C48,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E48" s="15"/>
@@ -3870,7 +4058,7 @@
       <c r="B49" s="58"/>
       <c r="C49" s="9"/>
       <c r="D49" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C49,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C49,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E49" s="15"/>
@@ -3881,7 +4069,7 @@
       <c r="B50" s="58"/>
       <c r="C50" s="9"/>
       <c r="D50" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C50,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C50,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E50" s="15"/>
@@ -3892,7 +4080,7 @@
       <c r="B51" s="59"/>
       <c r="C51" s="10"/>
       <c r="D51" s="3" t="str">
-        <f>IFERROR(VLOOKUP($C51,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C51,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E51" s="16"/>
@@ -3907,11 +4095,11 @@
         <v>21</v>
       </c>
       <c r="D52" s="1" t="str">
-        <f>IFERROR(VLOOKUP($C52,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C52,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Länge vom Support in Monaten pro Major Release</v>
       </c>
       <c r="E52" s="43" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F52" s="32">
         <v>1</v>
@@ -3924,11 +4112,11 @@
         <v>22</v>
       </c>
       <c r="D53" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C53,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C53,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Kommerzieller Support vorhanden (j/n)</v>
       </c>
       <c r="E53" s="44" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F53" s="33">
         <v>1</v>
@@ -3941,11 +4129,11 @@
         <v>23</v>
       </c>
       <c r="D54" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C54,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C54,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Release Zykluslänge bzw. Durchschnittlicher Majorrelease Abstand</v>
       </c>
       <c r="E54" s="44" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F54" s="33">
         <v>1</v>
@@ -3958,11 +4146,11 @@
         <v>24</v>
       </c>
       <c r="D55" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C55,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C55,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Firmen über 1000 MA</v>
       </c>
-      <c r="E55" s="15" t="s">
-        <v>97</v>
+      <c r="E55" s="68" t="s">
+        <v>87</v>
       </c>
       <c r="F55" s="33">
         <v>1</v>
@@ -3975,11 +4163,11 @@
         <v>25</v>
       </c>
       <c r="D56" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C56,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C56,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Firmen über 100 MA</v>
       </c>
-      <c r="E56" s="15" t="s">
-        <v>97</v>
+      <c r="E56" s="68" t="s">
+        <v>87</v>
       </c>
       <c r="F56" s="33">
         <v>1</v>
@@ -3992,8 +4180,8 @@
         <v>26</v>
       </c>
       <c r="D57" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C57,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
-        <v>Github - Star + Watch + Fork</v>
+        <f>IFERROR(VLOOKUP($C57,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>Github Repository : _x000D_Star + Watch + Fork</v>
       </c>
       <c r="E57" s="15">
         <v>23958</v>
@@ -4007,7 +4195,7 @@
       <c r="B58" s="58"/>
       <c r="C58" s="9"/>
       <c r="D58" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C58,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C58,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E58" s="15"/>
@@ -4018,7 +4206,7 @@
       <c r="B59" s="58"/>
       <c r="C59" s="9"/>
       <c r="D59" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C59,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C59,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E59" s="15"/>
@@ -4029,7 +4217,7 @@
       <c r="B60" s="58"/>
       <c r="C60" s="9"/>
       <c r="D60" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C60,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C60,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E60" s="15"/>
@@ -4040,7 +4228,7 @@
       <c r="B61" s="59"/>
       <c r="C61" s="10"/>
       <c r="D61" s="3" t="str">
-        <f>IFERROR(VLOOKUP($C61,'QUT-GQM'!F:G,2,FALSE),"")  &amp; ""</f>
+        <f>IFERROR(VLOOKUP($C61,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
       <c r="E61" s="16"/>
@@ -4077,16 +4265,16 @@
   <sheetData>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4094,12 +4282,12 @@
         <v>8</v>
       </c>
       <c r="B7" s="27">
-        <f>SUM('QUT-GQM'!H2:H9)</f>
-        <v>3.75</v>
+        <f>SUM('QUT-GQM'!I2:I9)</f>
+        <v>3.25</v>
       </c>
       <c r="C7" s="27">
-        <f>SUM('QUT-GQM'!I2:I9)</f>
-        <v>3.75</v>
+        <f>SUM('QUT-GQM'!J2:J9)</f>
+        <v>3.25</v>
       </c>
       <c r="D7">
         <f>IFERROR(C7/B7,0)</f>
@@ -4111,16 +4299,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="27">
-        <f>SUM('QUT-GQM'!H10:H13)</f>
-        <v>1.5</v>
+        <f>SUM('QUT-GQM'!I10:I13)</f>
+        <v>1.25</v>
       </c>
       <c r="C8" s="27">
-        <f>SUM('QUT-GQM'!I10:I13)</f>
-        <v>0.82499999999999996</v>
+        <f>SUM('QUT-GQM'!J10:J13)</f>
+        <v>0.78749999999999998</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:D12" si="0">IFERROR(C8/B8,0)</f>
-        <v>0.54999999999999993</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4128,12 +4316,12 @@
         <v>14</v>
       </c>
       <c r="B9" s="27">
-        <f>SUM('QUT-GQM'!H14:H20)</f>
-        <v>3.5</v>
+        <f>SUM('QUT-GQM'!I14:I20)</f>
+        <v>2.5</v>
       </c>
       <c r="C9" s="27">
-        <f>SUM('QUT-GQM'!I14:I20)</f>
-        <v>3.5</v>
+        <f>SUM('QUT-GQM'!J14:J20)</f>
+        <v>2.5</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
@@ -4145,11 +4333,11 @@
         <v>18</v>
       </c>
       <c r="B10" s="27">
-        <f>SUM('QUT-GQM'!H21:H22)</f>
+        <f>SUM('QUT-GQM'!I21:I22)</f>
         <v>1.5</v>
       </c>
       <c r="C10" s="27">
-        <f>SUM('QUT-GQM'!I21:I22)</f>
+        <f>SUM('QUT-GQM'!J21:J22)</f>
         <v>1.375</v>
       </c>
       <c r="D10">
@@ -4162,29 +4350,29 @@
         <v>21</v>
       </c>
       <c r="B11" s="27">
-        <f>SUM('QUT-GQM'!H23:H26)</f>
-        <v>1.75</v>
+        <f>SUM('QUT-GQM'!I23:I26)</f>
+        <v>0.75</v>
       </c>
       <c r="C11" s="27">
-        <f>SUM('QUT-GQM'!I23:I26)</f>
-        <v>1.625</v>
+        <f>SUM('QUT-GQM'!J23:J26)</f>
+        <v>0.6875</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>0.9285714285714286</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B12" s="27">
-        <f>SUM('QUT-GQM'!H27:H30)</f>
-        <v>1.2</v>
+        <f>SUM('QUT-GQM'!I27:I30)</f>
+        <v>0.5</v>
       </c>
       <c r="C12" s="27">
-        <f>SUM('QUT-GQM'!I27:I30)</f>
-        <v>1.2</v>
+        <f>SUM('QUT-GQM'!J27:J30)</f>
+        <v>0.5</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>

--- a/Sonstiges/MFEM-Beispiel-Spring.xlsx
+++ b/Sonstiges/MFEM-Beispiel-Spring.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="QUT-GQM" sheetId="2" r:id="rId1"/>
@@ -31,12 +31,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="122">
   <si>
-    <t>1: Installation / Einrichtung</t>
-  </si>
-  <si>
-    <t>2: Simpler Service</t>
-  </si>
-  <si>
     <t>3: Erweiterter Service</t>
   </si>
   <si>
@@ -49,9 +43,6 @@
     <t>Ergebnis</t>
   </si>
   <si>
-    <t>Nr.</t>
-  </si>
-  <si>
     <t>Kategorie</t>
   </si>
   <si>
@@ -107,12 +98,6 @@
   </si>
   <si>
     <t>Qualitative Evaluation</t>
-  </si>
-  <si>
-    <t>Artefakte (z.B. Code)</t>
-  </si>
-  <si>
-    <t>Szenarios</t>
   </si>
   <si>
     <t>Evaluations Schritt</t>
@@ -414,6 +399,23 @@
   <si>
     <t>Github Repository : 
 Star + Watch + Fork</t>
+  </si>
+  <si>
+    <t>1: Installation / 
+Einrichtung</t>
+  </si>
+  <si>
+    <t>Artefakte 
+(z.B. Code)</t>
+  </si>
+  <si>
+    <t>2: Einfacher Service</t>
+  </si>
+  <si>
+    <t>M. Nr.</t>
+  </si>
+  <si>
+    <t>Messgruppe</t>
   </si>
 </sst>
 </file>
@@ -474,7 +476,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -758,17 +760,6 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -828,14 +819,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -857,7 +845,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -887,11 +874,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -926,18 +910,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -950,33 +952,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -986,24 +967,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -1183,11 +1173,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-610099520"/>
-        <c:axId val="-610097472"/>
+        <c:axId val="-957604816"/>
+        <c:axId val="-957602768"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="-610099520"/>
+        <c:axId val="-957604816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1230,7 +1220,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-610097472"/>
+        <c:crossAx val="-957602768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1238,7 +1228,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-610097472"/>
+        <c:axId val="-957602768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1289,7 +1279,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-610099520"/>
+        <c:crossAx val="-957604816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2186,82 +2176,82 @@
   </sheetPr>
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="22" customWidth="1"/>
-    <col min="3" max="3" width="42.83203125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="37.33203125" style="39" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="22" customWidth="1"/>
-    <col min="8" max="8" width="31" style="39" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="20" customWidth="1"/>
+    <col min="3" max="3" width="36" style="36" customWidth="1"/>
+    <col min="4" max="4" width="8" style="36" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" style="20" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" style="36" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="20" customWidth="1"/>
+    <col min="8" max="8" width="31" style="36" customWidth="1"/>
     <col min="9" max="9" width="24.1640625" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="40" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="J1" s="17" t="s">
+      <c r="B1" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="18">
+        <v>1</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="20">
+      <c r="G2" s="33">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="20">
-        <v>1</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="36">
-        <v>1</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" s="23">
+      <c r="H2" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="21">
         <v>0.5</v>
       </c>
       <c r="J2" s="1">
@@ -2270,29 +2260,29 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="53"/>
-      <c r="B3" s="49">
+      <c r="A3" s="59"/>
+      <c r="B3" s="52">
         <v>2</v>
       </c>
-      <c r="C3" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="20">
+      <c r="C3" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="18">
         <v>2</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="36">
+      <c r="F3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="33">
         <v>2</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="I3" s="23">
+      <c r="H3" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="21">
         <v>0.25</v>
       </c>
       <c r="J3" s="2">
@@ -2301,23 +2291,23 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="21">
+      <c r="A4" s="60"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="19">
         <v>3</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="36">
+      <c r="F4" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="33">
         <v>3</v>
       </c>
-      <c r="H4" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="24">
+      <c r="H4" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="22">
         <v>0.25</v>
       </c>
       <c r="J4" s="2">
@@ -2326,29 +2316,29 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="56"/>
-      <c r="B5" s="49">
+      <c r="A5" s="60"/>
+      <c r="B5" s="52">
         <v>3</v>
       </c>
-      <c r="C5" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="20">
+      <c r="C5" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="18">
         <v>4</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="36">
+      <c r="F5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="33">
         <v>4</v>
       </c>
-      <c r="H5" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="I5" s="24">
+      <c r="H5" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="22">
         <v>0.75</v>
       </c>
       <c r="J5" s="2">
@@ -2357,23 +2347,23 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="56"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="20">
+      <c r="A6" s="60"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="18">
         <v>5</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="36">
+      <c r="F6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="33">
         <v>5</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="24">
+      <c r="H6" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" s="22">
         <v>0.25</v>
       </c>
       <c r="J6" s="2">
@@ -2382,29 +2372,29 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="56"/>
-      <c r="B7" s="49">
+      <c r="A7" s="60"/>
+      <c r="B7" s="52">
         <v>16</v>
       </c>
-      <c r="C7" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="20">
+      <c r="C7" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="18">
         <v>25</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" s="36">
+      <c r="F7" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="33">
         <v>27</v>
       </c>
-      <c r="H7" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7" s="24">
+      <c r="H7" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="22">
         <v>0.5</v>
       </c>
       <c r="J7" s="2">
@@ -2413,23 +2403,23 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="56"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="20">
+      <c r="A8" s="60"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="18">
         <v>26</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="G8" s="36">
+      <c r="F8" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="33">
         <v>28</v>
       </c>
-      <c r="H8" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" s="24">
+      <c r="H8" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="22">
         <v>0.5</v>
       </c>
       <c r="J8" s="2">
@@ -2438,29 +2428,29 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="56"/>
-      <c r="B9" s="21">
+      <c r="A9" s="60"/>
+      <c r="B9" s="19">
         <v>4</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="21">
+      <c r="C9" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="19">
         <v>6</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" s="36">
+      <c r="F9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="33">
         <v>6</v>
       </c>
-      <c r="H9" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="I9" s="24">
+      <c r="H9" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="22">
         <v>0.25</v>
       </c>
       <c r="J9" s="2">
@@ -2469,31 +2459,31 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="49">
+      <c r="A10" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="52">
         <v>5</v>
       </c>
-      <c r="C10" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="20">
+      <c r="C10" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="18">
         <v>7</v>
       </c>
-      <c r="F10" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="36">
+      <c r="F10" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="33">
         <v>7</v>
       </c>
-      <c r="H10" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="24">
+      <c r="H10" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="22">
         <v>0.25</v>
       </c>
       <c r="J10" s="2">
@@ -2502,23 +2492,23 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="52"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="63">
+      <c r="A11" s="57"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="44">
         <v>27</v>
       </c>
-      <c r="F11" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="36">
+      <c r="F11" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="33">
         <v>29</v>
       </c>
-      <c r="H11" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="I11" s="24">
+      <c r="H11" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="22">
         <v>0.25</v>
       </c>
       <c r="J11" s="2">
@@ -2527,29 +2517,29 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
-      <c r="B12" s="20">
+      <c r="A12" s="57"/>
+      <c r="B12" s="18">
         <v>6</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" s="42">
+      <c r="C12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="39">
         <v>8</v>
       </c>
-      <c r="F12" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="36">
+      <c r="F12" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="33">
         <v>8</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="24">
+      <c r="H12" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="22">
         <v>0.5</v>
       </c>
       <c r="J12" s="2">
@@ -2558,29 +2548,29 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="53"/>
-      <c r="B13" s="21">
+      <c r="A13" s="59"/>
+      <c r="B13" s="19">
         <v>7</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="21">
+      <c r="C13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="36">
+      <c r="D13" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="19">
         <v>9</v>
       </c>
-      <c r="H13" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" s="24">
+      <c r="F13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="33">
+        <v>9</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="22">
         <v>0.25</v>
       </c>
       <c r="J13" s="2">
@@ -2589,31 +2579,31 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="49">
+      <c r="A14" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="52">
         <v>8</v>
       </c>
-      <c r="C14" s="47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="21">
+      <c r="C14" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="19">
         <v>10</v>
       </c>
-      <c r="F14" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="36">
+      <c r="F14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="33">
         <v>10</v>
       </c>
-      <c r="H14" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="I14" s="24">
+      <c r="H14" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="22">
         <v>0.5</v>
       </c>
       <c r="J14" s="2">
@@ -2622,23 +2612,23 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="20">
+      <c r="A15" s="57"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="18">
         <v>11</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="36">
+      <c r="F15" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="33">
         <v>11</v>
       </c>
-      <c r="H15" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="I15" s="24">
+      <c r="H15" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="I15" s="22">
         <v>0.5</v>
       </c>
       <c r="J15" s="2">
@@ -2647,29 +2637,29 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="49">
+      <c r="A16" s="57"/>
+      <c r="B16" s="52">
         <v>9</v>
       </c>
-      <c r="C16" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="E16" s="49">
+      <c r="C16" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="52">
         <v>12</v>
       </c>
-      <c r="F16" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="36">
+      <c r="F16" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="33">
         <v>12</v>
       </c>
-      <c r="H16" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="I16" s="24">
+      <c r="H16" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" s="22">
         <v>0.1</v>
       </c>
       <c r="J16" s="2">
@@ -2678,19 +2668,19 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="54"/>
       <c r="C17" s="55"/>
       <c r="D17" s="55"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="36">
+      <c r="E17" s="53"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="33">
         <v>13</v>
       </c>
-      <c r="H17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="I17" s="24">
+      <c r="H17" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="22">
         <v>0.1</v>
       </c>
       <c r="J17" s="2">
@@ -2699,23 +2689,23 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="52"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="54"/>
       <c r="C18" s="55"/>
       <c r="D18" s="55"/>
-      <c r="E18" s="20">
+      <c r="E18" s="18">
         <v>13</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="36">
+      <c r="F18" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="33">
         <v>14</v>
       </c>
-      <c r="H18" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="I18" s="24">
+      <c r="H18" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" s="22">
         <v>0.1</v>
       </c>
       <c r="J18" s="2">
@@ -2724,23 +2714,23 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="20">
+      <c r="A19" s="57"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="18">
         <v>14</v>
       </c>
-      <c r="F19" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="36">
+      <c r="F19" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="33">
         <v>15</v>
       </c>
-      <c r="H19" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="I19" s="24">
+      <c r="H19" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="22">
         <v>0.2</v>
       </c>
       <c r="J19" s="2">
@@ -2749,29 +2739,29 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="53"/>
-      <c r="B20" s="21">
+      <c r="A20" s="59"/>
+      <c r="B20" s="19">
         <v>10</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="66" t="s">
-        <v>118</v>
-      </c>
-      <c r="E20" s="21">
+      <c r="C20" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="19">
         <v>15</v>
       </c>
-      <c r="F20" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="36">
+      <c r="F20" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="33">
         <v>16</v>
       </c>
-      <c r="H20" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="I20" s="24">
+      <c r="H20" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="22">
         <v>1</v>
       </c>
       <c r="J20" s="2">
@@ -2780,31 +2770,31 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="21">
+      <c r="A21" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="19">
         <v>11</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="66" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" s="21">
+      <c r="C21" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="36">
+      <c r="D21" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="19">
+        <v>16</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="33">
         <v>17</v>
       </c>
-      <c r="H21" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="I21" s="24">
+      <c r="H21" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21" s="22">
         <v>0.5</v>
       </c>
       <c r="J21" s="2">
@@ -2813,29 +2803,29 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53"/>
-      <c r="B22" s="20">
+      <c r="A22" s="59"/>
+      <c r="B22" s="18">
         <v>12</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" s="20">
+      <c r="C22" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="36">
+      <c r="D22" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="18">
+        <v>17</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="33">
         <v>18</v>
       </c>
-      <c r="H22" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="I22" s="24">
+      <c r="H22" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="22">
         <v>1</v>
       </c>
       <c r="J22" s="2">
@@ -2844,31 +2834,31 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="49">
+      <c r="A23" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="52">
         <v>13</v>
       </c>
-      <c r="C23" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" s="21">
+      <c r="C23" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E23" s="19">
         <v>18</v>
       </c>
-      <c r="F23" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G23" s="36">
+      <c r="F23" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="34">
         <v>19</v>
       </c>
-      <c r="H23" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="I23" s="24">
+      <c r="H23" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" s="22">
         <v>0.25</v>
       </c>
       <c r="J23" s="2">
@@ -2877,23 +2867,23 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="52"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="20">
+      <c r="A24" s="57"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="18">
         <v>19</v>
       </c>
-      <c r="F24" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="36">
+      <c r="F24" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="33">
         <v>20</v>
       </c>
-      <c r="H24" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="I24" s="24">
+      <c r="H24" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="I24" s="22">
         <v>0.25</v>
       </c>
       <c r="J24" s="2">
@@ -2902,29 +2892,29 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="52"/>
-      <c r="B25" s="49">
+      <c r="A25" s="57"/>
+      <c r="B25" s="52">
         <v>14</v>
       </c>
-      <c r="C25" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="E25" s="20">
+      <c r="C25" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="18">
         <v>20</v>
       </c>
-      <c r="F25" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="36">
+      <c r="F25" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="33">
         <v>21</v>
       </c>
-      <c r="H25" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="I25" s="24">
+      <c r="H25" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" s="22">
         <v>0.15</v>
       </c>
       <c r="J25" s="2">
@@ -2933,23 +2923,23 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="53"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="20">
+      <c r="A26" s="59"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="18">
         <v>21</v>
       </c>
-      <c r="F26" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="G26" s="36">
+      <c r="F26" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="33">
         <v>22</v>
       </c>
-      <c r="H26" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="I26" s="24">
+      <c r="H26" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="22">
         <v>0.1</v>
       </c>
       <c r="J26" s="2">
@@ -2958,31 +2948,31 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="49">
+      <c r="A27" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="52">
         <v>15</v>
       </c>
-      <c r="C27" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27" s="21">
+      <c r="C27" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="19">
         <v>22</v>
       </c>
-      <c r="F27" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="36">
+      <c r="F27" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="33">
         <v>23</v>
       </c>
-      <c r="H27" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="I27" s="24">
+      <c r="H27" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="22">
         <v>0.15</v>
       </c>
       <c r="J27" s="2">
@@ -2991,23 +2981,23 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="52"/>
+      <c r="A28" s="57"/>
       <c r="B28" s="54"/>
       <c r="C28" s="55"/>
       <c r="D28" s="55"/>
-      <c r="E28" s="49">
+      <c r="E28" s="52">
         <v>23</v>
       </c>
-      <c r="F28" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="36">
+      <c r="F28" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="33">
         <v>24</v>
       </c>
-      <c r="H28" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="I28" s="24">
+      <c r="H28" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28" s="22">
         <v>0.1</v>
       </c>
       <c r="J28" s="2">
@@ -3016,19 +3006,19 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="52"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="54"/>
       <c r="C29" s="55"/>
       <c r="D29" s="55"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="36">
+      <c r="E29" s="53"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="33">
         <v>25</v>
       </c>
-      <c r="H29" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="I29" s="24">
+      <c r="H29" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I29" s="22">
         <v>0.1</v>
       </c>
       <c r="J29" s="2">
@@ -3037,23 +3027,23 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="53"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="21">
+      <c r="A30" s="59"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="19">
         <v>24</v>
       </c>
-      <c r="F30" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G30" s="36">
+      <c r="F30" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="33">
         <v>26</v>
       </c>
-      <c r="H30" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="I30" s="24">
+      <c r="H30" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="I30" s="22">
         <v>0.15</v>
       </c>
       <c r="J30" s="2">
@@ -3062,240 +3052,240 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="24"/>
+      <c r="A31" s="62"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="22"/>
       <c r="J31" s="2">
         <f>IFERROR(VLOOKUP($G31,Evaluation!C:F,4,FALSE),0)*I31</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="24"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="22"/>
       <c r="J32" s="2">
         <f>IFERROR(VLOOKUP($G32,Evaluation!C:F,4,FALSE),0)*I32</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="24"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="22"/>
       <c r="J33" s="2">
         <f>IFERROR(VLOOKUP($G33,Evaluation!C:F,4,FALSE),0)*I33</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="24"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="22"/>
       <c r="J34" s="2">
         <f>IFERROR(VLOOKUP($G34,Evaluation!C:F,4,FALSE),0)*I34</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="24"/>
+      <c r="A35" s="62"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="22"/>
       <c r="J35" s="2">
         <f>IFERROR(VLOOKUP($G35,Evaluation!C:F,4,FALSE),0)*I35</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="24"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="22"/>
       <c r="J36" s="2">
         <f>IFERROR(VLOOKUP($G36,Evaluation!C:F,4,FALSE),0)*I36</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="24"/>
+      <c r="A37" s="62"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="22"/>
       <c r="J37" s="2">
         <f>IFERROR(VLOOKUP($G37,Evaluation!C:F,4,FALSE),0)*I37</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="24"/>
+      <c r="A38" s="62"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="22"/>
       <c r="J38" s="2">
         <f>IFERROR(VLOOKUP($G38,Evaluation!C:F,4,FALSE),0)*I38</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="24"/>
+      <c r="A39" s="62"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="22"/>
       <c r="J39" s="2">
         <f>IFERROR(VLOOKUP($G39,Evaluation!C:F,4,FALSE),0)*I39</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="24"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="22"/>
       <c r="J40" s="2">
         <f>IFERROR(VLOOKUP($G40,Evaluation!C:F,4,FALSE),0)*I40</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="24"/>
+      <c r="A41" s="62"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="22"/>
       <c r="J41" s="2">
         <f>IFERROR(VLOOKUP($G41,Evaluation!C:F,4,FALSE),0)*I41</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="24"/>
+      <c r="A42" s="62"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="22"/>
       <c r="J42" s="2">
         <f>IFERROR(VLOOKUP($G42,Evaluation!C:F,4,FALSE),0)*I42</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="24"/>
+      <c r="A43" s="62"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="22"/>
       <c r="J43" s="2">
         <f>IFERROR(VLOOKUP($G43,Evaluation!C:F,4,FALSE),0)*I43</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="24"/>
+      <c r="A44" s="62"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="22"/>
       <c r="J44" s="2">
         <f>IFERROR(VLOOKUP($G44,Evaluation!C:F,4,FALSE),0)*I44</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="24"/>
+      <c r="A45" s="62"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="22"/>
       <c r="J45" s="2">
         <f>IFERROR(VLOOKUP($G45,Evaluation!C:F,4,FALSE),0)*I45</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="25"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="23"/>
       <c r="J46" s="3">
         <f>IFERROR(VLOOKUP($G46,Evaluation!C:F,4,FALSE),0)*I46</f>
         <v>0</v>
@@ -3303,11 +3293,24 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D16:D19"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="B23:B24"/>
@@ -3322,37 +3325,27 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D14:D15"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="60" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F61"/>
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3364,889 +3357,615 @@
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>30</v>
+    <row r="1" spans="1:6" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="A2" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="7">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>IFERROR(VLOOKUP($C2,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Autom. Builds:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="32">
+      <c r="E2" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="11">
+      <c r="A3" s="57"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="10">
         <v>11</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>IFERROR(VLOOKUP($C3,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Dependencieverwaltung:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="33">
+      <c r="E3" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="61"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="9">
+      <c r="A4" s="57"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="8">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="str">
         <f>IFERROR(VLOOKUP($C4,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Installation:_x000D_Ordinalskala (sehr gut, gut, schlecht)</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="33">
+      <c r="E4" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="61"/>
-      <c r="B5" s="58"/>
+    <row r="5" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="57"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="3" t="str">
         <f>IFERROR(VLOOKUP($C5,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="33"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="2" t="str">
+      <c r="A6" s="57"/>
+      <c r="B6" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="str">
         <f>IFERROR(VLOOKUP($C6,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="33"/>
+        <v>JSON-Format:_x000D_Ordinalskala(automatisch, manuell, nicht möglich)</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="61"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="8">
+        <v>5</v>
+      </c>
       <c r="D7" s="2" t="str">
         <f>IFERROR(VLOOKUP($C7,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="33"/>
+        <v>XML-Format:_x000D_Ordinalskala(automatisch, manuell, nicht möglich)</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="61"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="8">
+        <v>6</v>
+      </c>
       <c r="D8" s="2" t="str">
         <f>IFERROR(VLOOKUP($C8,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="33"/>
+        <v>Circuit-Breaker-Pattern:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="9"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="8">
+        <v>17</v>
+      </c>
       <c r="D9" s="2" t="str">
         <f>IFERROR(VLOOKUP($C9,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="33"/>
+        <v>Logged Events:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="30">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="61"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="9"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="8">
+        <v>18</v>
+      </c>
       <c r="D10" s="2" t="str">
         <f>IFERROR(VLOOKUP($C10,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="33"/>
-    </row>
-    <row r="11" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="3" t="str">
+        <v>JWT-Auth.:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="57"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="8">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="str">
         <f>IFERROR(VLOOKUP($C11,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="34"/>
+        <v>Logging:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="30">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="61"/>
-      <c r="B12" s="57" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="8">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f>IFERROR(VLOOKUP($C12,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>Metriken:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="30">
         <v>1</v>
       </c>
-      <c r="C12" s="8">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f>IFERROR(VLOOKUP($C12,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>JSON-Format:_x000D_Ordinalskala(automatisch, manuell, nicht möglich)</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="32">
-        <v>1</v>
-      </c>
     </row>
     <row r="13" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="9">
-        <v>5</v>
+      <c r="A13" s="57"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="8">
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>IFERROR(VLOOKUP($C13,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>XML-Format:_x000D_Ordinalskala(automatisch, manuell, nicht möglich)</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="33">
+        <v>Discovery An- und Abmeldung:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="61"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="9">
-        <v>6</v>
+      <c r="A14" s="57"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="8">
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="str">
         <f>IFERROR(VLOOKUP($C14,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Circuit-Breaker-Pattern:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="33">
+        <v>Instanzen an Discovery erfragen:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="61"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="9">
-        <v>17</v>
-      </c>
-      <c r="D15" s="2" t="str">
+    <row r="15" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="57"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="3" t="str">
         <f>IFERROR(VLOOKUP($C15,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Logged Events:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="33">
-        <v>0.75</v>
-      </c>
+        <v/>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="61"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="9">
-        <v>18</v>
-      </c>
-      <c r="D16" s="2" t="str">
+      <c r="A16" s="57"/>
+      <c r="B16" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="str">
         <f>IFERROR(VLOOKUP($C16,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>JWT-Auth.:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="33">
+        <v>Objekvalidierung:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="61"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="9">
-        <v>19</v>
+      <c r="A17" s="57"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="8">
+        <v>2</v>
       </c>
       <c r="D17" s="2" t="str">
         <f>IFERROR(VLOOKUP($C17,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Logging:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="33">
-        <v>0.75</v>
+        <v>HATEOAS-Links: Ordinalskala (automatisch, manuell, nicht möglich)</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="30">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="61"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="9">
-        <v>20</v>
+      <c r="A18" s="57"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="8">
+        <v>3</v>
       </c>
       <c r="D18" s="2" t="str">
         <f>IFERROR(VLOOKUP($C18,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Metriken:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="33">
+        <v>Schnittstelle nach Ressourcen:_x000D_Ordinalskala (automatisch, manuell, nicht möglich)</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="61"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="9">
-        <v>27</v>
+      <c r="A19" s="57"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="8">
+        <v>15</v>
       </c>
       <c r="D19" s="2" t="str">
         <f>IFERROR(VLOOKUP($C19,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Discovery An- und Abmeldung:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="33">
+        <v>Entwicklung mit Framework:_x000D_Ordinalskala (sehr gut, gut, schlecht)</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="61"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="9">
-        <v>28</v>
+      <c r="A20" s="57"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="8">
+        <v>16</v>
       </c>
       <c r="D20" s="2" t="str">
         <f>IFERROR(VLOOKUP($C20,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Instanzen an Discovery erfragen:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="33">
+        <v>Dokumentation:_x000D_Ordinalskala (Sehr Umfangreich mit Beispielen, Umfangreich, Einfach, keine)</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="3" t="str">
+      <c r="A21" s="57"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="2" t="str">
         <f>IFERROR(VLOOKUP($C21,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="34"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="61"/>
-      <c r="B22" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="8">
-        <v>1</v>
+      <c r="A22" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="7">
+        <v>12</v>
       </c>
       <c r="D22" s="1" t="str">
         <f>IFERROR(VLOOKUP($C22,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Objekvalidierung:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="32">
+        <v>LoC für einen Endpunkt</v>
+      </c>
+      <c r="E22" s="12">
+        <v>6</v>
+      </c>
+      <c r="F22" s="29">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="61"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="9">
-        <v>2</v>
+      <c r="A23" s="57"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="8">
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="str">
         <f>IFERROR(VLOOKUP($C23,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>HATEOAS-Links: Ordinalskala (automatisch, manuell, nicht möglich)</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="33">
+        <v>Methodenaufrufe für einen Endpunkt</v>
+      </c>
+      <c r="E23" s="13">
+        <v>2</v>
+      </c>
+      <c r="F23" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="61"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="9">
-        <v>3</v>
-      </c>
+    <row r="24" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="57"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="2" t="str">
         <f>IFERROR(VLOOKUP($C24,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Schnittstelle nach Ressourcen:_x000D_Ordinalskala (automatisch, manuell, nicht möglich)</v>
-      </c>
-      <c r="E24" s="15" t="s">
+        <v/>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="30"/>
+    </row>
+    <row r="25" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="57"/>
+      <c r="B25" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="7">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f>IFERROR(VLOOKUP($C25,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
+        <v>Latenz Antwort bei Messung an Endpunkt ohne Logik</v>
+      </c>
+      <c r="E25" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="61"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="9">
-        <v>15</v>
-      </c>
-      <c r="D25" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C25,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Entwicklung mit Framework:_x000D_Ordinalskala (sehr gut, gut, schlecht)</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="33">
-        <v>1</v>
+      <c r="F25" s="29">
+        <v>0.9</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="61"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="9">
-        <v>16</v>
+      <c r="A26" s="57"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="8">
+        <v>8</v>
       </c>
       <c r="D26" s="2" t="str">
         <f>IFERROR(VLOOKUP($C26,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Dokumentation:_x000D_Ordinalskala (Sehr Umfangreich mit Beispielen, Umfangreich, Einfach, keine)</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="33">
-        <v>1</v>
+        <v>Druchsatz bei 100.000 Anfragen mit 255 echt parallelen Clients in Anfragen/Sek</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="30">
+        <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="61"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="9"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="8">
+        <v>9</v>
+      </c>
       <c r="D27" s="2" t="str">
         <f>IFERROR(VLOOKUP($C27,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="33"/>
+        <v>Messung Heap Size unter Last: Kleiner 100MB</v>
+      </c>
+      <c r="E27" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="30">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="61"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="8">
+        <v>29</v>
+      </c>
       <c r="D28" s="2" t="str">
         <f>IFERROR(VLOOKUP($C28,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="33"/>
-    </row>
-    <row r="29" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="61"/>
-      <c r="B29" s="58"/>
-      <c r="C29" s="9"/>
+        <v>Messung Startzeit</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="30">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="57"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="2" t="str">
         <f>IFERROR(VLOOKUP($C29,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="33"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="30"/>
     </row>
     <row r="30" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="61"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="2" t="str">
+      <c r="A30" s="57"/>
+      <c r="B30" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="7">
+        <v>21</v>
+      </c>
+      <c r="D30" s="1" t="str">
         <f>IFERROR(VLOOKUP($C30,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="33"/>
-    </row>
-    <row r="31" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="62"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="3" t="str">
+        <v>Länge vom Support in Monaten pro Major Release</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="57"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="8">
+        <v>22</v>
+      </c>
+      <c r="D31" s="2" t="str">
         <f>IFERROR(VLOOKUP($C31,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="34"/>
+        <v>Kommerzieller Support vorhanden (j/n)</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="57" t="s">
-        <v>26</v>
-      </c>
+      <c r="A32" s="57"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="8">
-        <v>12</v>
-      </c>
-      <c r="D32" s="1" t="str">
+        <v>23</v>
+      </c>
+      <c r="D32" s="2" t="str">
         <f>IFERROR(VLOOKUP($C32,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>LoC für einen Endpunkt</v>
-      </c>
-      <c r="E32" s="14">
-        <v>6</v>
-      </c>
-      <c r="F32" s="32">
+        <v>Release Zykluslänge bzw. Durchschnittlicher Majorrelease Abstand</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="61"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="9">
-        <v>13</v>
+      <c r="A33" s="57"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="8">
+        <v>24</v>
       </c>
       <c r="D33" s="2" t="str">
         <f>IFERROR(VLOOKUP($C33,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Methodenaufrufe für einen Endpunkt</v>
-      </c>
-      <c r="E33" s="15">
-        <v>2</v>
-      </c>
-      <c r="F33" s="33">
+        <v>Firmen über 1000 MA</v>
+      </c>
+      <c r="E33" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="61"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="9"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="8">
+        <v>25</v>
+      </c>
       <c r="D34" s="2" t="str">
         <f>IFERROR(VLOOKUP($C34,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="33"/>
+        <v>Firmen über 100 MA</v>
+      </c>
+      <c r="E34" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="61"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="9"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="8">
+        <v>26</v>
+      </c>
       <c r="D35" s="2" t="str">
         <f>IFERROR(VLOOKUP($C35,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="33"/>
-    </row>
-    <row r="36" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="61"/>
-      <c r="B36" s="58"/>
+        <v>Github Repository : _x000D_Star + Watch + Fork</v>
+      </c>
+      <c r="E35" s="13">
+        <v>23958</v>
+      </c>
+      <c r="F35" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="58"/>
+      <c r="B36" s="65"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="2" t="str">
+      <c r="D36" s="3" t="str">
         <f>IFERROR(VLOOKUP($C36,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="33"/>
-    </row>
-    <row r="37" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="61"/>
-      <c r="B37" s="58"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C37,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="33"/>
-    </row>
-    <row r="38" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="61"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C38,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="33"/>
-    </row>
-    <row r="39" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="61"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C39,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="33"/>
-    </row>
-    <row r="40" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="61"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C40,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="33"/>
-    </row>
-    <row r="41" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="3" t="str">
-        <f>IFERROR(VLOOKUP($C41,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="34"/>
-    </row>
-    <row r="42" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="61"/>
-      <c r="B42" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="8">
-        <v>7</v>
-      </c>
-      <c r="D42" s="1" t="str">
-        <f>IFERROR(VLOOKUP($C42,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Latenz Antwort bei Messung an Endpunkt ohne Logik</v>
-      </c>
-      <c r="E42" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="F42" s="32">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="61"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="9">
-        <v>8</v>
-      </c>
-      <c r="D43" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C43,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Druchsatz bei 100.000 Anfragen mit 255 echt parallelen Clients in Anfragen/Sek</v>
-      </c>
-      <c r="E43" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="F43" s="33">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="61"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="9">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C44,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Messung Heap Size unter Last: Kleiner 100MB</v>
-      </c>
-      <c r="E44" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F44" s="33">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="61"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="9">
-        <v>29</v>
-      </c>
-      <c r="D45" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C45,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Messung Startzeit</v>
-      </c>
-      <c r="E45" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="F45" s="33">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="61"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C46,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E46" s="15"/>
-      <c r="F46" s="33"/>
-    </row>
-    <row r="47" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="61"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C47,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E47" s="15"/>
-      <c r="F47" s="33"/>
-    </row>
-    <row r="48" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="61"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C48,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="33"/>
-    </row>
-    <row r="49" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="61"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C49,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="33"/>
-    </row>
-    <row r="50" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="61"/>
-      <c r="B50" s="58"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C50,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E50" s="15"/>
-      <c r="F50" s="33"/>
-    </row>
-    <row r="51" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="3" t="str">
-        <f>IFERROR(VLOOKUP($C51,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E51" s="16"/>
-      <c r="F51" s="34"/>
-    </row>
-    <row r="52" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="61"/>
-      <c r="B52" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" s="8">
-        <v>21</v>
-      </c>
-      <c r="D52" s="1" t="str">
-        <f>IFERROR(VLOOKUP($C52,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Länge vom Support in Monaten pro Major Release</v>
-      </c>
-      <c r="E52" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="F52" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="61"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="9">
-        <v>22</v>
-      </c>
-      <c r="D53" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C53,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Kommerzieller Support vorhanden (j/n)</v>
-      </c>
-      <c r="E53" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="F53" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="61"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="9">
-        <v>23</v>
-      </c>
-      <c r="D54" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C54,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Release Zykluslänge bzw. Durchschnittlicher Majorrelease Abstand</v>
-      </c>
-      <c r="E54" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="F54" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="61"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="9">
-        <v>24</v>
-      </c>
-      <c r="D55" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C55,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Firmen über 1000 MA</v>
-      </c>
-      <c r="E55" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="F55" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="61"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="9">
-        <v>25</v>
-      </c>
-      <c r="D56" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C56,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Firmen über 100 MA</v>
-      </c>
-      <c r="E56" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="F56" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="61"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="9">
-        <v>26</v>
-      </c>
-      <c r="D57" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C57,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Github Repository : _x000D_Star + Watch + Fork</v>
-      </c>
-      <c r="E57" s="15">
-        <v>23958</v>
-      </c>
-      <c r="F57" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="61"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C58,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E58" s="15"/>
-      <c r="F58" s="33"/>
-    </row>
-    <row r="59" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="61"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C59,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E59" s="15"/>
-      <c r="F59" s="33"/>
-    </row>
-    <row r="60" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="61"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="2" t="str">
-        <f>IFERROR(VLOOKUP($C60,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E60" s="15"/>
-      <c r="F60" s="33"/>
-    </row>
-    <row r="61" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="62"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="3" t="str">
-        <f>IFERROR(VLOOKUP($C61,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v/>
-      </c>
-      <c r="E61" s="16"/>
-      <c r="F61" s="34"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B52:B61"/>
-    <mergeCell ref="A32:A61"/>
-    <mergeCell ref="B42:B51"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="B22:B31"/>
-    <mergeCell ref="B32:B41"/>
-    <mergeCell ref="A2:A31"/>
+    <mergeCell ref="B30:B36"/>
+    <mergeCell ref="A22:A36"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B15"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A2:A21"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="47" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4264,28 +3983,28 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
-        <v>36</v>
+      <c r="A6" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="27">
+        <v>5</v>
+      </c>
+      <c r="B7" s="25">
         <f>SUM('QUT-GQM'!I2:I9)</f>
         <v>3.25</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="25">
         <f>SUM('QUT-GQM'!J2:J9)</f>
         <v>3.25</v>
       </c>
@@ -4296,13 +4015,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="27">
+        <v>8</v>
+      </c>
+      <c r="B8" s="25">
         <f>SUM('QUT-GQM'!I10:I13)</f>
         <v>1.25</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="25">
         <f>SUM('QUT-GQM'!J10:J13)</f>
         <v>0.78749999999999998</v>
       </c>
@@ -4313,13 +4032,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="27">
+        <v>11</v>
+      </c>
+      <c r="B9" s="25">
         <f>SUM('QUT-GQM'!I14:I20)</f>
         <v>2.5</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="25">
         <f>SUM('QUT-GQM'!J14:J20)</f>
         <v>2.5</v>
       </c>
@@ -4330,13 +4049,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="27">
+        <v>15</v>
+      </c>
+      <c r="B10" s="25">
         <f>SUM('QUT-GQM'!I21:I22)</f>
         <v>1.5</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="25">
         <f>SUM('QUT-GQM'!J21:J22)</f>
         <v>1.375</v>
       </c>
@@ -4347,13 +4066,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="27">
+        <v>18</v>
+      </c>
+      <c r="B11" s="25">
         <f>SUM('QUT-GQM'!I23:I26)</f>
         <v>0.75</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="25">
         <f>SUM('QUT-GQM'!J23:J26)</f>
         <v>0.6875</v>
       </c>
@@ -4364,13 +4083,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="27">
+        <v>83</v>
+      </c>
+      <c r="B12" s="25">
         <f>SUM('QUT-GQM'!I27:I30)</f>
         <v>0.5</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="25">
         <f>SUM('QUT-GQM'!J27:J30)</f>
         <v>0.5</v>
       </c>

--- a/Sonstiges/MFEM-Beispiel-Spring.xlsx
+++ b/Sonstiges/MFEM-Beispiel-Spring.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="QUT-GQM" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="123">
   <si>
     <t>3: Erweiterter Service</t>
   </si>
@@ -206,9 +206,6 @@
     <t>Release Zykluslänge bzw. Durchschnittlicher Majorrelease Abstand</t>
   </si>
   <si>
-    <t>Stehen große Firmen dahinter?</t>
-  </si>
-  <si>
     <t>Wie viele Benutzer gibt es</t>
   </si>
   <si>
@@ -257,9 +254,6 @@
     <t>8624 Anfr/sec</t>
   </si>
   <si>
-    <t>Messung Heap Size unter Last: Kleiner 100MB</t>
-  </si>
-  <si>
     <t>10 Monate</t>
   </si>
   <si>
@@ -270,15 +264,6 @@
   </si>
   <si>
     <t>Länge vom Support in Monaten pro Major Release</t>
-  </si>
-  <si>
-    <t>Firmen über 1000 MA</t>
-  </si>
-  <si>
-    <t>Firmen über 100 MA</t>
-  </si>
-  <si>
-    <t>???</t>
   </si>
   <si>
     <t>Zukunftssicherheit</t>
@@ -416,13 +401,33 @@
   </si>
   <si>
     <t>Messgruppe</t>
+  </si>
+  <si>
+    <t>Wie stark ist das Interesse von Firmen und wie sind deren Abhängigkeiten?</t>
+  </si>
+  <si>
+    <t>Businessimpact bei Verlust des Frameworks:
+Ordinalskala(stark, mittel, schwach)</t>
+  </si>
+  <si>
+    <t>stark</t>
+  </si>
+  <si>
+    <t>viele</t>
+  </si>
+  <si>
+    <t>Große Firmen die auf das Framework setzen:
+Ordinalskala(viele, wenige, keine)</t>
+  </si>
+  <si>
+    <t>Messung Speicherverbrauch (RSS) unter Last: Kleiner 100MB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -455,13 +460,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -476,7 +474,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -668,7 +666,7 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -684,7 +682,20 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -694,7 +705,7 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -706,23 +717,10 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -735,56 +733,10 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -819,14 +771,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -839,12 +790,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -874,7 +822,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -910,35 +858,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -952,48 +894,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -1031,7 +976,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1044,8 +989,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Framework Qualitätsfitness</a:t>
+              <a:rPr lang="de-DE" sz="1800"/>
+              <a:t>Spring Framework Qualitätsfitness</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1064,7 +1009,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1147,7 +1092,7 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63</c:v>
+                  <c:v>0.55</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.0</c:v>
@@ -1173,11 +1118,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-957604816"/>
-        <c:axId val="-957602768"/>
+        <c:axId val="610779312"/>
+        <c:axId val="610820912"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="-957604816"/>
+        <c:axId val="610779312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1205,7 +1150,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1220,7 +1165,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-957602768"/>
+        <c:crossAx val="610820912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1228,7 +1173,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-957602768"/>
+        <c:axId val="610820912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1279,7 +1224,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-957604816"/>
+        <c:crossAx val="610779312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1325,6 +1270,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1908,6 +1854,63 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.04888</cdr:x>
+      <cdr:y>0.84744</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.4581</cdr:x>
+      <cdr:y>0.97318</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Textfeld 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="444500" y="6419850"/>
+          <a:ext cx="3721100" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600"/>
+            <a:t>Erfüllungsgrad (Y-Achse):</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600"/>
+            <a:t>1.0 :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" baseline="0"/>
+            <a:t>  Alle Anforderungen voll erfüllt</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" baseline="0"/>
+            <a:t>0.0 :  Keine Anforderung erfüllt</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1600"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design">
   <a:themeElements>
@@ -2176,20 +2179,20 @@
   </sheetPr>
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.1640625" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="20" customWidth="1"/>
-    <col min="3" max="3" width="36" style="36" customWidth="1"/>
-    <col min="4" max="4" width="8" style="36" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" style="20" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="37.33203125" style="36" customWidth="1"/>
-    <col min="7" max="7" width="6.5" style="20" customWidth="1"/>
-    <col min="8" max="8" width="31" style="36" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="16" customWidth="1"/>
+    <col min="3" max="3" width="36" style="32" customWidth="1"/>
+    <col min="4" max="4" width="8" style="32" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" style="16" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="16" customWidth="1"/>
+    <col min="8" max="8" width="31" style="32" customWidth="1"/>
     <col min="9" max="9" width="24.1640625" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" customWidth="1"/>
   </cols>
@@ -2198,60 +2201,60 @@
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="J1" s="15" t="s">
+      <c r="I1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="14">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="18">
+      <c r="D2" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" s="14">
         <v>1</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="29">
         <v>1</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="21">
+      <c r="H2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="17">
         <v>0.5</v>
       </c>
       <c r="J2" s="1">
@@ -2260,29 +2263,29 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59"/>
-      <c r="B3" s="52">
+      <c r="A3" s="50"/>
+      <c r="B3" s="46">
         <v>2</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="18">
+      <c r="D3" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="14">
         <v>2</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="29">
         <v>2</v>
       </c>
-      <c r="H3" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="I3" s="21">
+      <c r="H3" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="17">
         <v>0.25</v>
       </c>
       <c r="J3" s="2">
@@ -2291,23 +2294,23 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="19">
+      <c r="A4" s="53"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="15">
         <v>3</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="29">
         <v>3</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="I4" s="22">
+      <c r="H4" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="18">
         <v>0.25</v>
       </c>
       <c r="J4" s="2">
@@ -2316,29 +2319,29 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
-      <c r="B5" s="52">
+      <c r="A5" s="53"/>
+      <c r="B5" s="46">
         <v>3</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="E5" s="18">
+      <c r="C5" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="14">
         <v>4</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="29">
         <v>4</v>
       </c>
-      <c r="H5" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="I5" s="22">
+      <c r="H5" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="18">
         <v>0.75</v>
       </c>
       <c r="J5" s="2">
@@ -2347,23 +2350,23 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="60"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="18">
+      <c r="A6" s="53"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="14">
         <v>5</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="29">
         <v>5</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="I6" s="22">
+      <c r="H6" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="18">
         <v>0.25</v>
       </c>
       <c r="J6" s="2">
@@ -2372,29 +2375,29 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="60"/>
-      <c r="B7" s="52">
+      <c r="A7" s="53"/>
+      <c r="B7" s="46">
         <v>16</v>
       </c>
-      <c r="C7" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="18">
+      <c r="C7" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="14">
         <v>25</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="33">
+      <c r="F7" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="29">
         <v>27</v>
       </c>
-      <c r="H7" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7" s="22">
+      <c r="H7" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="18">
         <v>0.5</v>
       </c>
       <c r="J7" s="2">
@@ -2403,23 +2406,23 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="60"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="18">
+      <c r="A8" s="53"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="14">
         <v>26</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="33">
+      <c r="F8" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="29">
         <v>28</v>
       </c>
-      <c r="H8" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="I8" s="22">
+      <c r="H8" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="18">
         <v>0.5</v>
       </c>
       <c r="J8" s="2">
@@ -2428,29 +2431,29 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="60"/>
-      <c r="B9" s="19">
+      <c r="A9" s="53"/>
+      <c r="B9" s="15">
         <v>4</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="19">
+      <c r="C9" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="15">
         <v>6</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="29">
         <v>6</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="I9" s="22">
+      <c r="H9" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="18">
         <v>0.25</v>
       </c>
       <c r="J9" s="2">
@@ -2459,56 +2462,56 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="46">
         <v>5</v>
       </c>
-      <c r="C10" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="18">
+      <c r="C10" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="14">
         <v>7</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="29">
+        <v>7</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="33">
-        <v>7</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I10" s="22">
+      <c r="I10" s="18">
         <v>0.25</v>
       </c>
       <c r="J10" s="2">
         <f>IFERROR(VLOOKUP($G10,Evaluation!C:F,4,FALSE),0)*I10</f>
-        <v>0.22500000000000001</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="44">
+      <c r="A11" s="49"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="37">
         <v>27</v>
       </c>
-      <c r="F11" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="33">
+      <c r="F11" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="29">
         <v>29</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" s="22">
+      <c r="H11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="18">
         <v>0.25</v>
       </c>
       <c r="J11" s="2">
@@ -2517,29 +2520,29 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
-      <c r="B12" s="18">
+      <c r="A12" s="49"/>
+      <c r="B12" s="14">
         <v>6</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" s="39">
+      <c r="D12" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="35">
         <v>8</v>
       </c>
-      <c r="F12" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="33">
+      <c r="F12" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="29">
         <v>8</v>
       </c>
-      <c r="H12" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="I12" s="22">
+      <c r="H12" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="18">
         <v>0.5</v>
       </c>
       <c r="J12" s="2">
@@ -2548,29 +2551,29 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="59"/>
-      <c r="B13" s="19">
+      <c r="A13" s="50"/>
+      <c r="B13" s="15">
         <v>7</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="19">
+      <c r="D13" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="15">
         <v>9</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="29">
         <v>9</v>
       </c>
-      <c r="H13" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="22">
+      <c r="H13" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="18">
         <v>0.25</v>
       </c>
       <c r="J13" s="2">
@@ -2579,31 +2582,31 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="52">
+      <c r="B14" s="46">
         <v>8</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="19">
+      <c r="D14" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="15">
         <v>10</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="29">
         <v>10</v>
       </c>
-      <c r="H14" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14" s="22">
+      <c r="H14" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="18">
         <v>0.5</v>
       </c>
       <c r="J14" s="2">
@@ -2612,23 +2615,23 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="18">
+      <c r="A15" s="49"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="14">
         <v>11</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="29">
         <v>11</v>
       </c>
-      <c r="H15" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" s="22">
+      <c r="H15" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="18">
         <v>0.5</v>
       </c>
       <c r="J15" s="2">
@@ -2637,29 +2640,29 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="57"/>
-      <c r="B16" s="52">
+      <c r="A16" s="49"/>
+      <c r="B16" s="46">
         <v>9</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="E16" s="52">
+      <c r="D16" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="46">
         <v>12</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="29">
         <v>12</v>
       </c>
-      <c r="H16" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="I16" s="22">
+      <c r="H16" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="18">
         <v>0.1</v>
       </c>
       <c r="J16" s="2">
@@ -2668,19 +2671,19 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="57"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="33">
+      <c r="A17" s="49"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="29">
         <v>13</v>
       </c>
-      <c r="H17" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="I17" s="22">
+      <c r="H17" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="18">
         <v>0.1</v>
       </c>
       <c r="J17" s="2">
@@ -2689,23 +2692,23 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="57"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="18">
+      <c r="A18" s="49"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="14">
         <v>13</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="29">
         <v>14</v>
       </c>
-      <c r="H18" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18" s="22">
+      <c r="H18" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="18">
         <v>0.1</v>
       </c>
       <c r="J18" s="2">
@@ -2714,23 +2717,23 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="57"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="18">
+      <c r="A19" s="49"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="14">
         <v>14</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="29">
         <v>15</v>
       </c>
-      <c r="H19" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="I19" s="22">
+      <c r="H19" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="I19" s="18">
         <v>0.2</v>
       </c>
       <c r="J19" s="2">
@@ -2739,29 +2742,29 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="59"/>
-      <c r="B20" s="19">
+      <c r="A20" s="50"/>
+      <c r="B20" s="15">
         <v>10</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="19">
+      <c r="D20" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="15">
         <v>15</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="29">
         <v>16</v>
       </c>
-      <c r="H20" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="I20" s="22">
+      <c r="H20" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="18">
         <v>1</v>
       </c>
       <c r="J20" s="2">
@@ -2770,31 +2773,31 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="15">
         <v>11</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" s="19">
+      <c r="D21" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="15">
         <v>16</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="29">
         <v>17</v>
       </c>
-      <c r="H21" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="I21" s="22">
+      <c r="H21" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="18">
         <v>0.5</v>
       </c>
       <c r="J21" s="2">
@@ -2803,29 +2806,29 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="59"/>
-      <c r="B22" s="18">
+      <c r="A22" s="50"/>
+      <c r="B22" s="14">
         <v>12</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" s="18">
+      <c r="D22" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="14">
         <v>17</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="29">
         <v>18</v>
       </c>
-      <c r="H22" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="I22" s="22">
+      <c r="H22" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="18">
         <v>1</v>
       </c>
       <c r="J22" s="2">
@@ -2834,31 +2837,31 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="52">
+      <c r="B23" s="46">
         <v>13</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="E23" s="19">
+      <c r="D23" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="15">
         <v>18</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="30">
         <v>19</v>
       </c>
-      <c r="H23" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="I23" s="22">
+      <c r="H23" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="18">
         <v>0.25</v>
       </c>
       <c r="J23" s="2">
@@ -2867,23 +2870,23 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="57"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="18">
+      <c r="A24" s="49"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="14">
         <v>19</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="29">
         <v>20</v>
       </c>
-      <c r="H24" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="I24" s="22">
+      <c r="H24" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" s="18">
         <v>0.25</v>
       </c>
       <c r="J24" s="2">
@@ -2892,29 +2895,29 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="57"/>
-      <c r="B25" s="52">
+      <c r="A25" s="49"/>
+      <c r="B25" s="46">
         <v>14</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="18">
+      <c r="D25" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="14">
         <v>20</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="29">
         <v>21</v>
       </c>
-      <c r="H25" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="I25" s="22">
+      <c r="H25" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" s="18">
         <v>0.15</v>
       </c>
       <c r="J25" s="2">
@@ -2923,23 +2926,23 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="59"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="18">
+      <c r="A26" s="50"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="14">
         <v>21</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F26" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="29">
         <v>22</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="H26" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="18">
         <v>0.1</v>
       </c>
       <c r="J26" s="2">
@@ -2948,31 +2951,31 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="52">
+      <c r="A27" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="46">
         <v>15</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="19">
+      <c r="D27" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="15">
         <v>22</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="29">
         <v>23</v>
       </c>
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="18">
         <v>0.15</v>
       </c>
       <c r="J27" s="2">
@@ -2981,23 +2984,23 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="57"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="52">
+      <c r="A28" s="49"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="46">
         <v>23</v>
       </c>
-      <c r="F28" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="33">
+      <c r="F28" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="29">
         <v>24</v>
       </c>
-      <c r="H28" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="I28" s="22">
+      <c r="H28" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I28" s="18">
         <v>0.1</v>
       </c>
       <c r="J28" s="2">
@@ -3006,19 +3009,19 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="57"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="33">
+      <c r="A29" s="49"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="29">
         <v>25</v>
       </c>
-      <c r="H29" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="I29" s="22">
+      <c r="H29" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" s="18">
         <v>0.1</v>
       </c>
       <c r="J29" s="2">
@@ -3027,23 +3030,23 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="59"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="19">
+      <c r="A30" s="50"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="15">
         <v>24</v>
       </c>
-      <c r="F30" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" s="33">
+      <c r="F30" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="29">
         <v>26</v>
       </c>
-      <c r="H30" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="I30" s="22">
+      <c r="H30" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="I30" s="18">
         <v>0.15</v>
       </c>
       <c r="J30" s="2">
@@ -3052,240 +3055,240 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="62"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="22"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="18"/>
       <c r="J31" s="2">
         <f>IFERROR(VLOOKUP($G31,Evaluation!C:F,4,FALSE),0)*I31</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="62"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="22"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="18"/>
       <c r="J32" s="2">
         <f>IFERROR(VLOOKUP($G32,Evaluation!C:F,4,FALSE),0)*I32</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="62"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="22"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="18"/>
       <c r="J33" s="2">
         <f>IFERROR(VLOOKUP($G33,Evaluation!C:F,4,FALSE),0)*I33</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="62"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="22"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="18"/>
       <c r="J34" s="2">
         <f>IFERROR(VLOOKUP($G34,Evaluation!C:F,4,FALSE),0)*I34</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="62"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="22"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="18"/>
       <c r="J35" s="2">
         <f>IFERROR(VLOOKUP($G35,Evaluation!C:F,4,FALSE),0)*I35</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="62"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="22"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="18"/>
       <c r="J36" s="2">
         <f>IFERROR(VLOOKUP($G36,Evaluation!C:F,4,FALSE),0)*I36</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="62"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="22"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="18"/>
       <c r="J37" s="2">
         <f>IFERROR(VLOOKUP($G37,Evaluation!C:F,4,FALSE),0)*I37</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="62"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="22"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="18"/>
       <c r="J38" s="2">
         <f>IFERROR(VLOOKUP($G38,Evaluation!C:F,4,FALSE),0)*I38</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="62"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="22"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="18"/>
       <c r="J39" s="2">
         <f>IFERROR(VLOOKUP($G39,Evaluation!C:F,4,FALSE),0)*I39</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="62"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="22"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="18"/>
       <c r="J40" s="2">
         <f>IFERROR(VLOOKUP($G40,Evaluation!C:F,4,FALSE),0)*I40</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="62"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="22"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="18"/>
       <c r="J41" s="2">
         <f>IFERROR(VLOOKUP($G41,Evaluation!C:F,4,FALSE),0)*I41</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="62"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="22"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="18"/>
       <c r="J42" s="2">
         <f>IFERROR(VLOOKUP($G42,Evaluation!C:F,4,FALSE),0)*I42</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="62"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="22"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="18"/>
       <c r="J43" s="2">
         <f>IFERROR(VLOOKUP($G43,Evaluation!C:F,4,FALSE),0)*I43</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="62"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="22"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="18"/>
       <c r="J44" s="2">
         <f>IFERROR(VLOOKUP($G44,Evaluation!C:F,4,FALSE),0)*I44</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="62"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="22"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="18"/>
       <c r="J45" s="2">
         <f>IFERROR(VLOOKUP($G45,Evaluation!C:F,4,FALSE),0)*I45</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="63"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="23"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="19"/>
       <c r="J46" s="3">
         <f>IFERROR(VLOOKUP($G46,Evaluation!C:F,4,FALSE),0)*I46</f>
         <v>0</v>
@@ -3293,24 +3296,11 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D14:D15"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="B23:B24"/>
@@ -3325,13 +3315,26 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D30"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3344,8 +3347,8 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3358,22 +3361,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="38" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3381,576 +3384,576 @@
       <c r="A2" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="6">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>IFERROR(VLOOKUP($C2,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Autom. Builds:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E2" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="29">
+      <c r="E2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="57"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="10">
+      <c r="A3" s="49"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="9">
         <v>11</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>IFERROR(VLOOKUP($C3,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Dependencieverwaltung:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E3" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="30">
+      <c r="E3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="8">
+      <c r="A4" s="49"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="7">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="str">
         <f>IFERROR(VLOOKUP($C4,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Installation:_x000D_Ordinalskala (sehr gut, gut, schlecht)</v>
       </c>
-      <c r="E4" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="30">
+      <c r="E4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="3" t="str">
         <f>IFERROR(VLOOKUP($C5,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="30"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
-      <c r="B6" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="A6" s="49"/>
+      <c r="B6" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="6">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>IFERROR(VLOOKUP($C6,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>JSON-Format:_x000D_Ordinalskala(automatisch, manuell, nicht möglich)</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="29">
+      <c r="E6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="8">
+      <c r="A7" s="49"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="7">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="str">
         <f>IFERROR(VLOOKUP($C7,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>XML-Format:_x000D_Ordinalskala(automatisch, manuell, nicht möglich)</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="30">
+      <c r="E7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="57"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="8">
+      <c r="A8" s="49"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="7">
         <v>6</v>
       </c>
       <c r="D8" s="2" t="str">
         <f>IFERROR(VLOOKUP($C8,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Circuit-Breaker-Pattern:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="30">
+      <c r="E8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="57"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="8">
+      <c r="A9" s="49"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="7">
         <v>17</v>
       </c>
       <c r="D9" s="2" t="str">
         <f>IFERROR(VLOOKUP($C9,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Logged Events:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="30">
+      <c r="E9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="26">
         <v>0.75</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="57"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="8">
+      <c r="A10" s="49"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="7">
         <v>18</v>
       </c>
       <c r="D10" s="2" t="str">
         <f>IFERROR(VLOOKUP($C10,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>JWT-Auth.:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="30">
+      <c r="E10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="8">
+      <c r="A11" s="49"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="7">
         <v>19</v>
       </c>
       <c r="D11" s="2" t="str">
         <f>IFERROR(VLOOKUP($C11,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Logging:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="30">
+      <c r="E11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="26">
         <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="8">
+      <c r="A12" s="49"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="7">
         <v>20</v>
       </c>
       <c r="D12" s="2" t="str">
         <f>IFERROR(VLOOKUP($C12,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Metriken:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="30">
+      <c r="E12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="57"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="8">
+      <c r="A13" s="49"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="7">
         <v>27</v>
       </c>
       <c r="D13" s="2" t="str">
         <f>IFERROR(VLOOKUP($C13,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Discovery An- und Abmeldung:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="30">
+      <c r="E13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="8">
+      <c r="A14" s="49"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="7">
         <v>28</v>
       </c>
       <c r="D14" s="2" t="str">
         <f>IFERROR(VLOOKUP($C14,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Instanzen an Discovery erfragen:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="30">
+      <c r="E14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="3" t="str">
         <f>IFERROR(VLOOKUP($C15,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="31"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="57"/>
-      <c r="B16" s="66" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="str">
         <f>IFERROR(VLOOKUP($C16,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Objekvalidierung:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="29">
+      <c r="E16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="57"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="8">
+      <c r="A17" s="49"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="7">
         <v>2</v>
       </c>
       <c r="D17" s="2" t="str">
         <f>IFERROR(VLOOKUP($C17,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>HATEOAS-Links: Ordinalskala (automatisch, manuell, nicht möglich)</v>
       </c>
-      <c r="E17" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="30">
+      <c r="E17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="57"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="8">
+      <c r="A18" s="49"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="7">
         <v>3</v>
       </c>
       <c r="D18" s="2" t="str">
         <f>IFERROR(VLOOKUP($C18,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Schnittstelle nach Ressourcen:_x000D_Ordinalskala (automatisch, manuell, nicht möglich)</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="30">
+      <c r="E18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="57"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="8">
+      <c r="A19" s="49"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="7">
         <v>15</v>
       </c>
       <c r="D19" s="2" t="str">
         <f>IFERROR(VLOOKUP($C19,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Entwicklung mit Framework:_x000D_Ordinalskala (sehr gut, gut, schlecht)</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="30">
+      <c r="E19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="57"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="8">
+      <c r="A20" s="49"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="7">
         <v>16</v>
       </c>
       <c r="D20" s="2" t="str">
         <f>IFERROR(VLOOKUP($C20,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Dokumentation:_x000D_Ordinalskala (Sehr Umfangreich mit Beispielen, Umfangreich, Einfach, keine)</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="30">
+      <c r="E20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="8"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="2" t="str">
         <f>IFERROR(VLOOKUP($C21,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="30"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="26"/>
     </row>
     <row r="22" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="64" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="7">
+      <c r="B22" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="6">
         <v>12</v>
       </c>
       <c r="D22" s="1" t="str">
         <f>IFERROR(VLOOKUP($C22,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>LoC für einen Endpunkt</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="1">
         <v>6</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="57"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="8">
+      <c r="A23" s="49"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="7">
         <v>13</v>
       </c>
       <c r="D23" s="2" t="str">
         <f>IFERROR(VLOOKUP($C23,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Methodenaufrufe für einen Endpunkt</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="2">
         <v>2</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="8"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="2" t="str">
         <f>IFERROR(VLOOKUP($C24,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="30"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="26"/>
     </row>
     <row r="25" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="57"/>
-      <c r="B25" s="66" t="s">
+      <c r="A25" s="49"/>
+      <c r="B25" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>7</v>
       </c>
       <c r="D25" s="1" t="str">
         <f>IFERROR(VLOOKUP($C25,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Latenz Antwort bei Messung an Endpunkt ohne Logik</v>
       </c>
-      <c r="E25" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="29">
-        <v>0.9</v>
+      <c r="E25" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="25">
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="57"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="8">
+      <c r="A26" s="49"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="7">
         <v>8</v>
       </c>
       <c r="D26" s="2" t="str">
         <f>IFERROR(VLOOKUP($C26,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Druchsatz bei 100.000 Anfragen mit 255 echt parallelen Clients in Anfragen/Sek</v>
       </c>
-      <c r="E26" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="30">
+      <c r="E26" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="26">
         <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="57"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="8">
+      <c r="A27" s="49"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="7">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="str">
         <f>IFERROR(VLOOKUP($C27,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Messung Heap Size unter Last: Kleiner 100MB</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="F27" s="30">
+        <v>Messung Speicherverbrauch (RSS) unter Last: Kleiner 100MB</v>
+      </c>
+      <c r="E27" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="26">
         <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="57"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="8">
+      <c r="A28" s="49"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="7">
         <v>29</v>
       </c>
       <c r="D28" s="2" t="str">
         <f>IFERROR(VLOOKUP($C28,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Messung Startzeit</v>
       </c>
-      <c r="E28" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="30">
+      <c r="E28" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="26">
         <v>0.75</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="8"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="2" t="str">
         <f>IFERROR(VLOOKUP($C29,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="30"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="26"/>
     </row>
     <row r="30" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="57"/>
-      <c r="B30" s="66" t="s">
+      <c r="A30" s="49"/>
+      <c r="B30" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>21</v>
       </c>
       <c r="D30" s="1" t="str">
         <f>IFERROR(VLOOKUP($C30,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Länge vom Support in Monaten pro Major Release</v>
       </c>
-      <c r="E30" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="29">
+      <c r="E30" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="57"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="8">
+      <c r="A31" s="49"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="7">
         <v>22</v>
       </c>
       <c r="D31" s="2" t="str">
         <f>IFERROR(VLOOKUP($C31,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Kommerzieller Support vorhanden (j/n)</v>
       </c>
-      <c r="E31" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" s="30">
+      <c r="E31" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="57"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="8">
+      <c r="A32" s="49"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="7">
         <v>23</v>
       </c>
       <c r="D32" s="2" t="str">
         <f>IFERROR(VLOOKUP($C32,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Release Zykluslänge bzw. Durchschnittlicher Majorrelease Abstand</v>
       </c>
-      <c r="E32" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="F32" s="30">
+      <c r="E32" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="57"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="8">
+      <c r="A33" s="49"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="7">
         <v>24</v>
       </c>
       <c r="D33" s="2" t="str">
         <f>IFERROR(VLOOKUP($C33,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Firmen über 1000 MA</v>
-      </c>
-      <c r="E33" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" s="30">
+        <v>Businessimpact bei Verlust des Frameworks:_x000D_Ordinalskala(stark, mittel, schwach)</v>
+      </c>
+      <c r="E33" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="57"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="8">
+      <c r="A34" s="49"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="7">
         <v>25</v>
       </c>
       <c r="D34" s="2" t="str">
         <f>IFERROR(VLOOKUP($C34,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Firmen über 100 MA</v>
-      </c>
-      <c r="E34" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="F34" s="30">
+        <v>Große Firmen die auf das Framework setzen:_x000D_Ordinalskala(viele, wenige, keine)</v>
+      </c>
+      <c r="E34" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="57"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="8">
+      <c r="A35" s="49"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="7">
         <v>26</v>
       </c>
       <c r="D35" s="2" t="str">
         <f>IFERROR(VLOOKUP($C35,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Github Repository : _x000D_Star + Watch + Fork</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="2">
         <v>23958</v>
       </c>
-      <c r="F35" s="30">
+      <c r="F35" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="58"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="9"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="3" t="str">
         <f>IFERROR(VLOOKUP($C36,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v/>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="31"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3963,7 +3966,7 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="A2:A21"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3974,7 +3977,7 @@
   <dimension ref="A6:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3983,7 +3986,7 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B6" t="s">
@@ -4000,11 +4003,11 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="21">
         <f>SUM('QUT-GQM'!I2:I9)</f>
         <v>3.25</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="21">
         <f>SUM('QUT-GQM'!J2:J9)</f>
         <v>3.25</v>
       </c>
@@ -4017,28 +4020,28 @@
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="21">
         <f>SUM('QUT-GQM'!I10:I13)</f>
         <v>1.25</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="21">
         <f>SUM('QUT-GQM'!J10:J13)</f>
-        <v>0.78749999999999998</v>
+        <v>0.6875</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:D12" si="0">IFERROR(C8/B8,0)</f>
-        <v>0.63</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="21">
         <f>SUM('QUT-GQM'!I14:I20)</f>
         <v>2.5</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="21">
         <f>SUM('QUT-GQM'!J14:J20)</f>
         <v>2.5</v>
       </c>
@@ -4051,11 +4054,11 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="21">
         <f>SUM('QUT-GQM'!I21:I22)</f>
         <v>1.5</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="21">
         <f>SUM('QUT-GQM'!J21:J22)</f>
         <v>1.375</v>
       </c>
@@ -4068,11 +4071,11 @@
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="21">
         <f>SUM('QUT-GQM'!I23:I26)</f>
         <v>0.75</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="21">
         <f>SUM('QUT-GQM'!J23:J26)</f>
         <v>0.6875</v>
       </c>
@@ -4083,13 +4086,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="25">
+        <v>78</v>
+      </c>
+      <c r="B12" s="21">
         <f>SUM('QUT-GQM'!I27:I30)</f>
         <v>0.5</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="21">
         <f>SUM('QUT-GQM'!J27:J30)</f>
         <v>0.5</v>
       </c>

--- a/Sonstiges/MFEM-Beispiel-Spring.xlsx
+++ b/Sonstiges/MFEM-Beispiel-Spring.xlsx
@@ -427,6 +427,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -771,7 +774,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -882,6 +885,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -889,29 +904,29 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -927,17 +942,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1101,7 +1107,7 @@
                   <c:v>0.916666666666667</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.916666666666667</c:v>
+                  <c:v>0.888333333333333</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.0</c:v>
@@ -1118,11 +1124,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="610779312"/>
-        <c:axId val="610820912"/>
+        <c:axId val="1385676448"/>
+        <c:axId val="1385679200"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="610779312"/>
+        <c:axId val="1385676448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1165,7 +1171,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610820912"/>
+        <c:crossAx val="1385679200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1173,7 +1179,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="610820912"/>
+        <c:axId val="1385679200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1224,7 +1230,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="610779312"/>
+        <c:crossAx val="1385676448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2179,8 +2185,8 @@
   </sheetPr>
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2230,7 +2236,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="14">
@@ -2263,14 +2269,14 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="46">
+      <c r="A3" s="51"/>
+      <c r="B3" s="52">
         <v>2</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="48" t="s">
         <v>107</v>
       </c>
       <c r="E3" s="14">
@@ -2294,10 +2300,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="15">
         <v>3</v>
       </c>
@@ -2319,14 +2325,14 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53"/>
-      <c r="B5" s="46">
+      <c r="A5" s="54"/>
+      <c r="B5" s="52">
         <v>3</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="48" t="s">
         <v>108</v>
       </c>
       <c r="E5" s="14">
@@ -2350,10 +2356,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="53"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="14">
         <v>5</v>
       </c>
@@ -2375,14 +2381,14 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="53"/>
-      <c r="B7" s="46">
+      <c r="A7" s="54"/>
+      <c r="B7" s="52">
         <v>16</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="48" t="s">
         <v>108</v>
       </c>
       <c r="E7" s="14">
@@ -2406,10 +2412,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="53"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
       <c r="E8" s="14">
         <v>26</v>
       </c>
@@ -2431,7 +2437,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="53"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="15">
         <v>4</v>
       </c>
@@ -2462,16 +2468,16 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="52">
         <v>5</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="48" t="s">
         <v>107</v>
       </c>
       <c r="E10" s="14">
@@ -2495,10 +2501,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="37">
         <v>27</v>
       </c>
@@ -2520,7 +2526,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="49"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="14">
         <v>6</v>
       </c>
@@ -2551,7 +2557,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="15">
         <v>7</v>
       </c>
@@ -2582,16 +2588,16 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="52">
         <v>8</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="48" t="s">
         <v>108</v>
       </c>
       <c r="E14" s="15">
@@ -2615,10 +2621,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="49"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="14">
         <v>11</v>
       </c>
@@ -2640,20 +2646,20 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="49"/>
-      <c r="B16" s="46">
+      <c r="A16" s="55"/>
+      <c r="B16" s="52">
         <v>9</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="52">
         <v>12</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="48" t="s">
         <v>44</v>
       </c>
       <c r="G16" s="29">
@@ -2671,12 +2677,12 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="45"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="49"/>
       <c r="G17" s="29">
         <v>13</v>
       </c>
@@ -2692,10 +2698,10 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="14">
         <v>13</v>
       </c>
@@ -2717,10 +2723,10 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="14">
         <v>14</v>
       </c>
@@ -2742,7 +2748,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="50"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="15">
         <v>10</v>
       </c>
@@ -2773,7 +2779,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="50" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="15">
@@ -2806,7 +2812,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="50"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="14">
         <v>12</v>
       </c>
@@ -2837,16 +2843,16 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="52">
         <v>13</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="48" t="s">
         <v>107</v>
       </c>
       <c r="E23" s="15">
@@ -2870,10 +2876,10 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="49"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
       <c r="E24" s="14">
         <v>19</v>
       </c>
@@ -2895,14 +2901,14 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="49"/>
-      <c r="B25" s="46">
+      <c r="A25" s="55"/>
+      <c r="B25" s="52">
         <v>14</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="48" t="s">
         <v>109</v>
       </c>
       <c r="E25" s="14">
@@ -2917,19 +2923,19 @@
       <c r="H25" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="18">
-        <v>0.15</v>
+      <c r="I25" s="63">
+        <v>0.125</v>
       </c>
       <c r="J25" s="2">
         <f>IFERROR(VLOOKUP($G25,Evaluation!C:F,4,FALSE),0)*I25</f>
-        <v>0.15</v>
+        <v>0.10375</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="50"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
       <c r="E26" s="14">
         <v>21</v>
       </c>
@@ -2942,25 +2948,25 @@
       <c r="H26" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="18">
-        <v>0.1</v>
+      <c r="I26" s="63">
+        <v>0.125</v>
       </c>
       <c r="J26" s="2">
         <f>IFERROR(VLOOKUP($G26,Evaluation!C:F,4,FALSE),0)*I26</f>
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="46">
+      <c r="B27" s="52">
         <v>15</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="48" t="s">
         <v>107</v>
       </c>
       <c r="E27" s="15">
@@ -2984,14 +2990,14 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="49"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="46">
+      <c r="A28" s="55"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="52">
         <v>23</v>
       </c>
-      <c r="F28" s="44" t="s">
+      <c r="F28" s="48" t="s">
         <v>117</v>
       </c>
       <c r="G28" s="29">
@@ -3009,12 +3015,12 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="49"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="45"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="49"/>
       <c r="G29" s="29">
         <v>25</v>
       </c>
@@ -3030,10 +3036,10 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="50"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
       <c r="E30" s="15">
         <v>24</v>
       </c>
@@ -3296,11 +3302,24 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D16:D19"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="B23:B24"/>
@@ -3315,24 +3334,11 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D14:D15"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3347,8 +3353,8 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3381,10 +3387,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="62" t="s">
         <v>112</v>
       </c>
       <c r="C2" s="6">
@@ -3402,8 +3408,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="49"/>
-      <c r="B3" s="53"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="9">
         <v>11</v>
       </c>
@@ -3419,8 +3425,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49"/>
-      <c r="B4" s="53"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="7">
         <v>14</v>
       </c>
@@ -3436,8 +3442,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="55"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="8"/>
       <c r="D5" s="3" t="str">
         <f>IFERROR(VLOOKUP($C5,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
@@ -3447,8 +3453,8 @@
       <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
-      <c r="B6" s="54" t="s">
+      <c r="A6" s="55"/>
+      <c r="B6" s="58" t="s">
         <v>114</v>
       </c>
       <c r="C6" s="6">
@@ -3466,8 +3472,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="49"/>
-      <c r="B7" s="53"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="7">
         <v>5</v>
       </c>
@@ -3483,8 +3489,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
-      <c r="B8" s="53"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="7">
         <v>6</v>
       </c>
@@ -3500,8 +3506,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="49"/>
-      <c r="B9" s="53"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="7">
         <v>17</v>
       </c>
@@ -3517,8 +3523,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
-      <c r="B10" s="53"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="7">
         <v>18</v>
       </c>
@@ -3534,8 +3540,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="49"/>
-      <c r="B11" s="53"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="7">
         <v>19</v>
       </c>
@@ -3551,8 +3557,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="49"/>
-      <c r="B12" s="53"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="7">
         <v>20</v>
       </c>
@@ -3568,8 +3574,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="49"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="7">
         <v>27</v>
       </c>
@@ -3585,8 +3591,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
-      <c r="B14" s="53"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="7">
         <v>28</v>
       </c>
@@ -3602,8 +3608,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="55"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="8"/>
       <c r="D15" s="3" t="str">
         <f>IFERROR(VLOOKUP($C15,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
@@ -3613,8 +3619,8 @@
       <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="49"/>
-      <c r="B16" s="54" t="s">
+      <c r="A16" s="55"/>
+      <c r="B16" s="58" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="6">
@@ -3632,8 +3638,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
-      <c r="B17" s="53"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="7">
         <v>2</v>
       </c>
@@ -3649,8 +3655,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
-      <c r="B18" s="53"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="7">
         <v>3</v>
       </c>
@@ -3666,8 +3672,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
-      <c r="B19" s="53"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="7">
         <v>15</v>
       </c>
@@ -3683,8 +3689,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="49"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="54"/>
       <c r="C20" s="7">
         <v>16</v>
       </c>
@@ -3700,8 +3706,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="54"/>
       <c r="C21" s="7"/>
       <c r="D21" s="2" t="str">
         <f>IFERROR(VLOOKUP($C21,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
@@ -3711,10 +3717,10 @@
       <c r="F21" s="26"/>
     </row>
     <row r="22" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="62" t="s">
         <v>113</v>
       </c>
       <c r="C22" s="6">
@@ -3732,8 +3738,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="49"/>
-      <c r="B23" s="53"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="7">
         <v>13</v>
       </c>
@@ -3749,8 +3755,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="53"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="7"/>
       <c r="D24" s="2" t="str">
         <f>IFERROR(VLOOKUP($C24,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
@@ -3760,8 +3766,8 @@
       <c r="F24" s="26"/>
     </row>
     <row r="25" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="49"/>
-      <c r="B25" s="54" t="s">
+      <c r="A25" s="55"/>
+      <c r="B25" s="58" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="6">
@@ -3771,7 +3777,7 @@
         <f>IFERROR(VLOOKUP($C25,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Latenz Antwort bei Messung an Endpunkt ohne Logik</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="44" t="s">
         <v>68</v>
       </c>
       <c r="F25" s="25">
@@ -3779,8 +3785,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="49"/>
-      <c r="B26" s="53"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="7">
         <v>8</v>
       </c>
@@ -3788,7 +3794,7 @@
         <f>IFERROR(VLOOKUP($C26,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Druchsatz bei 100.000 Anfragen mit 255 echt parallelen Clients in Anfragen/Sek</v>
       </c>
-      <c r="E26" s="60" t="s">
+      <c r="E26" s="45" t="s">
         <v>73</v>
       </c>
       <c r="F26" s="26">
@@ -3796,8 +3802,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
-      <c r="B27" s="53"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="54"/>
       <c r="C27" s="7">
         <v>9</v>
       </c>
@@ -3805,7 +3811,7 @@
         <f>IFERROR(VLOOKUP($C27,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Messung Speicherverbrauch (RSS) unter Last: Kleiner 100MB</v>
       </c>
-      <c r="E27" s="61" t="s">
+      <c r="E27" s="46" t="s">
         <v>69</v>
       </c>
       <c r="F27" s="26">
@@ -3813,8 +3819,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="49"/>
-      <c r="B28" s="53"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="7">
         <v>29</v>
       </c>
@@ -3822,7 +3828,7 @@
         <f>IFERROR(VLOOKUP($C28,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Messung Startzeit</v>
       </c>
-      <c r="E28" s="61" t="s">
+      <c r="E28" s="46" t="s">
         <v>86</v>
       </c>
       <c r="F28" s="26">
@@ -3830,8 +3836,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="53"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="7"/>
       <c r="D29" s="2" t="str">
         <f>IFERROR(VLOOKUP($C29,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
@@ -3841,8 +3847,8 @@
       <c r="F29" s="26"/>
     </row>
     <row r="30" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="49"/>
-      <c r="B30" s="54" t="s">
+      <c r="A30" s="55"/>
+      <c r="B30" s="58" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="6">
@@ -3852,16 +3858,16 @@
         <f>IFERROR(VLOOKUP($C30,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Länge vom Support in Monaten pro Major Release</v>
       </c>
-      <c r="E30" s="59" t="s">
+      <c r="E30" s="44" t="s">
         <v>74</v>
       </c>
       <c r="F30" s="25">
-        <v>1</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="49"/>
-      <c r="B31" s="53"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="7">
         <v>22</v>
       </c>
@@ -3869,7 +3875,7 @@
         <f>IFERROR(VLOOKUP($C31,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Kommerzieller Support vorhanden (j/n)</v>
       </c>
-      <c r="E31" s="61" t="s">
+      <c r="E31" s="46" t="s">
         <v>76</v>
       </c>
       <c r="F31" s="26">
@@ -3877,8 +3883,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="49"/>
-      <c r="B32" s="53"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="7">
         <v>23</v>
       </c>
@@ -3886,7 +3892,7 @@
         <f>IFERROR(VLOOKUP($C32,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Release Zykluslänge bzw. Durchschnittlicher Majorrelease Abstand</v>
       </c>
-      <c r="E32" s="61" t="s">
+      <c r="E32" s="46" t="s">
         <v>75</v>
       </c>
       <c r="F32" s="26">
@@ -3894,8 +3900,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="49"/>
-      <c r="B33" s="53"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="7">
         <v>24</v>
       </c>
@@ -3903,7 +3909,7 @@
         <f>IFERROR(VLOOKUP($C33,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Businessimpact bei Verlust des Frameworks:_x000D_Ordinalskala(stark, mittel, schwach)</v>
       </c>
-      <c r="E33" s="62" t="s">
+      <c r="E33" s="47" t="s">
         <v>119</v>
       </c>
       <c r="F33" s="26">
@@ -3911,8 +3917,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="49"/>
-      <c r="B34" s="53"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="7">
         <v>25</v>
       </c>
@@ -3920,7 +3926,7 @@
         <f>IFERROR(VLOOKUP($C34,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
         <v>Große Firmen die auf das Framework setzen:_x000D_Ordinalskala(viele, wenige, keine)</v>
       </c>
-      <c r="E34" s="62" t="s">
+      <c r="E34" s="47" t="s">
         <v>120</v>
       </c>
       <c r="F34" s="26">
@@ -3928,8 +3934,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="49"/>
-      <c r="B35" s="53"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="7">
         <v>26</v>
       </c>
@@ -3945,8 +3951,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
-      <c r="B36" s="55"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="59"/>
       <c r="C36" s="8"/>
       <c r="D36" s="3" t="str">
         <f>IFERROR(VLOOKUP($C36,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
@@ -4077,11 +4083,11 @@
       </c>
       <c r="C11" s="21">
         <f>SUM('QUT-GQM'!J23:J26)</f>
-        <v>0.6875</v>
+        <v>0.66625000000000001</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>0.91666666666666663</v>
+        <v>0.88833333333333331</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">

--- a/Sonstiges/MFEM-Beispiel-Spring.xlsx
+++ b/Sonstiges/MFEM-Beispiel-Spring.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17920" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="QUT-GQM" sheetId="2" r:id="rId1"/>
@@ -897,6 +897,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -904,29 +907,29 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -941,9 +944,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1124,11 +1124,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1385676448"/>
-        <c:axId val="1385679200"/>
+        <c:axId val="1271746384"/>
+        <c:axId val="1271748016"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="1385676448"/>
+        <c:axId val="1271746384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1171,7 +1171,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1385679200"/>
+        <c:crossAx val="1271748016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1179,7 +1179,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1385679200"/>
+        <c:axId val="1271748016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1230,7 +1230,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1385676448"/>
+        <c:crossAx val="1271746384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2185,7 +2185,7 @@
   </sheetPr>
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
@@ -2236,7 +2236,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="55" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="14">
@@ -2269,14 +2269,14 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52">
+      <c r="A3" s="55"/>
+      <c r="B3" s="51">
         <v>2</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="49" t="s">
         <v>107</v>
       </c>
       <c r="E3" s="14">
@@ -2300,10 +2300,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="15">
         <v>3</v>
       </c>
@@ -2325,14 +2325,14 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="52">
+      <c r="A5" s="58"/>
+      <c r="B5" s="51">
         <v>3</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="49" t="s">
         <v>108</v>
       </c>
       <c r="E5" s="14">
@@ -2356,10 +2356,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="14">
         <v>5</v>
       </c>
@@ -2381,14 +2381,14 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="52">
+      <c r="A7" s="58"/>
+      <c r="B7" s="51">
         <v>16</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="49" t="s">
         <v>108</v>
       </c>
       <c r="E7" s="14">
@@ -2412,10 +2412,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="14">
         <v>26</v>
       </c>
@@ -2437,7 +2437,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="15">
         <v>4</v>
       </c>
@@ -2468,16 +2468,16 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="51">
         <v>5</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="49" t="s">
         <v>107</v>
       </c>
       <c r="E10" s="14">
@@ -2501,10 +2501,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="37">
         <v>27</v>
       </c>
@@ -2526,7 +2526,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="14">
         <v>6</v>
       </c>
@@ -2557,7 +2557,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="51"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="15">
         <v>7</v>
       </c>
@@ -2588,16 +2588,16 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="52">
+      <c r="B14" s="51">
         <v>8</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="49" t="s">
         <v>108</v>
       </c>
       <c r="E14" s="15">
@@ -2621,10 +2621,10 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="55"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="14">
         <v>11</v>
       </c>
@@ -2646,20 +2646,20 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="55"/>
-      <c r="B16" s="52">
+      <c r="A16" s="54"/>
+      <c r="B16" s="51">
         <v>9</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="51">
         <v>12</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="49" t="s">
         <v>44</v>
       </c>
       <c r="G16" s="29">
@@ -2677,12 +2677,12 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="55"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="56"/>
       <c r="C17" s="57"/>
       <c r="D17" s="57"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="49"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="50"/>
       <c r="G17" s="29">
         <v>13</v>
       </c>
@@ -2698,7 +2698,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="56"/>
       <c r="C18" s="57"/>
       <c r="D18" s="57"/>
@@ -2723,10 +2723,10 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="55"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="14">
         <v>14</v>
       </c>
@@ -2748,7 +2748,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="15">
         <v>10</v>
       </c>
@@ -2779,7 +2779,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="53" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="15">
@@ -2812,7 +2812,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="14">
         <v>12</v>
       </c>
@@ -2843,16 +2843,16 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="52">
+      <c r="B23" s="51">
         <v>13</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="D23" s="49" t="s">
         <v>107</v>
       </c>
       <c r="E23" s="15">
@@ -2876,10 +2876,10 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="55"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
       <c r="E24" s="14">
         <v>19</v>
       </c>
@@ -2901,14 +2901,14 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="55"/>
-      <c r="B25" s="52">
+      <c r="A25" s="54"/>
+      <c r="B25" s="51">
         <v>14</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="48" t="s">
+      <c r="D25" s="49" t="s">
         <v>109</v>
       </c>
       <c r="E25" s="14">
@@ -2923,7 +2923,7 @@
       <c r="H25" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="63">
+      <c r="I25" s="48">
         <v>0.125</v>
       </c>
       <c r="J25" s="2">
@@ -2932,10 +2932,10 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="51"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="14">
         <v>21</v>
       </c>
@@ -2948,7 +2948,7 @@
       <c r="H26" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I26" s="63">
+      <c r="I26" s="48">
         <v>0.125</v>
       </c>
       <c r="J26" s="2">
@@ -2957,16 +2957,16 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="52">
+      <c r="B27" s="51">
         <v>15</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="48" t="s">
+      <c r="D27" s="49" t="s">
         <v>107</v>
       </c>
       <c r="E27" s="15">
@@ -2990,14 +2990,14 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="55"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="56"/>
       <c r="C28" s="57"/>
       <c r="D28" s="57"/>
-      <c r="E28" s="52">
+      <c r="E28" s="51">
         <v>23</v>
       </c>
-      <c r="F28" s="48" t="s">
+      <c r="F28" s="49" t="s">
         <v>117</v>
       </c>
       <c r="G28" s="29">
@@ -3015,12 +3015,12 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="55"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="56"/>
       <c r="C29" s="57"/>
       <c r="D29" s="57"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="49"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="50"/>
       <c r="G29" s="29">
         <v>25</v>
       </c>
@@ -3036,10 +3036,10 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="15">
         <v>24</v>
       </c>
@@ -3302,24 +3302,11 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D14:D15"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="B23:B24"/>
@@ -3334,11 +3321,24 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D30"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3387,10 +3387,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="63" t="s">
         <v>112</v>
       </c>
       <c r="C2" s="6">
@@ -3408,8 +3408,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="55"/>
-      <c r="B3" s="54"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="9">
         <v>11</v>
       </c>
@@ -3425,8 +3425,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55"/>
-      <c r="B4" s="54"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="7">
         <v>14</v>
       </c>
@@ -3442,8 +3442,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
-      <c r="B5" s="59"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="8"/>
       <c r="D5" s="3" t="str">
         <f>IFERROR(VLOOKUP($C5,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
@@ -3453,8 +3453,8 @@
       <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="55"/>
-      <c r="B6" s="58" t="s">
+      <c r="A6" s="54"/>
+      <c r="B6" s="59" t="s">
         <v>114</v>
       </c>
       <c r="C6" s="6">
@@ -3472,8 +3472,8 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="55"/>
-      <c r="B7" s="54"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="7">
         <v>5</v>
       </c>
@@ -3489,8 +3489,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="55"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="7">
         <v>6</v>
       </c>
@@ -3506,8 +3506,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="55"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="7">
         <v>17</v>
       </c>
@@ -3523,8 +3523,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="55"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="7">
         <v>18</v>
       </c>
@@ -3540,8 +3540,8 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="7">
         <v>19</v>
       </c>
@@ -3557,8 +3557,8 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="7">
         <v>20</v>
       </c>
@@ -3574,8 +3574,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="7">
         <v>27</v>
       </c>
@@ -3591,8 +3591,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="55"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="7">
         <v>28</v>
       </c>
@@ -3608,8 +3608,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="B15" s="59"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="8"/>
       <c r="D15" s="3" t="str">
         <f>IFERROR(VLOOKUP($C15,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
@@ -3619,8 +3619,8 @@
       <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="55"/>
-      <c r="B16" s="58" t="s">
+      <c r="A16" s="54"/>
+      <c r="B16" s="59" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="6">
@@ -3638,8 +3638,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="55"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="58"/>
       <c r="C17" s="7">
         <v>2</v>
       </c>
@@ -3655,8 +3655,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="55"/>
-      <c r="B18" s="54"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="58"/>
       <c r="C18" s="7">
         <v>3</v>
       </c>
@@ -3672,8 +3672,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="55"/>
-      <c r="B19" s="54"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="7">
         <v>15</v>
       </c>
@@ -3689,8 +3689,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="55"/>
-      <c r="B20" s="54"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="58"/>
       <c r="C20" s="7">
         <v>16</v>
       </c>
@@ -3706,8 +3706,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
-      <c r="B21" s="54"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="58"/>
       <c r="C21" s="7"/>
       <c r="D21" s="2" t="str">
         <f>IFERROR(VLOOKUP($C21,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
@@ -3717,10 +3717,10 @@
       <c r="F21" s="26"/>
     </row>
     <row r="22" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="63" t="s">
         <v>113</v>
       </c>
       <c r="C22" s="6">
@@ -3738,8 +3738,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="55"/>
-      <c r="B23" s="54"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="7">
         <v>13</v>
       </c>
@@ -3755,8 +3755,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="7"/>
       <c r="D24" s="2" t="str">
         <f>IFERROR(VLOOKUP($C24,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
@@ -3766,8 +3766,8 @@
       <c r="F24" s="26"/>
     </row>
     <row r="25" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="55"/>
-      <c r="B25" s="58" t="s">
+      <c r="A25" s="54"/>
+      <c r="B25" s="59" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="6">
@@ -3785,8 +3785,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="55"/>
-      <c r="B26" s="54"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="58"/>
       <c r="C26" s="7">
         <v>8</v>
       </c>
@@ -3802,8 +3802,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="55"/>
-      <c r="B27" s="54"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="58"/>
       <c r="C27" s="7">
         <v>9</v>
       </c>
@@ -3819,8 +3819,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="55"/>
-      <c r="B28" s="54"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="58"/>
       <c r="C28" s="7">
         <v>29</v>
       </c>
@@ -3836,8 +3836,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
-      <c r="B29" s="54"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="58"/>
       <c r="C29" s="7"/>
       <c r="D29" s="2" t="str">
         <f>IFERROR(VLOOKUP($C29,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
@@ -3847,8 +3847,8 @@
       <c r="F29" s="26"/>
     </row>
     <row r="30" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="55"/>
-      <c r="B30" s="58" t="s">
+      <c r="A30" s="54"/>
+      <c r="B30" s="59" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="6">
@@ -3866,8 +3866,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="55"/>
-      <c r="B31" s="54"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="58"/>
       <c r="C31" s="7">
         <v>22</v>
       </c>
@@ -3883,8 +3883,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="55"/>
-      <c r="B32" s="54"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="58"/>
       <c r="C32" s="7">
         <v>23</v>
       </c>
@@ -3900,8 +3900,8 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="55"/>
-      <c r="B33" s="54"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="58"/>
       <c r="C33" s="7">
         <v>24</v>
       </c>
@@ -3917,8 +3917,8 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="55"/>
-      <c r="B34" s="54"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="58"/>
       <c r="C34" s="7">
         <v>25</v>
       </c>
@@ -3934,8 +3934,8 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="55"/>
-      <c r="B35" s="54"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="58"/>
       <c r="C35" s="7">
         <v>26</v>
       </c>
@@ -3951,8 +3951,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="61"/>
-      <c r="B36" s="59"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="8"/>
       <c r="D36" s="3" t="str">
         <f>IFERROR(VLOOKUP($C36,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
@@ -3982,8 +3982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Sonstiges/MFEM-Beispiel-Spring.xlsx
+++ b/Sonstiges/MFEM-Beispiel-Spring.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17920" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="QUT-GQM" sheetId="2" r:id="rId1"/>
@@ -140,9 +140,6 @@
     <t>Unterstützt das Framework eine automatische Validierung von Domänen Objekten?</t>
   </si>
   <si>
-    <t>Fügt das Framework HATEOAS Links in die Antowrt ein?</t>
-  </si>
-  <si>
     <t>Baut das Framework die Schnittstelle über Ressourcen auf?</t>
   </si>
   <si>
@@ -152,9 +149,6 @@
     <t>Kann das Framework Daten im XML Format de-/serialisieren</t>
   </si>
   <si>
-    <t>Wir vom Framework das Circuit Breaker Pattern unterstützt</t>
-  </si>
-  <si>
     <t>Ist der Service leichtgewichtig?</t>
   </si>
   <si>
@@ -164,9 +158,6 @@
     <t>Werden Dependencies automatisch geladen?</t>
   </si>
   <si>
-    <t>Kann eine Endpunkt einfach erstellt werden?</t>
-  </si>
-  <si>
     <t>Lässt sich das Framework einfach und schnell installieren?</t>
   </si>
   <si>
@@ -245,9 +236,6 @@
     <t>Kurze Reakionszeit</t>
   </si>
   <si>
-    <t>Druchsatz bei 100.000 Anfragen mit 255 echt parallelen Clients in Anfragen/Sek</t>
-  </si>
-  <si>
     <t>Kann der Service Lastspitzen aushalten und bewältigen?</t>
   </si>
   <si>
@@ -270,9 +258,6 @@
   </si>
   <si>
     <t>Unterstützung Eureka Service Discovery</t>
-  </si>
-  <si>
-    <t>Kann das Framework den Service automatisch an der Discovery An- und Abmelden sowie ein Heartbeat senden?</t>
   </si>
   <si>
     <t>Kann das Framework automatisch Instanzen eines bestimmten Services an der Discovery abfragen und für die Anfrage nutzen?</t>
@@ -328,10 +313,6 @@
 Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</t>
   </si>
   <si>
-    <t>Dependencieverwaltung:
-Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</t>
-  </si>
-  <si>
     <t>LoC für einen Endpunkt</t>
   </si>
   <si>
@@ -421,6 +402,25 @@
   </si>
   <si>
     <t>Messung Speicherverbrauch (RSS) unter Last: Kleiner 100MB</t>
+  </si>
+  <si>
+    <t>Fügt das Framework HATEOAS Links in die Antwort ein?</t>
+  </si>
+  <si>
+    <t>Kann das Framework den Service automatisch an der Discovery An- und Abmelden sowie einen Heartbeat senden?</t>
+  </si>
+  <si>
+    <t>Wird vom Framework das Circuit Breaker Pattern unterstützt</t>
+  </si>
+  <si>
+    <t>Kann ein Endpunkt einfach erstellt werden?</t>
+  </si>
+  <si>
+    <t>Dependencyverwaltung:
+Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</t>
+  </si>
+  <si>
+    <t>Durchsatz bei 100.000 Anfragen mit 255 echt parallelen Clients in Anfragen/Sek</t>
   </si>
 </sst>
 </file>
@@ -769,8 +769,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -907,29 +909,29 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -946,9 +948,11 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1124,11 +1128,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1271746384"/>
-        <c:axId val="1271748016"/>
+        <c:axId val="1020026272"/>
+        <c:axId val="1020028320"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="1271746384"/>
+        <c:axId val="1020026272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1171,7 +1175,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1271748016"/>
+        <c:crossAx val="1020028320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1179,7 +1183,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1271748016"/>
+        <c:axId val="1020028320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -1230,7 +1234,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1271746384"/>
+        <c:crossAx val="1020026272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2185,8 +2189,8 @@
   </sheetPr>
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2214,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>28</v>
@@ -2229,14 +2233,14 @@
         <v>2</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="52" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="14">
@@ -2246,7 +2250,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E2" s="14">
         <v>1</v>
@@ -2258,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I2" s="17">
         <v>0.5</v>
@@ -2269,27 +2273,27 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="55"/>
-      <c r="B3" s="51">
+      <c r="A3" s="52"/>
+      <c r="B3" s="53">
         <v>2</v>
       </c>
       <c r="C3" s="49" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="49" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E3" s="14">
         <v>2</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="G3" s="29">
         <v>2</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I3" s="17">
         <v>0.25</v>
@@ -2300,21 +2304,21 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="58"/>
-      <c r="B4" s="52"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="50"/>
       <c r="D4" s="50"/>
       <c r="E4" s="15">
         <v>3</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="29">
         <v>3</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I4" s="18">
         <v>0.25</v>
@@ -2325,27 +2329,27 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="58"/>
-      <c r="B5" s="51">
+      <c r="A5" s="55"/>
+      <c r="B5" s="53">
         <v>3</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E5" s="14">
         <v>4</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="29">
         <v>4</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I5" s="18">
         <v>0.75</v>
@@ -2356,21 +2360,21 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58"/>
-      <c r="B6" s="52"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="50"/>
       <c r="D6" s="50"/>
       <c r="E6" s="14">
         <v>5</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="29">
         <v>5</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I6" s="18">
         <v>0.25</v>
@@ -2381,27 +2385,27 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="58"/>
-      <c r="B7" s="51">
+      <c r="A7" s="55"/>
+      <c r="B7" s="53">
         <v>16</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E7" s="14">
         <v>25</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="G7" s="29">
         <v>27</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I7" s="18">
         <v>0.5</v>
@@ -2412,21 +2416,21 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="58"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="50"/>
       <c r="D8" s="50"/>
       <c r="E8" s="14">
         <v>26</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G8" s="29">
         <v>28</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I8" s="18">
         <v>0.5</v>
@@ -2437,27 +2441,27 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="58"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="15">
         <v>4</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E9" s="15">
         <v>6</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="G9" s="29">
         <v>6</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I9" s="18">
         <v>0.25</v>
@@ -2468,29 +2472,29 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="51">
+      <c r="B10" s="53">
         <v>5</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E10" s="14">
         <v>7</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G10" s="29">
         <v>7</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I10" s="18">
         <v>0.25</v>
@@ -2501,21 +2505,21 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
-      <c r="B11" s="52"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="50"/>
       <c r="D11" s="50"/>
       <c r="E11" s="37">
         <v>27</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G11" s="29">
         <v>29</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I11" s="18">
         <v>0.25</v>
@@ -2526,7 +2530,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="14">
         <v>6</v>
       </c>
@@ -2534,19 +2538,19 @@
         <v>10</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E12" s="35">
         <v>8</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G12" s="29">
         <v>8</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="I12" s="18">
         <v>0.5</v>
@@ -2557,7 +2561,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="55"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="15">
         <v>7</v>
       </c>
@@ -2565,19 +2569,19 @@
         <v>9</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E13" s="15">
         <v>9</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G13" s="29">
         <v>9</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I13" s="18">
         <v>0.25</v>
@@ -2588,29 +2592,29 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="51">
+      <c r="B14" s="53">
         <v>8</v>
       </c>
       <c r="C14" s="49" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E14" s="15">
         <v>10</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G14" s="29">
         <v>10</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I14" s="18">
         <v>0.5</v>
@@ -2621,21 +2625,21 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
-      <c r="B15" s="52"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="50"/>
       <c r="D15" s="50"/>
       <c r="E15" s="14">
         <v>11</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G15" s="29">
         <v>11</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="I15" s="18">
         <v>0.5</v>
@@ -2646,27 +2650,27 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
-      <c r="B16" s="51">
+      <c r="A16" s="56"/>
+      <c r="B16" s="53">
         <v>9</v>
       </c>
       <c r="C16" s="49" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="51">
+        <v>101</v>
+      </c>
+      <c r="E16" s="53">
         <v>12</v>
       </c>
       <c r="F16" s="49" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="G16" s="29">
         <v>12</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I16" s="18">
         <v>0.1</v>
@@ -2677,17 +2681,17 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="52"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="54"/>
       <c r="F17" s="50"/>
       <c r="G17" s="29">
         <v>13</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I17" s="18">
         <v>0.1</v>
@@ -2698,21 +2702,21 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
       <c r="E18" s="14">
         <v>13</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G18" s="29">
         <v>14</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I18" s="18">
         <v>0.1</v>
@@ -2723,21 +2727,21 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
-      <c r="B19" s="52"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="50"/>
       <c r="D19" s="50"/>
       <c r="E19" s="14">
         <v>14</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G19" s="29">
         <v>15</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I19" s="18">
         <v>0.2</v>
@@ -2748,7 +2752,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="55"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="15">
         <v>10</v>
       </c>
@@ -2756,19 +2760,19 @@
         <v>14</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E20" s="15">
         <v>15</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G20" s="29">
         <v>16</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I20" s="18">
         <v>1</v>
@@ -2779,7 +2783,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="51" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="15">
@@ -2789,19 +2793,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E21" s="15">
         <v>16</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G21" s="29">
         <v>17</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I21" s="18">
         <v>0.5</v>
@@ -2812,7 +2816,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="55"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="14">
         <v>12</v>
       </c>
@@ -2820,19 +2824,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E22" s="14">
         <v>17</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G22" s="29">
         <v>18</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I22" s="18">
         <v>1</v>
@@ -2843,29 +2847,29 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="51">
+      <c r="B23" s="53">
         <v>13</v>
       </c>
       <c r="C23" s="49" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E23" s="15">
         <v>18</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G23" s="30">
         <v>19</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I23" s="18">
         <v>0.25</v>
@@ -2876,21 +2880,21 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="52"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="50"/>
       <c r="D24" s="50"/>
       <c r="E24" s="14">
         <v>19</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G24" s="29">
         <v>20</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I24" s="18">
         <v>0.25</v>
@@ -2901,27 +2905,27 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="51">
+      <c r="A25" s="56"/>
+      <c r="B25" s="53">
         <v>14</v>
       </c>
       <c r="C25" s="49" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D25" s="49" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E25" s="14">
         <v>20</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G25" s="29">
         <v>21</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I25" s="48">
         <v>0.125</v>
@@ -2932,21 +2936,21 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="55"/>
-      <c r="B26" s="52"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="54"/>
       <c r="C26" s="50"/>
       <c r="D26" s="50"/>
       <c r="E26" s="14">
         <v>21</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G26" s="29">
         <v>22</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I26" s="48">
         <v>0.125</v>
@@ -2957,29 +2961,29 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="51">
+      <c r="A27" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="53">
         <v>15</v>
       </c>
       <c r="C27" s="49" t="s">
         <v>26</v>
       </c>
       <c r="D27" s="49" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E27" s="15">
         <v>22</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G27" s="29">
         <v>23</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I27" s="18">
         <v>0.15</v>
@@ -2990,21 +2994,21 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="51">
+      <c r="A28" s="56"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="53">
         <v>23</v>
       </c>
       <c r="F28" s="49" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G28" s="29">
         <v>24</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="I28" s="18">
         <v>0.1</v>
@@ -3015,17 +3019,17 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="52"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="54"/>
       <c r="F29" s="50"/>
       <c r="G29" s="29">
         <v>25</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I29" s="18">
         <v>0.1</v>
@@ -3036,21 +3040,21 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="55"/>
-      <c r="B30" s="52"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="50"/>
       <c r="D30" s="50"/>
       <c r="E30" s="15">
         <v>24</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G30" s="29">
         <v>26</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I30" s="18">
         <v>0.15</v>
@@ -3302,11 +3306,24 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D16:D19"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="B23:B24"/>
@@ -3321,28 +3338,15 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D14:D15"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="60" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="31" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3353,8 +3357,8 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3371,10 +3375,10 @@
         <v>23</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -3391,7 +3395,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C2" s="6">
         <v>10</v>
@@ -3401,32 +3405,32 @@
         <v>Autom. Builds:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F2" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54"/>
-      <c r="B3" s="58"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="9">
         <v>11</v>
       </c>
       <c r="D3" s="2" t="str">
         <f>IFERROR(VLOOKUP($C3,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Dependencieverwaltung:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
+        <v>Dependencyverwaltung:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F3" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
-      <c r="B4" s="58"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="55"/>
       <c r="C4" s="7">
         <v>14</v>
       </c>
@@ -3435,14 +3439,14 @@
         <v>Installation:_x000D_Ordinalskala (sehr gut, gut, schlecht)</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F4" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="60"/>
       <c r="C5" s="8"/>
       <c r="D5" s="3" t="str">
@@ -3453,9 +3457,9 @@
       <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="59" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C6" s="6">
         <v>4</v>
@@ -3465,15 +3469,15 @@
         <v>JSON-Format:_x000D_Ordinalskala(automatisch, manuell, nicht möglich)</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F6" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="58"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="7">
         <v>5</v>
       </c>
@@ -3482,15 +3486,15 @@
         <v>XML-Format:_x000D_Ordinalskala(automatisch, manuell, nicht möglich)</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F7" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="7">
         <v>6</v>
       </c>
@@ -3499,15 +3503,15 @@
         <v>Circuit-Breaker-Pattern:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F8" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
-      <c r="B9" s="58"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="7">
         <v>17</v>
       </c>
@@ -3516,15 +3520,15 @@
         <v>Logged Events:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F9" s="26">
         <v>0.75</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
-      <c r="B10" s="58"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="7">
         <v>18</v>
       </c>
@@ -3533,15 +3537,15 @@
         <v>JWT-Auth.:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F10" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
-      <c r="B11" s="58"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="7">
         <v>19</v>
       </c>
@@ -3550,15 +3554,15 @@
         <v>Logging:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F11" s="26">
         <v>0.75</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
-      <c r="B12" s="58"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="7">
         <v>20</v>
       </c>
@@ -3567,15 +3571,15 @@
         <v>Metriken:_x000D_Ordinalskala (Verfügbar, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F12" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
-      <c r="B13" s="58"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="7">
         <v>27</v>
       </c>
@@ -3584,15 +3588,15 @@
         <v>Discovery An- und Abmeldung:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F13" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
-      <c r="B14" s="58"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="7">
         <v>28</v>
       </c>
@@ -3601,14 +3605,14 @@
         <v>Instanzen an Discovery erfragen:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F14" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="60"/>
       <c r="C15" s="8"/>
       <c r="D15" s="3" t="str">
@@ -3619,7 +3623,7 @@
       <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="59" t="s">
         <v>0</v>
       </c>
@@ -3631,15 +3635,15 @@
         <v>Objekvalidierung:_x000D_Ordinalskala (enthalten, leicht umsetzbar, schwer umsetzbar)</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F16" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
-      <c r="B17" s="58"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="7">
         <v>2</v>
       </c>
@@ -3648,15 +3652,15 @@
         <v>HATEOAS-Links: Ordinalskala (automatisch, manuell, nicht möglich)</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F17" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
-      <c r="B18" s="58"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="7">
         <v>3</v>
       </c>
@@ -3665,15 +3669,15 @@
         <v>Schnittstelle nach Ressourcen:_x000D_Ordinalskala (automatisch, manuell, nicht möglich)</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F18" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
-      <c r="B19" s="58"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="7">
         <v>15</v>
       </c>
@@ -3682,15 +3686,15 @@
         <v>Entwicklung mit Framework:_x000D_Ordinalskala (sehr gut, gut, schlecht)</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F19" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
-      <c r="B20" s="58"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="7">
         <v>16</v>
       </c>
@@ -3699,15 +3703,15 @@
         <v>Dokumentation:_x000D_Ordinalskala (Sehr Umfangreich mit Beispielen, Umfangreich, Einfach, keine)</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F20" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="58"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="7"/>
       <c r="D21" s="2" t="str">
         <f>IFERROR(VLOOKUP($C21,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
@@ -3721,7 +3725,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="63" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C22" s="6">
         <v>12</v>
@@ -3738,8 +3742,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
-      <c r="B23" s="58"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="7">
         <v>13</v>
       </c>
@@ -3755,8 +3759,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54"/>
-      <c r="B24" s="58"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="7"/>
       <c r="D24" s="2" t="str">
         <f>IFERROR(VLOOKUP($C24,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
@@ -3766,7 +3770,7 @@
       <c r="F24" s="26"/>
     </row>
     <row r="25" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="59" t="s">
         <v>8</v>
       </c>
@@ -3778,32 +3782,32 @@
         <v>Latenz Antwort bei Messung an Endpunkt ohne Logik</v>
       </c>
       <c r="E25" s="44" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F25" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="58"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="7">
         <v>8</v>
       </c>
       <c r="D26" s="2" t="str">
         <f>IFERROR(VLOOKUP($C26,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
-        <v>Druchsatz bei 100.000 Anfragen mit 255 echt parallelen Clients in Anfragen/Sek</v>
+        <v>Durchsatz bei 100.000 Anfragen mit 255 echt parallelen Clients in Anfragen/Sek</v>
       </c>
       <c r="E26" s="45" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F26" s="26">
         <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="58"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="7">
         <v>9</v>
       </c>
@@ -3812,15 +3816,15 @@
         <v>Messung Speicherverbrauch (RSS) unter Last: Kleiner 100MB</v>
       </c>
       <c r="E27" s="46" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F27" s="26">
         <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
-      <c r="B28" s="58"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="7">
         <v>29</v>
       </c>
@@ -3829,15 +3833,15 @@
         <v>Messung Startzeit</v>
       </c>
       <c r="E28" s="46" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F28" s="26">
         <v>0.75</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="54"/>
-      <c r="B29" s="58"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="7"/>
       <c r="D29" s="2" t="str">
         <f>IFERROR(VLOOKUP($C29,'QUT-GQM'!G:H,2,FALSE),"")  &amp; ""</f>
@@ -3847,7 +3851,7 @@
       <c r="F29" s="26"/>
     </row>
     <row r="30" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="59" t="s">
         <v>24</v>
       </c>
@@ -3859,15 +3863,15 @@
         <v>Länge vom Support in Monaten pro Major Release</v>
       </c>
       <c r="E30" s="44" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F30" s="25">
         <v>0.83</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
-      <c r="B31" s="58"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="7">
         <v>22</v>
       </c>
@@ -3876,15 +3880,15 @@
         <v>Kommerzieller Support vorhanden (j/n)</v>
       </c>
       <c r="E31" s="46" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F31" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
-      <c r="B32" s="58"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="7">
         <v>23</v>
       </c>
@@ -3893,15 +3897,15 @@
         <v>Release Zykluslänge bzw. Durchschnittlicher Majorrelease Abstand</v>
       </c>
       <c r="E32" s="46" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F32" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="54"/>
-      <c r="B33" s="58"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="55"/>
       <c r="C33" s="7">
         <v>24</v>
       </c>
@@ -3910,15 +3914,15 @@
         <v>Businessimpact bei Verlust des Frameworks:_x000D_Ordinalskala(stark, mittel, schwach)</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F33" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="54"/>
-      <c r="B34" s="58"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="7">
         <v>25</v>
       </c>
@@ -3927,15 +3931,15 @@
         <v>Große Firmen die auf das Framework setzen:_x000D_Ordinalskala(viele, wenige, keine)</v>
       </c>
       <c r="E34" s="47" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F34" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="54"/>
-      <c r="B35" s="58"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="7">
         <v>26</v>
       </c>
@@ -3982,7 +3986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -4092,7 +4096,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B12" s="21">
         <f>SUM('QUT-GQM'!I27:I30)</f>
